--- a/MANTENER TABLAS DATOS.xlsx
+++ b/MANTENER TABLAS DATOS.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="MANTENER_TABLAS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MANTENER_TABLAS!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="866">
   <si>
     <t>OWNER</t>
   </si>
@@ -2616,6 +2619,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>MANTENER_TABLAS</t>
+  </si>
+  <si>
+    <t>ENMASCARAR_DATOS</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D860"/>
+  <dimension ref="A1:D862"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3152,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>863</v>
@@ -3163,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>863</v>
@@ -3174,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>863</v>
@@ -3185,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>863</v>
@@ -3196,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>863</v>
@@ -3207,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>863</v>
@@ -3218,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>863</v>
@@ -3229,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>863</v>
@@ -3240,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>863</v>
@@ -3251,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>863</v>
@@ -3262,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>863</v>
@@ -3273,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>863</v>
@@ -3284,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>863</v>
@@ -3295,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>863</v>
@@ -3416,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>863</v>
@@ -3427,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>863</v>
@@ -3438,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>863</v>
@@ -3449,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>863</v>
@@ -3460,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>863</v>
@@ -3471,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>863</v>
@@ -3482,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>863</v>
@@ -3493,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>863</v>
@@ -3504,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>863</v>
@@ -3515,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>863</v>
@@ -3526,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>863</v>
@@ -3537,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>863</v>
@@ -3548,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>863</v>
@@ -3559,7 +3568,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>863</v>
@@ -3570,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>863</v>
@@ -3581,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>863</v>
@@ -3592,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>863</v>
@@ -3603,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>863</v>
@@ -3614,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>863</v>
@@ -3625,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>863</v>
@@ -3636,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>863</v>
@@ -3647,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>863</v>
@@ -3669,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>863</v>
@@ -3922,7 +3931,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>863</v>
@@ -3933,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
         <v>863</v>
@@ -3944,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
         <v>863</v>
@@ -3988,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>863</v>
@@ -3999,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>863</v>
@@ -4120,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>863</v>
@@ -4131,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>863</v>
@@ -4142,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
         <v>863</v>
@@ -4417,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>863</v>
@@ -4428,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
         <v>863</v>
@@ -4439,7 +4448,7 @@
         <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
         <v>863</v>
@@ -4450,7 +4459,7 @@
         <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
         <v>863</v>
@@ -4461,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
         <v>863</v>
@@ -4472,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
         <v>863</v>
@@ -4483,7 +4492,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
         <v>863</v>
@@ -4494,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C140" t="s">
         <v>863</v>
@@ -4505,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
         <v>863</v>
@@ -4516,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
         <v>863</v>
@@ -4527,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
         <v>863</v>
@@ -4538,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
         <v>863</v>
@@ -4549,7 +4558,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C145" t="s">
         <v>863</v>
@@ -4560,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s">
         <v>863</v>
@@ -4571,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C147" t="s">
         <v>863</v>
@@ -4582,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C148" t="s">
         <v>863</v>
@@ -4593,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C149" t="s">
         <v>863</v>
@@ -4604,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C150" t="s">
         <v>863</v>
@@ -4615,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s">
         <v>863</v>
@@ -4626,7 +4635,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C152" t="s">
         <v>863</v>
@@ -4637,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C153" t="s">
         <v>863</v>
@@ -4648,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
         <v>863</v>
@@ -4659,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C155" t="s">
         <v>863</v>
@@ -4670,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C156" t="s">
         <v>863</v>
@@ -4681,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
         <v>863</v>
@@ -4692,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C158" t="s">
         <v>863</v>
@@ -4703,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C159" t="s">
         <v>863</v>
@@ -4901,7 +4910,7 @@
         <v>4</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C177" t="s">
         <v>863</v>
@@ -4912,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
         <v>863</v>
@@ -4923,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
         <v>863</v>
@@ -4934,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
         <v>863</v>
@@ -4945,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
         <v>863</v>
@@ -4956,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
         <v>863</v>
@@ -4967,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
         <v>863</v>
@@ -4978,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
         <v>863</v>
@@ -4989,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
         <v>863</v>
@@ -5000,7 +5009,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
         <v>863</v>
@@ -5011,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187" t="s">
         <v>863</v>
@@ -5022,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
         <v>863</v>
@@ -5033,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" t="s">
         <v>863</v>
@@ -5044,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
         <v>863</v>
@@ -5055,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
         <v>863</v>
@@ -5066,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
         <v>863</v>
@@ -5077,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
         <v>863</v>
@@ -5088,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194" t="s">
         <v>863</v>
@@ -5308,7 +5317,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C214" t="s">
         <v>863</v>
@@ -5319,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
         <v>863</v>
@@ -5330,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
         <v>863</v>
@@ -5341,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
         <v>863</v>
@@ -5352,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
         <v>863</v>
@@ -5527,8 +5536,8 @@
       <c r="A234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>237</v>
+      <c r="B234" t="s">
+        <v>865</v>
       </c>
       <c r="C234" t="s">
         <v>863</v>
@@ -5539,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
         <v>863</v>
@@ -5550,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236" t="s">
         <v>863</v>
@@ -5561,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
         <v>863</v>
@@ -5572,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
         <v>863</v>
@@ -5583,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
         <v>863</v>
@@ -5594,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C240" t="s">
         <v>863</v>
@@ -5605,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
         <v>863</v>
@@ -5616,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C242" t="s">
         <v>863</v>
@@ -5627,7 +5636,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C243" t="s">
         <v>863</v>
@@ -5638,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C244" t="s">
         <v>863</v>
@@ -5649,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C245" t="s">
         <v>863</v>
@@ -5660,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C246" t="s">
         <v>863</v>
@@ -5671,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C247" t="s">
         <v>863</v>
@@ -5682,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" t="s">
         <v>863</v>
@@ -5693,7 +5702,7 @@
         <v>4</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
         <v>863</v>
@@ -5704,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" t="s">
         <v>863</v>
@@ -5715,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C251" t="s">
         <v>863</v>
@@ -5726,7 +5735,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" t="s">
         <v>863</v>
@@ -5737,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" t="s">
         <v>863</v>
@@ -5748,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C254" t="s">
         <v>863</v>
@@ -5759,7 +5768,7 @@
         <v>4</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="C255" t="s">
         <v>863</v>
@@ -5770,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
         <v>863</v>
@@ -5781,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
         <v>863</v>
@@ -5792,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
         <v>863</v>
@@ -5803,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C259" t="s">
         <v>863</v>
@@ -5814,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
         <v>863</v>
@@ -5825,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
         <v>863</v>
@@ -5836,7 +5845,7 @@
         <v>4</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C262" t="s">
         <v>863</v>
@@ -5847,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C263" t="s">
         <v>863</v>
@@ -5858,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C264" t="s">
         <v>863</v>
@@ -5869,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
         <v>863</v>
@@ -5880,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C266" t="s">
         <v>863</v>
@@ -5891,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C267" t="s">
         <v>863</v>
@@ -5902,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
         <v>863</v>
@@ -5913,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C269" t="s">
         <v>863</v>
@@ -5924,7 +5933,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C270" t="s">
         <v>863</v>
@@ -5935,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C271" t="s">
         <v>863</v>
@@ -5946,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C272" t="s">
         <v>863</v>
@@ -5957,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C273" t="s">
         <v>863</v>
@@ -5968,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C274" t="s">
         <v>863</v>
@@ -5979,7 +5988,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" t="s">
         <v>863</v>
@@ -5990,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C276" t="s">
         <v>863</v>
@@ -6001,7 +6010,7 @@
         <v>4</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277" t="s">
         <v>863</v>
@@ -6012,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" t="s">
         <v>863</v>
@@ -6023,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279" t="s">
         <v>863</v>
@@ -6034,7 +6043,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
         <v>863</v>
@@ -6045,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" t="s">
         <v>863</v>
@@ -6056,7 +6065,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282" t="s">
         <v>863</v>
@@ -6067,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283" t="s">
         <v>863</v>
@@ -6078,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284" t="s">
         <v>863</v>
@@ -6089,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" t="s">
         <v>863</v>
@@ -6100,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286" t="s">
         <v>863</v>
@@ -6111,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287" t="s">
         <v>863</v>
@@ -6122,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C288" t="s">
         <v>863</v>
@@ -6133,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
         <v>863</v>
@@ -6144,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
         <v>863</v>
@@ -6155,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C291" t="s">
         <v>863</v>
@@ -6166,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C292" t="s">
         <v>863</v>
@@ -6177,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C293" t="s">
         <v>863</v>
@@ -6188,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C294" t="s">
         <v>863</v>
@@ -6199,7 +6208,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C295" t="s">
         <v>863</v>
@@ -6210,7 +6219,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C296" t="s">
         <v>863</v>
@@ -6221,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C297" t="s">
         <v>863</v>
@@ -6232,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C298" t="s">
         <v>863</v>
@@ -6243,7 +6252,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C299" t="s">
         <v>863</v>
@@ -6254,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" t="s">
         <v>863</v>
@@ -6265,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" t="s">
         <v>863</v>
@@ -6276,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302" t="s">
         <v>863</v>
@@ -6287,7 +6296,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C303" t="s">
         <v>863</v>
@@ -6298,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C304" t="s">
         <v>863</v>
@@ -6309,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C305" t="s">
         <v>863</v>
@@ -6320,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C306" t="s">
         <v>863</v>
@@ -6331,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C307" t="s">
         <v>863</v>
@@ -6342,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C308" t="s">
         <v>863</v>
@@ -6353,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C309" t="s">
         <v>863</v>
@@ -6364,7 +6373,7 @@
         <v>4</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C310" t="s">
         <v>863</v>
@@ -6375,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
         <v>863</v>
@@ -6386,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C312" t="s">
         <v>863</v>
@@ -6397,7 +6406,7 @@
         <v>4</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C313" t="s">
         <v>863</v>
@@ -6408,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C314" t="s">
         <v>863</v>
@@ -6419,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C315" t="s">
         <v>863</v>
@@ -6430,7 +6439,7 @@
         <v>4</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C316" t="s">
         <v>863</v>
@@ -6441,7 +6450,7 @@
         <v>4</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" t="s">
         <v>863</v>
@@ -6452,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C318" t="s">
         <v>863</v>
@@ -6463,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C319" t="s">
         <v>863</v>
@@ -6474,7 +6483,7 @@
         <v>4</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C320" t="s">
         <v>863</v>
@@ -6485,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C321" t="s">
         <v>863</v>
@@ -6496,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C322" t="s">
         <v>863</v>
@@ -6507,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C323" t="s">
         <v>863</v>
@@ -6518,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C324" t="s">
         <v>863</v>
@@ -6529,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C325" t="s">
         <v>863</v>
@@ -6540,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C326" t="s">
         <v>863</v>
@@ -6551,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" t="s">
         <v>863</v>
@@ -6562,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C328" t="s">
         <v>863</v>
@@ -6573,7 +6582,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C329" t="s">
         <v>863</v>
@@ -6584,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330" t="s">
         <v>863</v>
@@ -6595,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C331" t="s">
         <v>863</v>
@@ -6606,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C332" t="s">
         <v>863</v>
@@ -6617,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C333" t="s">
         <v>863</v>
@@ -6628,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C334" t="s">
         <v>863</v>
@@ -6639,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
         <v>863</v>
@@ -6650,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C336" t="s">
         <v>863</v>
@@ -6661,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C337" t="s">
         <v>863</v>
@@ -6672,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C338" t="s">
         <v>863</v>
@@ -6683,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C339" t="s">
         <v>863</v>
@@ -6694,7 +6703,7 @@
         <v>4</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C340" t="s">
         <v>863</v>
@@ -6705,7 +6714,7 @@
         <v>4</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C341" t="s">
         <v>863</v>
@@ -6716,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C342" t="s">
         <v>863</v>
@@ -6727,7 +6736,7 @@
         <v>4</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C343" t="s">
         <v>863</v>
@@ -6738,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C344" t="s">
         <v>863</v>
@@ -6749,7 +6758,7 @@
         <v>4</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C345" t="s">
         <v>863</v>
@@ -6760,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C346" t="s">
         <v>863</v>
@@ -6771,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C347" t="s">
         <v>863</v>
@@ -6782,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C348" t="s">
         <v>863</v>
@@ -6793,7 +6802,7 @@
         <v>4</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C349" t="s">
         <v>863</v>
@@ -6804,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C350" t="s">
         <v>863</v>
@@ -6815,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
         <v>863</v>
@@ -6826,7 +6835,7 @@
         <v>4</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C352" t="s">
         <v>863</v>
@@ -6837,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C353" t="s">
         <v>863</v>
@@ -6848,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C354" t="s">
         <v>863</v>
@@ -6859,7 +6868,7 @@
         <v>4</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C355" t="s">
         <v>863</v>
@@ -6870,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C356" t="s">
         <v>863</v>
@@ -6881,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C357" t="s">
         <v>863</v>
@@ -6892,7 +6901,7 @@
         <v>4</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C358" t="s">
         <v>863</v>
@@ -6903,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C359" t="s">
         <v>863</v>
@@ -6914,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C360" t="s">
         <v>863</v>
@@ -6925,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C361" t="s">
         <v>863</v>
@@ -6936,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C362" t="s">
         <v>863</v>
@@ -6947,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C363" t="s">
         <v>863</v>
@@ -6958,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C364" t="s">
         <v>863</v>
@@ -6969,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C365" t="s">
         <v>863</v>
@@ -6979,8 +6988,8 @@
       <c r="A366" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>369</v>
+      <c r="B366" t="s">
+        <v>864</v>
       </c>
       <c r="C366" t="s">
         <v>863</v>
@@ -6991,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C367" t="s">
         <v>863</v>
@@ -7002,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C368" t="s">
         <v>863</v>
@@ -7013,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C369" t="s">
         <v>863</v>
@@ -7024,7 +7033,7 @@
         <v>4</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C370" t="s">
         <v>863</v>
@@ -7035,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C371" t="s">
         <v>863</v>
@@ -7046,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C372" t="s">
         <v>863</v>
@@ -7057,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C373" t="s">
         <v>863</v>
@@ -7068,7 +7077,7 @@
         <v>4</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C374" t="s">
         <v>863</v>
@@ -7079,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C375" t="s">
         <v>863</v>
@@ -7090,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C376" t="s">
         <v>863</v>
@@ -7101,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C377" t="s">
         <v>863</v>
@@ -7112,7 +7121,7 @@
         <v>4</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C378" t="s">
         <v>863</v>
@@ -7123,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C379" t="s">
         <v>863</v>
@@ -7134,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C380" t="s">
         <v>863</v>
@@ -7145,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C381" t="s">
         <v>863</v>
@@ -7156,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C382" t="s">
         <v>863</v>
@@ -7167,7 +7176,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C383" t="s">
         <v>863</v>
@@ -7178,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C384" t="s">
         <v>863</v>
@@ -7189,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C385" t="s">
         <v>863</v>
@@ -7200,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C386" t="s">
         <v>863</v>
@@ -7211,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C387" t="s">
         <v>863</v>
@@ -7222,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C388" t="s">
         <v>863</v>
@@ -7233,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C389" t="s">
         <v>863</v>
@@ -7244,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C390" t="s">
         <v>863</v>
@@ -7255,7 +7264,7 @@
         <v>4</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C391" t="s">
         <v>863</v>
@@ -7266,7 +7275,7 @@
         <v>4</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C392" t="s">
         <v>863</v>
@@ -7277,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C393" t="s">
         <v>863</v>
@@ -7288,7 +7297,7 @@
         <v>4</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>3</v>
+        <v>395</v>
       </c>
       <c r="C394" t="s">
         <v>863</v>
@@ -7299,7 +7308,7 @@
         <v>4</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C395" t="s">
         <v>863</v>
@@ -7310,7 +7319,7 @@
         <v>4</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="C396" t="s">
         <v>863</v>
@@ -7321,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C397" t="s">
         <v>863</v>
@@ -7332,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C398" t="s">
         <v>863</v>
@@ -7343,7 +7352,7 @@
         <v>4</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C399" t="s">
         <v>863</v>
@@ -7354,7 +7363,7 @@
         <v>4</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C400" t="s">
         <v>863</v>
@@ -7365,7 +7374,7 @@
         <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C401" t="s">
         <v>863</v>
@@ -7376,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C402" t="s">
         <v>863</v>
@@ -7387,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C403" t="s">
         <v>863</v>
@@ -7398,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C404" t="s">
         <v>863</v>
@@ -7409,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C405" t="s">
         <v>863</v>
@@ -7420,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C406" t="s">
         <v>863</v>
@@ -7431,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C407" t="s">
         <v>863</v>
@@ -7497,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C413" t="s">
         <v>863</v>
@@ -7508,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C414" t="s">
         <v>863</v>
@@ -7519,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C415" t="s">
         <v>863</v>
@@ -7530,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C416" t="s">
         <v>863</v>
@@ -7541,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C417" t="s">
         <v>863</v>
@@ -7552,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C418" t="s">
         <v>863</v>
@@ -7563,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C419" t="s">
         <v>863</v>
@@ -7574,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C420" t="s">
         <v>863</v>
@@ -7585,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C421" t="s">
         <v>863</v>
@@ -7596,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C422" t="s">
         <v>863</v>
@@ -7607,7 +7616,7 @@
         <v>4</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C423" t="s">
         <v>863</v>
@@ -7618,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C424" t="s">
         <v>863</v>
@@ -7629,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C425" t="s">
         <v>863</v>
@@ -7640,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C426" t="s">
         <v>863</v>
@@ -7651,7 +7660,7 @@
         <v>4</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C427" t="s">
         <v>863</v>
@@ -7662,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C428" t="s">
         <v>863</v>
@@ -7673,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C429" t="s">
         <v>863</v>
@@ -7684,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C430" t="s">
         <v>863</v>
@@ -7695,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C431" t="s">
         <v>863</v>
@@ -7706,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C432" t="s">
         <v>863</v>
@@ -7717,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C433" t="s">
         <v>863</v>
@@ -7728,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C434" t="s">
         <v>863</v>
@@ -7739,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C435" t="s">
         <v>863</v>
@@ -7750,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C436" t="s">
         <v>863</v>
@@ -7761,7 +7770,7 @@
         <v>4</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C437" t="s">
         <v>863</v>
@@ -7772,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C438" t="s">
         <v>863</v>
@@ -7783,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C439" t="s">
         <v>863</v>
@@ -7794,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C440" t="s">
         <v>863</v>
@@ -7805,7 +7814,7 @@
         <v>4</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C441" t="s">
         <v>863</v>
@@ -7816,7 +7825,7 @@
         <v>4</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C442" t="s">
         <v>863</v>
@@ -7827,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C443" t="s">
         <v>863</v>
@@ -7838,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C444" t="s">
         <v>863</v>
@@ -7849,7 +7858,7 @@
         <v>4</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C445" t="s">
         <v>863</v>
@@ -7860,7 +7869,7 @@
         <v>4</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C446" t="s">
         <v>863</v>
@@ -7871,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C447" t="s">
         <v>863</v>
@@ -7882,7 +7891,7 @@
         <v>4</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C448" t="s">
         <v>863</v>
@@ -7893,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C449" t="s">
         <v>863</v>
@@ -7904,7 +7913,7 @@
         <v>4</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C450" t="s">
         <v>863</v>
@@ -7915,7 +7924,7 @@
         <v>4</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C451" t="s">
         <v>863</v>
@@ -7926,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C452" t="s">
         <v>863</v>
@@ -7937,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C453" t="s">
         <v>863</v>
@@ -7948,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C454" t="s">
         <v>863</v>
@@ -7959,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C455" t="s">
         <v>863</v>
@@ -7970,7 +7979,7 @@
         <v>4</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C456" t="s">
         <v>863</v>
@@ -7981,7 +7990,7 @@
         <v>4</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C457" t="s">
         <v>863</v>
@@ -7992,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C458" t="s">
         <v>863</v>
@@ -8003,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C459" t="s">
         <v>863</v>
@@ -8014,7 +8023,7 @@
         <v>4</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C460" t="s">
         <v>863</v>
@@ -8025,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C461" t="s">
         <v>863</v>
@@ -8036,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C462" t="s">
         <v>863</v>
@@ -8047,7 +8056,7 @@
         <v>4</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C463" t="s">
         <v>863</v>
@@ -8058,7 +8067,7 @@
         <v>4</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C464" t="s">
         <v>863</v>
@@ -8069,7 +8078,7 @@
         <v>4</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C465" t="s">
         <v>863</v>
@@ -8080,7 +8089,7 @@
         <v>4</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C466" t="s">
         <v>863</v>
@@ -8091,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C467" t="s">
         <v>863</v>
@@ -8102,7 +8111,7 @@
         <v>4</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C468" t="s">
         <v>863</v>
@@ -8113,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C469" t="s">
         <v>863</v>
@@ -8124,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C470" t="s">
         <v>863</v>
@@ -8135,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C471" t="s">
         <v>863</v>
@@ -8146,7 +8155,7 @@
         <v>4</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C472" t="s">
         <v>863</v>
@@ -8157,7 +8166,7 @@
         <v>4</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C473" t="s">
         <v>863</v>
@@ -8168,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C474" t="s">
         <v>863</v>
@@ -8179,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C475" t="s">
         <v>863</v>
@@ -8190,7 +8199,7 @@
         <v>4</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C476" t="s">
         <v>863</v>
@@ -8212,7 +8221,7 @@
         <v>4</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C478" t="s">
         <v>863</v>
@@ -8223,7 +8232,7 @@
         <v>4</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C479" t="s">
         <v>863</v>
@@ -8234,7 +8243,7 @@
         <v>4</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C480" t="s">
         <v>863</v>
@@ -8245,7 +8254,7 @@
         <v>4</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C481" t="s">
         <v>863</v>
@@ -8256,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C482" t="s">
         <v>863</v>
@@ -8267,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C483" t="s">
         <v>863</v>
@@ -8278,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C484" t="s">
         <v>863</v>
@@ -8289,7 +8298,7 @@
         <v>4</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C485" t="s">
         <v>863</v>
@@ -8300,7 +8309,7 @@
         <v>4</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C486" t="s">
         <v>863</v>
@@ -8311,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C487" t="s">
         <v>863</v>
@@ -8322,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C488" t="s">
         <v>863</v>
@@ -8333,7 +8342,7 @@
         <v>4</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C489" t="s">
         <v>863</v>
@@ -8344,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C490" t="s">
         <v>863</v>
@@ -8355,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C491" t="s">
         <v>863</v>
@@ -8366,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C492" t="s">
         <v>863</v>
@@ -8377,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C493" t="s">
         <v>863</v>
@@ -8388,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
         <v>863</v>
@@ -8399,7 +8408,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C495" t="s">
         <v>863</v>
@@ -8410,7 +8419,7 @@
         <v>4</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C496" t="s">
         <v>863</v>
@@ -8421,7 +8430,7 @@
         <v>4</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C497" t="s">
         <v>863</v>
@@ -8432,7 +8441,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C498" t="s">
         <v>863</v>
@@ -8443,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C499" t="s">
         <v>863</v>
@@ -8454,7 +8463,7 @@
         <v>4</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C500" t="s">
         <v>863</v>
@@ -8465,7 +8474,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C501" t="s">
         <v>863</v>
@@ -8476,7 +8485,7 @@
         <v>4</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C502" t="s">
         <v>863</v>
@@ -8487,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C503" t="s">
         <v>863</v>
@@ -8498,7 +8507,7 @@
         <v>4</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C504" t="s">
         <v>863</v>
@@ -8509,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C505" t="s">
         <v>863</v>
@@ -8520,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C506" t="s">
         <v>863</v>
@@ -8531,7 +8540,7 @@
         <v>4</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C507" t="s">
         <v>863</v>
@@ -8542,7 +8551,7 @@
         <v>4</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C508" t="s">
         <v>863</v>
@@ -8553,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C509" t="s">
         <v>863</v>
@@ -8564,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C510" t="s">
         <v>863</v>
@@ -8575,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C511" t="s">
         <v>863</v>
@@ -8586,7 +8595,7 @@
         <v>4</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C512" t="s">
         <v>863</v>
@@ -8597,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C513" t="s">
         <v>863</v>
@@ -8608,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C514" t="s">
         <v>863</v>
@@ -8619,7 +8628,7 @@
         <v>4</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C515" t="s">
         <v>863</v>
@@ -8630,7 +8639,7 @@
         <v>4</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C516" t="s">
         <v>863</v>
@@ -8641,7 +8650,7 @@
         <v>4</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C517" t="s">
         <v>863</v>
@@ -8652,7 +8661,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C518" t="s">
         <v>863</v>
@@ -8663,7 +8672,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C519" t="s">
         <v>863</v>
@@ -8674,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C520" t="s">
         <v>863</v>
@@ -8685,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C521" t="s">
         <v>863</v>
@@ -8696,7 +8705,7 @@
         <v>4</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C522" t="s">
         <v>863</v>
@@ -8707,7 +8716,7 @@
         <v>4</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C523" t="s">
         <v>863</v>
@@ -8718,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C524" t="s">
         <v>863</v>
@@ -8729,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C525" t="s">
         <v>863</v>
@@ -8740,7 +8749,7 @@
         <v>4</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C526" t="s">
         <v>863</v>
@@ -8751,7 +8760,7 @@
         <v>4</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C527" t="s">
         <v>863</v>
@@ -8762,7 +8771,7 @@
         <v>4</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C528" t="s">
         <v>863</v>
@@ -8773,7 +8782,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C529" t="s">
         <v>863</v>
@@ -8784,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C530" t="s">
         <v>863</v>
@@ -8795,7 +8804,7 @@
         <v>4</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C531" t="s">
         <v>863</v>
@@ -8806,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C532" t="s">
         <v>863</v>
@@ -8817,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C533" t="s">
         <v>863</v>
@@ -8828,7 +8837,7 @@
         <v>4</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C534" t="s">
         <v>863</v>
@@ -8839,7 +8848,7 @@
         <v>4</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C535" t="s">
         <v>863</v>
@@ -8850,7 +8859,7 @@
         <v>4</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C536" t="s">
         <v>863</v>
@@ -8861,7 +8870,7 @@
         <v>4</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C537" t="s">
         <v>863</v>
@@ -8872,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C538" t="s">
         <v>863</v>
@@ -8883,7 +8892,7 @@
         <v>4</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C539" t="s">
         <v>863</v>
@@ -8894,7 +8903,7 @@
         <v>4</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C540" t="s">
         <v>863</v>
@@ -8905,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C541" t="s">
         <v>863</v>
@@ -8916,7 +8925,7 @@
         <v>4</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C542" t="s">
         <v>863</v>
@@ -8927,7 +8936,7 @@
         <v>4</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C543" t="s">
         <v>863</v>
@@ -8938,7 +8947,7 @@
         <v>4</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C544" t="s">
         <v>863</v>
@@ -8949,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C545" t="s">
         <v>863</v>
@@ -8960,7 +8969,7 @@
         <v>4</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C546" t="s">
         <v>863</v>
@@ -8971,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C547" t="s">
         <v>863</v>
@@ -8982,7 +8991,7 @@
         <v>4</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C548" t="s">
         <v>863</v>
@@ -8993,7 +9002,7 @@
         <v>4</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C549" t="s">
         <v>863</v>
@@ -9004,7 +9013,7 @@
         <v>4</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C550" t="s">
         <v>863</v>
@@ -9015,7 +9024,7 @@
         <v>4</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C551" t="s">
         <v>863</v>
@@ -9026,7 +9035,7 @@
         <v>4</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C552" t="s">
         <v>863</v>
@@ -9037,7 +9046,7 @@
         <v>4</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C553" t="s">
         <v>863</v>
@@ -9048,7 +9057,7 @@
         <v>4</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C554" t="s">
         <v>863</v>
@@ -9059,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C555" t="s">
         <v>863</v>
@@ -9070,7 +9079,7 @@
         <v>4</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C556" t="s">
         <v>863</v>
@@ -9081,7 +9090,7 @@
         <v>4</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C557" t="s">
         <v>863</v>
@@ -9092,7 +9101,7 @@
         <v>4</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C558" t="s">
         <v>863</v>
@@ -9103,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C559" t="s">
         <v>863</v>
@@ -9114,7 +9123,7 @@
         <v>4</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C560" t="s">
         <v>863</v>
@@ -9125,7 +9134,7 @@
         <v>4</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C561" t="s">
         <v>863</v>
@@ -9136,7 +9145,7 @@
         <v>4</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C562" t="s">
         <v>863</v>
@@ -9147,7 +9156,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C563" t="s">
         <v>863</v>
@@ -9158,7 +9167,7 @@
         <v>4</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C564" t="s">
         <v>863</v>
@@ -9169,7 +9178,7 @@
         <v>4</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C565" t="s">
         <v>863</v>
@@ -9180,7 +9189,7 @@
         <v>4</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C566" t="s">
         <v>863</v>
@@ -9191,7 +9200,7 @@
         <v>4</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C567" t="s">
         <v>863</v>
@@ -9202,7 +9211,7 @@
         <v>4</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C568" t="s">
         <v>863</v>
@@ -9213,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C569" t="s">
         <v>863</v>
@@ -9224,7 +9233,7 @@
         <v>4</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C570" t="s">
         <v>863</v>
@@ -9235,7 +9244,7 @@
         <v>4</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C571" t="s">
         <v>863</v>
@@ -9246,7 +9255,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C572" t="s">
         <v>863</v>
@@ -9257,7 +9266,7 @@
         <v>4</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C573" t="s">
         <v>863</v>
@@ -9268,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C574" t="s">
         <v>863</v>
@@ -9279,7 +9288,7 @@
         <v>4</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C575" t="s">
         <v>863</v>
@@ -9290,7 +9299,7 @@
         <v>4</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C576" t="s">
         <v>863</v>
@@ -9301,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C577" t="s">
         <v>863</v>
@@ -9312,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C578" t="s">
         <v>863</v>
@@ -9323,7 +9332,7 @@
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C579" t="s">
         <v>863</v>
@@ -9334,7 +9343,7 @@
         <v>4</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C580" t="s">
         <v>863</v>
@@ -9345,7 +9354,7 @@
         <v>4</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C581" t="s">
         <v>863</v>
@@ -9356,7 +9365,7 @@
         <v>4</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C582" t="s">
         <v>863</v>
@@ -9367,7 +9376,7 @@
         <v>4</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="C583" t="s">
         <v>863</v>
@@ -9378,7 +9387,7 @@
         <v>4</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C584" t="s">
         <v>863</v>
@@ -9389,7 +9398,7 @@
         <v>4</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C585" t="s">
         <v>863</v>
@@ -9400,7 +9409,7 @@
         <v>4</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C586" t="s">
         <v>863</v>
@@ -9411,7 +9420,7 @@
         <v>4</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C587" t="s">
         <v>863</v>
@@ -9422,7 +9431,7 @@
         <v>4</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C588" t="s">
         <v>863</v>
@@ -9433,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C589" t="s">
         <v>863</v>
@@ -9444,7 +9453,7 @@
         <v>4</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C590" t="s">
         <v>863</v>
@@ -9455,7 +9464,7 @@
         <v>4</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C591" t="s">
         <v>863</v>
@@ -9466,7 +9475,7 @@
         <v>4</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C592" t="s">
         <v>863</v>
@@ -9477,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C593" t="s">
         <v>863</v>
@@ -9488,7 +9497,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C594" t="s">
         <v>863</v>
@@ -9499,7 +9508,7 @@
         <v>4</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C595" t="s">
         <v>863</v>
@@ -9510,7 +9519,7 @@
         <v>4</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C596" t="s">
         <v>863</v>
@@ -9521,7 +9530,7 @@
         <v>4</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C597" t="s">
         <v>863</v>
@@ -9532,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C598" t="s">
         <v>863</v>
@@ -9543,7 +9552,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C599" t="s">
         <v>863</v>
@@ -9554,7 +9563,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C600" t="s">
         <v>863</v>
@@ -9565,7 +9574,7 @@
         <v>4</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C601" t="s">
         <v>863</v>
@@ -9576,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C602" t="s">
         <v>863</v>
@@ -9587,7 +9596,7 @@
         <v>4</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C603" t="s">
         <v>863</v>
@@ -9598,7 +9607,7 @@
         <v>4</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C604" t="s">
         <v>863</v>
@@ -9609,7 +9618,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C605" t="s">
         <v>863</v>
@@ -9631,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C607" t="s">
         <v>863</v>
@@ -9642,7 +9651,7 @@
         <v>4</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C608" t="s">
         <v>863</v>
@@ -9653,7 +9662,7 @@
         <v>4</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C609" t="s">
         <v>863</v>
@@ -9664,7 +9673,7 @@
         <v>4</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C610" t="s">
         <v>863</v>
@@ -9675,7 +9684,7 @@
         <v>4</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C611" t="s">
         <v>863</v>
@@ -9686,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C612" t="s">
         <v>863</v>
@@ -9697,7 +9706,7 @@
         <v>4</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C613" t="s">
         <v>863</v>
@@ -9708,7 +9717,7 @@
         <v>4</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C614" t="s">
         <v>863</v>
@@ -9719,7 +9728,7 @@
         <v>4</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C615" t="s">
         <v>863</v>
@@ -9730,7 +9739,7 @@
         <v>4</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C616" t="s">
         <v>863</v>
@@ -9741,7 +9750,7 @@
         <v>4</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C617" t="s">
         <v>863</v>
@@ -9752,7 +9761,7 @@
         <v>4</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C618" t="s">
         <v>863</v>
@@ -9763,7 +9772,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C619" t="s">
         <v>863</v>
@@ -9774,7 +9783,7 @@
         <v>4</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C620" t="s">
         <v>863</v>
@@ -9785,7 +9794,7 @@
         <v>4</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C621" t="s">
         <v>863</v>
@@ -9796,7 +9805,7 @@
         <v>4</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C622" t="s">
         <v>863</v>
@@ -9807,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C623" t="s">
         <v>863</v>
@@ -9818,7 +9827,7 @@
         <v>4</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C624" t="s">
         <v>863</v>
@@ -9829,7 +9838,7 @@
         <v>4</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C625" t="s">
         <v>863</v>
@@ -9840,7 +9849,7 @@
         <v>4</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C626" t="s">
         <v>863</v>
@@ -9851,7 +9860,7 @@
         <v>4</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="C627" t="s">
         <v>863</v>
@@ -9862,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C628" t="s">
         <v>863</v>
@@ -9873,7 +9882,7 @@
         <v>4</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C629" t="s">
         <v>863</v>
@@ -9884,7 +9893,7 @@
         <v>4</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C630" t="s">
         <v>863</v>
@@ -9895,7 +9904,7 @@
         <v>4</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="C631" t="s">
         <v>863</v>
@@ -9906,7 +9915,7 @@
         <v>4</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C632" t="s">
         <v>863</v>
@@ -9917,7 +9926,7 @@
         <v>4</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="C633" t="s">
         <v>863</v>
@@ -9928,7 +9937,7 @@
         <v>4</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C634" t="s">
         <v>863</v>
@@ -9939,7 +9948,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="C635" t="s">
         <v>863</v>
@@ -9950,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="C636" t="s">
         <v>863</v>
@@ -9961,7 +9970,7 @@
         <v>4</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C637" t="s">
         <v>863</v>
@@ -9972,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C638" t="s">
         <v>863</v>
@@ -9983,7 +9992,7 @@
         <v>4</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="C639" t="s">
         <v>863</v>
@@ -9994,7 +10003,7 @@
         <v>4</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="C640" t="s">
         <v>863</v>
@@ -10005,7 +10014,7 @@
         <v>4</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="C641" t="s">
         <v>863</v>
@@ -10016,7 +10025,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="C642" t="s">
         <v>863</v>
@@ -10027,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="C643" t="s">
         <v>863</v>
@@ -10038,7 +10047,7 @@
         <v>4</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C644" t="s">
         <v>863</v>
@@ -10049,7 +10058,7 @@
         <v>4</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C645" t="s">
         <v>863</v>
@@ -10060,7 +10069,7 @@
         <v>4</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C646" t="s">
         <v>863</v>
@@ -10071,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C647" t="s">
         <v>863</v>
@@ -10082,7 +10091,7 @@
         <v>4</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C648" t="s">
         <v>863</v>
@@ -10093,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C649" t="s">
         <v>863</v>
@@ -10104,7 +10113,7 @@
         <v>4</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C650" t="s">
         <v>863</v>
@@ -10115,7 +10124,7 @@
         <v>4</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="C651" t="s">
         <v>863</v>
@@ -10126,7 +10135,7 @@
         <v>4</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="C652" t="s">
         <v>863</v>
@@ -10137,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C653" t="s">
         <v>863</v>
@@ -10148,7 +10157,7 @@
         <v>4</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C654" t="s">
         <v>863</v>
@@ -10159,7 +10168,7 @@
         <v>4</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C655" t="s">
         <v>863</v>
@@ -10170,7 +10179,7 @@
         <v>4</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C656" t="s">
         <v>863</v>
@@ -10181,7 +10190,7 @@
         <v>4</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C657" t="s">
         <v>863</v>
@@ -10192,7 +10201,7 @@
         <v>4</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="C658" t="s">
         <v>863</v>
@@ -10203,7 +10212,7 @@
         <v>4</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="C659" t="s">
         <v>863</v>
@@ -10214,7 +10223,7 @@
         <v>4</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="C660" t="s">
         <v>863</v>
@@ -10225,7 +10234,7 @@
         <v>4</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="C661" t="s">
         <v>863</v>
@@ -10236,7 +10245,7 @@
         <v>4</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="C662" t="s">
         <v>863</v>
@@ -10247,7 +10256,7 @@
         <v>4</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="C663" t="s">
         <v>863</v>
@@ -10258,7 +10267,7 @@
         <v>4</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C664" t="s">
         <v>863</v>
@@ -10269,7 +10278,7 @@
         <v>4</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C665" t="s">
         <v>863</v>
@@ -10280,7 +10289,7 @@
         <v>4</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C666" t="s">
         <v>863</v>
@@ -10291,7 +10300,7 @@
         <v>4</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="C667" t="s">
         <v>863</v>
@@ -10302,7 +10311,7 @@
         <v>4</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="C668" t="s">
         <v>863</v>
@@ -10313,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="C669" t="s">
         <v>863</v>
@@ -10324,7 +10333,7 @@
         <v>4</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="C670" t="s">
         <v>863</v>
@@ -10335,7 +10344,7 @@
         <v>4</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C671" t="s">
         <v>863</v>
@@ -10346,7 +10355,7 @@
         <v>4</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C672" t="s">
         <v>863</v>
@@ -10357,7 +10366,7 @@
         <v>4</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C673" t="s">
         <v>863</v>
@@ -10368,7 +10377,7 @@
         <v>4</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C674" t="s">
         <v>863</v>
@@ -10379,7 +10388,7 @@
         <v>4</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C675" t="s">
         <v>863</v>
@@ -10390,7 +10399,7 @@
         <v>4</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C676" t="s">
         <v>863</v>
@@ -10401,7 +10410,7 @@
         <v>4</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C677" t="s">
         <v>863</v>
@@ -10412,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C678" t="s">
         <v>863</v>
@@ -10423,7 +10432,7 @@
         <v>4</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C679" t="s">
         <v>863</v>
@@ -10434,7 +10443,7 @@
         <v>4</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C680" t="s">
         <v>863</v>
@@ -10445,7 +10454,7 @@
         <v>4</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C681" t="s">
         <v>863</v>
@@ -10456,7 +10465,7 @@
         <v>4</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C682" t="s">
         <v>863</v>
@@ -10467,7 +10476,7 @@
         <v>4</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C683" t="s">
         <v>863</v>
@@ -10478,7 +10487,7 @@
         <v>4</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C684" t="s">
         <v>863</v>
@@ -10489,7 +10498,7 @@
         <v>4</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C685" t="s">
         <v>863</v>
@@ -10500,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C686" t="s">
         <v>863</v>
@@ -10511,7 +10520,7 @@
         <v>4</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C687" t="s">
         <v>863</v>
@@ -10522,7 +10531,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C688" t="s">
         <v>863</v>
@@ -10533,7 +10542,7 @@
         <v>4</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C689" t="s">
         <v>863</v>
@@ -10544,7 +10553,7 @@
         <v>4</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C690" t="s">
         <v>863</v>
@@ -10555,7 +10564,7 @@
         <v>4</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C691" t="s">
         <v>863</v>
@@ -10566,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C692" t="s">
         <v>863</v>
@@ -10577,7 +10586,7 @@
         <v>4</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C693" t="s">
         <v>863</v>
@@ -10588,7 +10597,7 @@
         <v>4</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C694" t="s">
         <v>863</v>
@@ -10599,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C695" t="s">
         <v>863</v>
@@ -10610,7 +10619,7 @@
         <v>4</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C696" t="s">
         <v>863</v>
@@ -10621,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C697" t="s">
         <v>863</v>
@@ -10632,7 +10641,7 @@
         <v>4</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C698" t="s">
         <v>863</v>
@@ -10643,7 +10652,7 @@
         <v>4</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C699" t="s">
         <v>863</v>
@@ -10654,7 +10663,7 @@
         <v>4</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C700" t="s">
         <v>863</v>
@@ -10665,7 +10674,7 @@
         <v>4</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C701" t="s">
         <v>863</v>
@@ -10676,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C702" t="s">
         <v>863</v>
@@ -10687,7 +10696,7 @@
         <v>4</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C703" t="s">
         <v>863</v>
@@ -10698,7 +10707,7 @@
         <v>4</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C704" t="s">
         <v>863</v>
@@ -10709,7 +10718,7 @@
         <v>4</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C705" t="s">
         <v>863</v>
@@ -10720,7 +10729,7 @@
         <v>4</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C706" t="s">
         <v>863</v>
@@ -10731,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C707" t="s">
         <v>863</v>
@@ -10742,7 +10751,7 @@
         <v>4</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C708" t="s">
         <v>863</v>
@@ -10753,7 +10762,7 @@
         <v>4</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C709" t="s">
         <v>863</v>
@@ -10764,7 +10773,7 @@
         <v>4</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C710" t="s">
         <v>863</v>
@@ -10775,7 +10784,7 @@
         <v>4</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C711" t="s">
         <v>863</v>
@@ -10786,7 +10795,7 @@
         <v>4</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C712" t="s">
         <v>863</v>
@@ -10797,7 +10806,7 @@
         <v>4</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C713" t="s">
         <v>863</v>
@@ -10808,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C714" t="s">
         <v>863</v>
@@ -10819,7 +10828,7 @@
         <v>4</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C715" t="s">
         <v>863</v>
@@ -10830,7 +10839,7 @@
         <v>4</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C716" t="s">
         <v>863</v>
@@ -10841,7 +10850,7 @@
         <v>4</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C717" t="s">
         <v>863</v>
@@ -10852,7 +10861,7 @@
         <v>4</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C718" t="s">
         <v>863</v>
@@ -10863,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C719" t="s">
         <v>863</v>
@@ -10874,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C720" t="s">
         <v>863</v>
@@ -10885,7 +10894,7 @@
         <v>4</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C721" t="s">
         <v>863</v>
@@ -10896,7 +10905,7 @@
         <v>4</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C722" t="s">
         <v>863</v>
@@ -10907,7 +10916,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C723" t="s">
         <v>863</v>
@@ -10918,7 +10927,7 @@
         <v>4</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C724" t="s">
         <v>863</v>
@@ -10929,7 +10938,7 @@
         <v>4</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C725" t="s">
         <v>863</v>
@@ -10940,7 +10949,7 @@
         <v>4</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C726" t="s">
         <v>863</v>
@@ -10951,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C727" t="s">
         <v>863</v>
@@ -10962,7 +10971,7 @@
         <v>4</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C728" t="s">
         <v>863</v>
@@ -10973,7 +10982,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C729" t="s">
         <v>863</v>
@@ -10984,7 +10993,7 @@
         <v>4</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C730" t="s">
         <v>863</v>
@@ -10995,7 +11004,7 @@
         <v>4</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C731" t="s">
         <v>863</v>
@@ -11006,7 +11015,7 @@
         <v>4</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C732" t="s">
         <v>863</v>
@@ -11017,7 +11026,7 @@
         <v>4</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C733" t="s">
         <v>863</v>
@@ -11028,7 +11037,7 @@
         <v>4</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C734" t="s">
         <v>863</v>
@@ -11039,7 +11048,7 @@
         <v>4</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C735" t="s">
         <v>863</v>
@@ -11050,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C736" t="s">
         <v>863</v>
@@ -11061,7 +11070,7 @@
         <v>4</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C737" t="s">
         <v>863</v>
@@ -11072,7 +11081,7 @@
         <v>4</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C738" t="s">
         <v>863</v>
@@ -11083,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C739" t="s">
         <v>863</v>
@@ -11094,7 +11103,7 @@
         <v>4</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C740" t="s">
         <v>863</v>
@@ -11105,7 +11114,7 @@
         <v>4</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C741" t="s">
         <v>863</v>
@@ -11116,7 +11125,7 @@
         <v>4</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C742" t="s">
         <v>863</v>
@@ -11127,7 +11136,7 @@
         <v>4</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C743" t="s">
         <v>863</v>
@@ -11138,7 +11147,7 @@
         <v>4</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C744" t="s">
         <v>863</v>
@@ -11149,7 +11158,7 @@
         <v>4</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C745" t="s">
         <v>863</v>
@@ -11160,7 +11169,7 @@
         <v>4</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C746" t="s">
         <v>863</v>
@@ -11171,7 +11180,7 @@
         <v>4</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C747" t="s">
         <v>863</v>
@@ -11182,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C748" t="s">
         <v>863</v>
@@ -11193,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C749" t="s">
         <v>863</v>
@@ -11204,7 +11213,7 @@
         <v>4</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C750" t="s">
         <v>863</v>
@@ -11215,7 +11224,7 @@
         <v>4</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C751" t="s">
         <v>863</v>
@@ -11226,7 +11235,7 @@
         <v>4</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C752" t="s">
         <v>863</v>
@@ -11237,7 +11246,7 @@
         <v>4</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C753" t="s">
         <v>863</v>
@@ -11248,7 +11257,7 @@
         <v>4</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C754" t="s">
         <v>863</v>
@@ -11259,7 +11268,7 @@
         <v>4</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C755" t="s">
         <v>863</v>
@@ -11270,7 +11279,7 @@
         <v>4</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C756" t="s">
         <v>863</v>
@@ -11281,7 +11290,7 @@
         <v>4</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C757" t="s">
         <v>863</v>
@@ -11292,7 +11301,7 @@
         <v>4</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C758" t="s">
         <v>863</v>
@@ -11303,7 +11312,7 @@
         <v>4</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C759" t="s">
         <v>863</v>
@@ -11314,7 +11323,7 @@
         <v>4</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C760" t="s">
         <v>863</v>
@@ -11325,7 +11334,7 @@
         <v>4</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C761" t="s">
         <v>863</v>
@@ -11336,7 +11345,7 @@
         <v>4</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C762" t="s">
         <v>863</v>
@@ -11347,7 +11356,7 @@
         <v>4</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C763" t="s">
         <v>863</v>
@@ -11358,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C764" t="s">
         <v>863</v>
@@ -11369,7 +11378,7 @@
         <v>4</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C765" t="s">
         <v>863</v>
@@ -11380,7 +11389,7 @@
         <v>4</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C766" t="s">
         <v>863</v>
@@ -11391,7 +11400,7 @@
         <v>4</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C767" t="s">
         <v>863</v>
@@ -11402,7 +11411,7 @@
         <v>4</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C768" t="s">
         <v>863</v>
@@ -11413,7 +11422,7 @@
         <v>4</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C769" t="s">
         <v>863</v>
@@ -11424,7 +11433,7 @@
         <v>4</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C770" t="s">
         <v>863</v>
@@ -11435,7 +11444,7 @@
         <v>4</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C771" t="s">
         <v>863</v>
@@ -11446,7 +11455,7 @@
         <v>4</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C772" t="s">
         <v>863</v>
@@ -11457,7 +11466,7 @@
         <v>4</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C773" t="s">
         <v>863</v>
@@ -11468,7 +11477,7 @@
         <v>4</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C774" t="s">
         <v>863</v>
@@ -11479,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C775" t="s">
         <v>863</v>
@@ -11490,7 +11499,7 @@
         <v>4</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C776" t="s">
         <v>863</v>
@@ -11501,7 +11510,7 @@
         <v>4</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C777" t="s">
         <v>863</v>
@@ -11512,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C778" t="s">
         <v>863</v>
@@ -11523,7 +11532,7 @@
         <v>4</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C779" t="s">
         <v>863</v>
@@ -11534,7 +11543,7 @@
         <v>4</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C780" t="s">
         <v>863</v>
@@ -11545,7 +11554,7 @@
         <v>4</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C781" t="s">
         <v>863</v>
@@ -11556,7 +11565,7 @@
         <v>4</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C782" t="s">
         <v>863</v>
@@ -11567,7 +11576,7 @@
         <v>4</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C783" t="s">
         <v>863</v>
@@ -11578,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C784" t="s">
         <v>863</v>
@@ -11589,7 +11598,7 @@
         <v>4</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C785" t="s">
         <v>863</v>
@@ -11600,7 +11609,7 @@
         <v>4</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C786" t="s">
         <v>863</v>
@@ -11611,7 +11620,7 @@
         <v>4</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C787" t="s">
         <v>863</v>
@@ -11622,7 +11631,7 @@
         <v>4</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C788" t="s">
         <v>863</v>
@@ -11633,7 +11642,7 @@
         <v>4</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C789" t="s">
         <v>863</v>
@@ -11644,7 +11653,7 @@
         <v>4</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C790" t="s">
         <v>863</v>
@@ -11655,7 +11664,7 @@
         <v>4</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C791" t="s">
         <v>863</v>
@@ -11666,7 +11675,7 @@
         <v>4</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C792" t="s">
         <v>863</v>
@@ -11677,7 +11686,7 @@
         <v>4</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C793" t="s">
         <v>863</v>
@@ -11688,7 +11697,7 @@
         <v>4</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C794" t="s">
         <v>863</v>
@@ -11699,7 +11708,7 @@
         <v>4</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C795" t="s">
         <v>863</v>
@@ -11710,7 +11719,7 @@
         <v>4</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C796" t="s">
         <v>863</v>
@@ -11721,7 +11730,7 @@
         <v>4</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C797" t="s">
         <v>863</v>
@@ -11732,7 +11741,7 @@
         <v>4</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C798" t="s">
         <v>863</v>
@@ -11743,7 +11752,7 @@
         <v>4</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C799" t="s">
         <v>863</v>
@@ -11754,7 +11763,7 @@
         <v>4</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C800" t="s">
         <v>863</v>
@@ -11765,7 +11774,7 @@
         <v>4</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C801" t="s">
         <v>863</v>
@@ -11776,7 +11785,7 @@
         <v>4</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C802" t="s">
         <v>863</v>
@@ -11787,7 +11796,7 @@
         <v>4</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C803" t="s">
         <v>863</v>
@@ -11798,7 +11807,7 @@
         <v>4</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C804" t="s">
         <v>863</v>
@@ -11809,7 +11818,7 @@
         <v>4</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C805" t="s">
         <v>863</v>
@@ -11820,7 +11829,7 @@
         <v>4</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C806" t="s">
         <v>863</v>
@@ -11831,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C807" t="s">
         <v>863</v>
@@ -11842,7 +11851,7 @@
         <v>4</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C808" t="s">
         <v>863</v>
@@ -11853,7 +11862,7 @@
         <v>4</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C809" t="s">
         <v>863</v>
@@ -11864,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C810" t="s">
         <v>863</v>
@@ -11875,7 +11884,7 @@
         <v>4</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C811" t="s">
         <v>863</v>
@@ -11886,7 +11895,7 @@
         <v>4</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C812" t="s">
         <v>863</v>
@@ -11897,7 +11906,7 @@
         <v>4</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C813" t="s">
         <v>863</v>
@@ -11908,7 +11917,7 @@
         <v>4</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C814" t="s">
         <v>863</v>
@@ -11919,7 +11928,7 @@
         <v>4</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C815" t="s">
         <v>863</v>
@@ -11930,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C816" t="s">
         <v>863</v>
@@ -11941,7 +11950,7 @@
         <v>4</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C817" t="s">
         <v>863</v>
@@ -11952,7 +11961,7 @@
         <v>4</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C818" t="s">
         <v>863</v>
@@ -11963,7 +11972,7 @@
         <v>4</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C819" t="s">
         <v>863</v>
@@ -11974,7 +11983,7 @@
         <v>4</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C820" t="s">
         <v>863</v>
@@ -11985,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C821" t="s">
         <v>863</v>
@@ -11996,7 +12005,7 @@
         <v>4</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C822" t="s">
         <v>863</v>
@@ -12007,7 +12016,7 @@
         <v>4</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C823" t="s">
         <v>863</v>
@@ -12018,7 +12027,7 @@
         <v>4</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C824" t="s">
         <v>863</v>
@@ -12029,7 +12038,7 @@
         <v>4</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C825" t="s">
         <v>863</v>
@@ -12040,7 +12049,7 @@
         <v>4</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C826" t="s">
         <v>863</v>
@@ -12051,7 +12060,7 @@
         <v>4</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C827" t="s">
         <v>863</v>
@@ -12062,7 +12071,7 @@
         <v>4</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C828" t="s">
         <v>863</v>
@@ -12073,7 +12082,7 @@
         <v>4</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C829" t="s">
         <v>863</v>
@@ -12084,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C830" t="s">
         <v>863</v>
@@ -12095,7 +12104,7 @@
         <v>4</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C831" t="s">
         <v>863</v>
@@ -12106,7 +12115,7 @@
         <v>4</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C832" t="s">
         <v>863</v>
@@ -12117,7 +12126,7 @@
         <v>4</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C833" t="s">
         <v>863</v>
@@ -12128,7 +12137,7 @@
         <v>4</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C834" t="s">
         <v>863</v>
@@ -12139,7 +12148,7 @@
         <v>4</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C835" t="s">
         <v>863</v>
@@ -12150,7 +12159,7 @@
         <v>4</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C836" t="s">
         <v>863</v>
@@ -12161,7 +12170,7 @@
         <v>4</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C837" t="s">
         <v>863</v>
@@ -12172,7 +12181,7 @@
         <v>4</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C838" t="s">
         <v>863</v>
@@ -12183,7 +12192,7 @@
         <v>4</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C839" t="s">
         <v>863</v>
@@ -12194,7 +12203,7 @@
         <v>4</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C840" t="s">
         <v>863</v>
@@ -12205,7 +12214,7 @@
         <v>4</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C841" t="s">
         <v>863</v>
@@ -12216,7 +12225,7 @@
         <v>4</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C842" t="s">
         <v>863</v>
@@ -12227,7 +12236,7 @@
         <v>4</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C843" t="s">
         <v>863</v>
@@ -12238,7 +12247,7 @@
         <v>4</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C844" t="s">
         <v>863</v>
@@ -12249,7 +12258,7 @@
         <v>4</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C845" t="s">
         <v>863</v>
@@ -12260,7 +12269,7 @@
         <v>4</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C846" t="s">
         <v>863</v>
@@ -12271,7 +12280,7 @@
         <v>4</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C847" t="s">
         <v>863</v>
@@ -12282,7 +12291,7 @@
         <v>4</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C848" t="s">
         <v>863</v>
@@ -12293,7 +12302,7 @@
         <v>4</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C849" t="s">
         <v>863</v>
@@ -12304,7 +12313,7 @@
         <v>4</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C850" t="s">
         <v>863</v>
@@ -12315,7 +12324,7 @@
         <v>4</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C851" t="s">
         <v>863</v>
@@ -12326,7 +12335,7 @@
         <v>4</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C852" t="s">
         <v>863</v>
@@ -12337,7 +12346,7 @@
         <v>4</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C853" t="s">
         <v>863</v>
@@ -12348,7 +12357,7 @@
         <v>4</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C854" t="s">
         <v>863</v>
@@ -12359,7 +12368,7 @@
         <v>4</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C855" t="s">
         <v>863</v>
@@ -12370,7 +12379,7 @@
         <v>4</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C856" t="s">
         <v>863</v>
@@ -12381,7 +12390,7 @@
         <v>4</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C857" t="s">
         <v>863</v>
@@ -12392,7 +12401,7 @@
         <v>4</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C858" t="s">
         <v>863</v>
@@ -12403,7 +12412,7 @@
         <v>4</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C859" t="s">
         <v>863</v>
@@ -12414,9 +12423,31 @@
         <v>4</v>
       </c>
       <c r="B860" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C860" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C861" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B862" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C860" t="s">
+      <c r="C862" t="s">
         <v>863</v>
       </c>
     </row>

--- a/MANTENER TABLAS DATOS.xlsx
+++ b/MANTENER TABLAS DATOS.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="MANTENER_TABLAS" sheetId="1" r:id="rId1"/>
+    <sheet name="ENMASCARARMANTTABLAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MANTENER_TABLAS!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARMANTTABLAS!$A$1:$D$867</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="872">
   <si>
     <t>OWNER</t>
   </si>
@@ -2621,10 +2621,28 @@
     <t>Y</t>
   </si>
   <si>
-    <t>MANTENER_TABLAS</t>
-  </si>
-  <si>
-    <t>ENMASCARAR_DATOS</t>
+    <t>ENMASCARARDATOS</t>
+  </si>
+  <si>
+    <t>ENMASCARARMANTTABLAS</t>
+  </si>
+  <si>
+    <t>ENMASCARARLOG</t>
+  </si>
+  <si>
+    <t>AGVIRTUAL</t>
+  </si>
+  <si>
+    <t>OPER_FRECUENTE</t>
+  </si>
+  <si>
+    <t>PAC_CLIENTE_MAE</t>
+  </si>
+  <si>
+    <t>PAC_CLIENTE_PACINET</t>
+  </si>
+  <si>
+    <t>PAC_USUARIO_MAE</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D862"/>
+  <dimension ref="A1:D867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2981,44 +2999,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" t="s">
+        <v>868</v>
       </c>
       <c r="C2" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B3" t="s">
+        <v>869</v>
       </c>
       <c r="C3" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B4" t="s">
+        <v>870</v>
       </c>
       <c r="C4" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B5" t="s">
+        <v>871</v>
       </c>
       <c r="C5" t="s">
         <v>863</v>
@@ -3029,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>863</v>
@@ -3040,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>863</v>
@@ -3051,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>863</v>
@@ -3062,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>863</v>
@@ -3073,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>863</v>
@@ -3084,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>863</v>
@@ -3095,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>863</v>
@@ -3106,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>863</v>
@@ -3117,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>863</v>
@@ -3128,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>863</v>
@@ -3139,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>863</v>
@@ -3150,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>863</v>
@@ -3161,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>863</v>
@@ -3172,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>863</v>
@@ -3183,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>863</v>
@@ -3194,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>863</v>
@@ -3205,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>863</v>
@@ -3216,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>863</v>
@@ -3227,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>863</v>
@@ -3238,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>863</v>
@@ -3249,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>863</v>
@@ -3260,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>863</v>
@@ -3271,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>863</v>
@@ -3282,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>863</v>
@@ -3293,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>863</v>
@@ -3304,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>863</v>
@@ -3315,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>863</v>
@@ -3326,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>863</v>
@@ -3337,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>863</v>
@@ -3348,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>863</v>
@@ -3359,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>863</v>
@@ -3370,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>863</v>
@@ -3381,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>863</v>
@@ -3392,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>863</v>
@@ -3403,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>863</v>
@@ -3414,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>863</v>
@@ -3425,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>863</v>
@@ -3436,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>863</v>
@@ -3447,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>863</v>
@@ -3458,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>863</v>
@@ -3469,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>863</v>
@@ -3480,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>863</v>
@@ -3491,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>863</v>
@@ -3502,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>863</v>
@@ -3513,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>863</v>
@@ -3524,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>863</v>
@@ -3535,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>863</v>
@@ -3546,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>863</v>
@@ -3557,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>863</v>
@@ -3568,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>863</v>
@@ -3579,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>863</v>
@@ -3590,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>863</v>
@@ -3601,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>863</v>
@@ -3612,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>863</v>
@@ -3623,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>863</v>
@@ -3634,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>863</v>
@@ -3645,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>863</v>
@@ -3656,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>863</v>
@@ -3667,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>863</v>
@@ -3678,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>863</v>
@@ -3689,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>863</v>
@@ -3700,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>863</v>
@@ -3711,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>863</v>
@@ -3722,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>863</v>
@@ -3733,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>863</v>
@@ -3744,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>863</v>
@@ -3755,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>863</v>
@@ -3766,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>863</v>
@@ -3777,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>863</v>
@@ -3788,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>863</v>
@@ -3799,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>863</v>
@@ -3810,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>863</v>
@@ -3821,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>863</v>
@@ -3832,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>863</v>
@@ -3843,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>863</v>
@@ -3854,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>863</v>
@@ -3865,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>863</v>
@@ -3876,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>863</v>
@@ -3887,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>863</v>
@@ -3898,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>863</v>
@@ -3909,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>863</v>
@@ -3920,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>863</v>
@@ -3931,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>863</v>
@@ -3942,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>863</v>
@@ -3953,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>863</v>
@@ -3964,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>863</v>
@@ -3975,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
         <v>863</v>
@@ -3986,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>863</v>
@@ -3997,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
         <v>863</v>
@@ -4008,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>863</v>
@@ -4019,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>863</v>
@@ -4030,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>863</v>
@@ -4041,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
         <v>863</v>
@@ -4052,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
         <v>863</v>
@@ -4063,7 +4081,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>863</v>
@@ -4074,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>863</v>
@@ -4085,7 +4103,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>863</v>
@@ -4096,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>863</v>
@@ -4107,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>863</v>
@@ -4118,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>863</v>
@@ -4129,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>863</v>
@@ -4140,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>863</v>
@@ -4151,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>863</v>
@@ -4162,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>863</v>
@@ -4173,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>863</v>
@@ -4184,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>863</v>
@@ -4195,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>863</v>
@@ -4206,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
         <v>863</v>
@@ -4217,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>863</v>
@@ -4228,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>863</v>
@@ -4239,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
         <v>863</v>
@@ -4250,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>863</v>
@@ -4261,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>863</v>
@@ -4272,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
         <v>863</v>
@@ -4283,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>863</v>
@@ -4294,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>863</v>
@@ -4305,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
         <v>863</v>
@@ -4316,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
         <v>863</v>
@@ -4327,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
         <v>863</v>
@@ -4338,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>863</v>
@@ -4349,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>863</v>
@@ -4360,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
         <v>863</v>
@@ -4371,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>863</v>
@@ -4382,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>863</v>
@@ -4393,7 +4411,7 @@
         <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>863</v>
@@ -4404,7 +4422,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>863</v>
@@ -4415,7 +4433,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
         <v>863</v>
@@ -4426,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>863</v>
@@ -4437,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
         <v>863</v>
@@ -4448,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>863</v>
@@ -4459,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>863</v>
@@ -4470,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
         <v>863</v>
@@ -4481,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
         <v>863</v>
@@ -4492,7 +4510,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
         <v>863</v>
@@ -4503,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
         <v>863</v>
@@ -4514,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
         <v>863</v>
@@ -4525,7 +4543,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
         <v>863</v>
@@ -4536,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
         <v>863</v>
@@ -4547,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
         <v>863</v>
@@ -4558,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
         <v>863</v>
@@ -4569,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
         <v>863</v>
@@ -4580,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
         <v>863</v>
@@ -4591,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
         <v>863</v>
@@ -4602,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
         <v>863</v>
@@ -4613,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
         <v>863</v>
@@ -4624,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
         <v>863</v>
@@ -4635,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
         <v>863</v>
@@ -4646,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
         <v>863</v>
@@ -4657,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
         <v>863</v>
@@ -4668,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>863</v>
@@ -4679,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
         <v>863</v>
@@ -4690,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
         <v>863</v>
@@ -4701,7 +4719,7 @@
         <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
         <v>863</v>
@@ -4712,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
         <v>863</v>
@@ -4723,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C160" t="s">
         <v>863</v>
@@ -4734,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C161" t="s">
         <v>863</v>
@@ -4745,7 +4763,7 @@
         <v>4</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C162" t="s">
         <v>863</v>
@@ -4756,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C163" t="s">
         <v>863</v>
@@ -4767,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
         <v>863</v>
@@ -4778,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
         <v>863</v>
@@ -4789,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
         <v>863</v>
@@ -4800,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
         <v>863</v>
@@ -4811,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
         <v>863</v>
@@ -4822,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
         <v>863</v>
@@ -4833,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
         <v>863</v>
@@ -4844,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
         <v>863</v>
@@ -4855,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
         <v>863</v>
@@ -4866,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
         <v>863</v>
@@ -4877,7 +4895,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
         <v>863</v>
@@ -4888,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
         <v>863</v>
@@ -4899,7 +4917,7 @@
         <v>4</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
         <v>863</v>
@@ -4910,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
         <v>863</v>
@@ -4921,7 +4939,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
         <v>863</v>
@@ -4932,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
         <v>863</v>
@@ -4943,7 +4961,7 @@
         <v>4</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>863</v>
@@ -4954,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
         <v>863</v>
@@ -4965,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C182" t="s">
         <v>863</v>
@@ -4976,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C183" t="s">
         <v>863</v>
@@ -4987,7 +5005,7 @@
         <v>4</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
         <v>863</v>
@@ -4998,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C185" t="s">
         <v>863</v>
@@ -5009,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C186" t="s">
         <v>863</v>
@@ -5020,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C187" t="s">
         <v>863</v>
@@ -5031,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C188" t="s">
         <v>863</v>
@@ -5042,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C189" t="s">
         <v>863</v>
@@ -5053,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C190" t="s">
         <v>863</v>
@@ -5064,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C191" t="s">
         <v>863</v>
@@ -5075,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C192" t="s">
         <v>863</v>
@@ -5086,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C193" t="s">
         <v>863</v>
@@ -5097,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C194" t="s">
         <v>863</v>
@@ -5108,7 +5126,7 @@
         <v>4</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C195" t="s">
         <v>863</v>
@@ -5119,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C196" t="s">
         <v>863</v>
@@ -5130,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C197" t="s">
         <v>863</v>
@@ -5141,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C198" t="s">
         <v>863</v>
@@ -5152,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
         <v>863</v>
@@ -5163,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
         <v>863</v>
@@ -5174,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
         <v>863</v>
@@ -5185,7 +5203,7 @@
         <v>4</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
         <v>863</v>
@@ -5196,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
         <v>863</v>
@@ -5207,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
         <v>863</v>
@@ -5218,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
         <v>863</v>
@@ -5229,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
         <v>863</v>
@@ -5240,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
         <v>863</v>
@@ -5251,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
         <v>863</v>
@@ -5262,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
         <v>863</v>
@@ -5273,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
         <v>863</v>
@@ -5284,7 +5302,7 @@
         <v>4</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
         <v>863</v>
@@ -5295,7 +5313,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
         <v>863</v>
@@ -5306,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s">
         <v>863</v>
@@ -5317,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
         <v>863</v>
@@ -5328,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
         <v>863</v>
@@ -5339,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
         <v>863</v>
@@ -5350,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
         <v>863</v>
@@ -5361,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
         <v>863</v>
@@ -5372,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
         <v>863</v>
@@ -5383,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C220" t="s">
         <v>863</v>
@@ -5394,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
         <v>863</v>
@@ -5405,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C222" t="s">
         <v>863</v>
@@ -5416,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
         <v>863</v>
@@ -5427,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
         <v>863</v>
@@ -5438,7 +5456,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
         <v>863</v>
@@ -5449,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
         <v>863</v>
@@ -5460,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C227" t="s">
         <v>863</v>
@@ -5471,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
         <v>863</v>
@@ -5482,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
         <v>863</v>
@@ -5493,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C230" t="s">
         <v>863</v>
@@ -5504,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C231" t="s">
         <v>863</v>
@@ -5515,7 +5533,7 @@
         <v>4</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
         <v>863</v>
@@ -5526,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
         <v>863</v>
@@ -5536,8 +5554,8 @@
       <c r="A234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B234" t="s">
-        <v>865</v>
+      <c r="B234" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C234" t="s">
         <v>863</v>
@@ -5548,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
         <v>863</v>
@@ -5559,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C236" t="s">
         <v>863</v>
@@ -5570,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C237" t="s">
         <v>863</v>
@@ -5580,8 +5598,8 @@
       <c r="A238" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>240</v>
+      <c r="B238" t="s">
+        <v>864</v>
       </c>
       <c r="C238" t="s">
         <v>863</v>
@@ -5591,8 +5609,8 @@
       <c r="A239" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>241</v>
+      <c r="B239" t="s">
+        <v>866</v>
       </c>
       <c r="C239" t="s">
         <v>863</v>
@@ -5602,8 +5620,8 @@
       <c r="A240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>242</v>
+      <c r="B240" t="s">
+        <v>865</v>
       </c>
       <c r="C240" t="s">
         <v>863</v>
@@ -5614,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C241" t="s">
         <v>863</v>
@@ -5625,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C242" t="s">
         <v>863</v>
@@ -5636,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C243" t="s">
         <v>863</v>
@@ -5647,7 +5665,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C244" t="s">
         <v>863</v>
@@ -5658,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C245" t="s">
         <v>863</v>
@@ -5669,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C246" t="s">
         <v>863</v>
@@ -5680,7 +5698,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C247" t="s">
         <v>863</v>
@@ -5691,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C248" t="s">
         <v>863</v>
@@ -5702,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C249" t="s">
         <v>863</v>
@@ -5713,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C250" t="s">
         <v>863</v>
@@ -5724,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C251" t="s">
         <v>863</v>
@@ -5735,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C252" t="s">
         <v>863</v>
@@ -5746,7 +5764,7 @@
         <v>4</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s">
         <v>863</v>
@@ -5757,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C254" t="s">
         <v>863</v>
@@ -5768,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s">
         <v>863</v>
@@ -5779,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C256" t="s">
         <v>863</v>
@@ -5790,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C257" t="s">
         <v>863</v>
@@ -5801,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C258" t="s">
         <v>863</v>
@@ -5812,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C259" t="s">
         <v>863</v>
@@ -5823,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
         <v>863</v>
@@ -5834,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C261" t="s">
         <v>863</v>
@@ -5845,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C262" t="s">
         <v>863</v>
@@ -5856,7 +5874,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
         <v>863</v>
@@ -5867,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C264" t="s">
         <v>863</v>
@@ -5878,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C265" t="s">
         <v>863</v>
@@ -5889,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C266" t="s">
         <v>863</v>
@@ -5900,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C267" t="s">
         <v>863</v>
@@ -5911,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C268" t="s">
         <v>863</v>
@@ -5922,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C269" t="s">
         <v>863</v>
@@ -5933,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C270" t="s">
         <v>863</v>
@@ -5944,7 +5962,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C271" t="s">
         <v>863</v>
@@ -5955,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C272" t="s">
         <v>863</v>
@@ -5966,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C273" t="s">
         <v>863</v>
@@ -5977,7 +5995,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C274" t="s">
         <v>863</v>
@@ -5988,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C275" t="s">
         <v>863</v>
@@ -5999,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C276" t="s">
         <v>863</v>
@@ -6010,7 +6028,7 @@
         <v>4</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C277" t="s">
         <v>863</v>
@@ -6021,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C278" t="s">
         <v>863</v>
@@ -6032,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C279" t="s">
         <v>863</v>
@@ -6043,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C280" t="s">
         <v>863</v>
@@ -6054,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C281" t="s">
         <v>863</v>
@@ -6065,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C282" t="s">
         <v>863</v>
@@ -6076,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C283" t="s">
         <v>863</v>
@@ -6087,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C284" t="s">
         <v>863</v>
@@ -6098,7 +6116,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C285" t="s">
         <v>863</v>
@@ -6109,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C286" t="s">
         <v>863</v>
@@ -6120,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C287" t="s">
         <v>863</v>
@@ -6131,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C288" t="s">
         <v>863</v>
@@ -6142,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C289" t="s">
         <v>863</v>
@@ -6153,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C290" t="s">
         <v>863</v>
@@ -6164,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C291" t="s">
         <v>863</v>
@@ -6175,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C292" t="s">
         <v>863</v>
@@ -6186,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C293" t="s">
         <v>863</v>
@@ -6197,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C294" t="s">
         <v>863</v>
@@ -6208,7 +6226,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C295" t="s">
         <v>863</v>
@@ -6219,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C296" t="s">
         <v>863</v>
@@ -6230,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C297" t="s">
         <v>863</v>
@@ -6241,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C298" t="s">
         <v>863</v>
@@ -6252,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C299" t="s">
         <v>863</v>
@@ -6263,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C300" t="s">
         <v>863</v>
@@ -6274,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C301" t="s">
         <v>863</v>
@@ -6285,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C302" t="s">
         <v>863</v>
@@ -6296,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s">
         <v>863</v>
@@ -6307,7 +6325,7 @@
         <v>4</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
         <v>863</v>
@@ -6318,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C305" t="s">
         <v>863</v>
@@ -6329,7 +6347,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C306" t="s">
         <v>863</v>
@@ -6340,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C307" t="s">
         <v>863</v>
@@ -6351,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C308" t="s">
         <v>863</v>
@@ -6362,7 +6380,7 @@
         <v>4</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C309" t="s">
         <v>863</v>
@@ -6373,7 +6391,7 @@
         <v>4</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
         <v>863</v>
@@ -6384,7 +6402,7 @@
         <v>4</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C311" t="s">
         <v>863</v>
@@ -6395,7 +6413,7 @@
         <v>4</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C312" t="s">
         <v>863</v>
@@ -6406,7 +6424,7 @@
         <v>4</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C313" t="s">
         <v>863</v>
@@ -6417,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C314" t="s">
         <v>863</v>
@@ -6428,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C315" t="s">
         <v>863</v>
@@ -6439,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C316" t="s">
         <v>863</v>
@@ -6450,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C317" t="s">
         <v>863</v>
@@ -6461,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C318" t="s">
         <v>863</v>
@@ -6472,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C319" t="s">
         <v>863</v>
@@ -6483,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C320" t="s">
         <v>863</v>
@@ -6494,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C321" t="s">
         <v>863</v>
@@ -6505,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C322" t="s">
         <v>863</v>
@@ -6516,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C323" t="s">
         <v>863</v>
@@ -6527,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C324" t="s">
         <v>863</v>
@@ -6538,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C325" t="s">
         <v>863</v>
@@ -6549,7 +6567,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C326" t="s">
         <v>863</v>
@@ -6560,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C327" t="s">
         <v>863</v>
@@ -6571,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C328" t="s">
         <v>863</v>
@@ -6582,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C329" t="s">
         <v>863</v>
@@ -6593,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C330" t="s">
         <v>863</v>
@@ -6604,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C331" t="s">
         <v>863</v>
@@ -6615,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C332" t="s">
         <v>863</v>
@@ -6626,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C333" t="s">
         <v>863</v>
@@ -6637,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C334" t="s">
         <v>863</v>
@@ -6648,7 +6666,7 @@
         <v>4</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C335" t="s">
         <v>863</v>
@@ -6659,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C336" t="s">
         <v>863</v>
@@ -6670,7 +6688,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C337" t="s">
         <v>863</v>
@@ -6681,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C338" t="s">
         <v>863</v>
@@ -6692,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C339" t="s">
         <v>863</v>
@@ -6703,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C340" t="s">
         <v>863</v>
@@ -6714,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C341" t="s">
         <v>863</v>
@@ -6725,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C342" t="s">
         <v>863</v>
@@ -6736,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C343" t="s">
         <v>863</v>
@@ -6747,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C344" t="s">
         <v>863</v>
@@ -6758,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C345" t="s">
         <v>863</v>
@@ -6769,7 +6787,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C346" t="s">
         <v>863</v>
@@ -6780,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C347" t="s">
         <v>863</v>
@@ -6791,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C348" t="s">
         <v>863</v>
@@ -6802,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C349" t="s">
         <v>863</v>
@@ -6813,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C350" t="s">
         <v>863</v>
@@ -6824,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C351" t="s">
         <v>863</v>
@@ -6835,7 +6853,7 @@
         <v>4</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C352" t="s">
         <v>863</v>
@@ -6846,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C353" t="s">
         <v>863</v>
@@ -6857,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C354" t="s">
         <v>863</v>
@@ -6868,7 +6886,7 @@
         <v>4</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C355" t="s">
         <v>863</v>
@@ -6879,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C356" t="s">
         <v>863</v>
@@ -6890,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C357" t="s">
         <v>863</v>
@@ -6901,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C358" t="s">
         <v>863</v>
@@ -6912,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C359" t="s">
         <v>863</v>
@@ -6923,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C360" t="s">
         <v>863</v>
@@ -6934,7 +6952,7 @@
         <v>4</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C361" t="s">
         <v>863</v>
@@ -6945,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C362" t="s">
         <v>863</v>
@@ -6956,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C363" t="s">
         <v>863</v>
@@ -6967,7 +6985,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C364" t="s">
         <v>863</v>
@@ -6978,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C365" t="s">
         <v>863</v>
@@ -6988,8 +7006,8 @@
       <c r="A366" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B366" t="s">
-        <v>864</v>
+      <c r="B366" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C366" t="s">
         <v>863</v>
@@ -7000,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C367" t="s">
         <v>863</v>
@@ -7011,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C368" t="s">
         <v>863</v>
@@ -7022,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C369" t="s">
         <v>863</v>
@@ -7033,7 +7051,7 @@
         <v>4</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C370" t="s">
         <v>863</v>
@@ -7044,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C371" t="s">
         <v>863</v>
@@ -7055,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C372" t="s">
         <v>863</v>
@@ -7066,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C373" t="s">
         <v>863</v>
@@ -7077,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C374" t="s">
         <v>863</v>
@@ -7088,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C375" t="s">
         <v>863</v>
@@ -7099,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C376" t="s">
         <v>863</v>
@@ -7110,7 +7128,7 @@
         <v>4</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C377" t="s">
         <v>863</v>
@@ -7121,7 +7139,7 @@
         <v>4</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C378" t="s">
         <v>863</v>
@@ -7132,7 +7150,7 @@
         <v>4</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C379" t="s">
         <v>863</v>
@@ -7143,7 +7161,7 @@
         <v>4</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C380" t="s">
         <v>863</v>
@@ -7154,7 +7172,7 @@
         <v>4</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C381" t="s">
         <v>863</v>
@@ -7165,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C382" t="s">
         <v>863</v>
@@ -7176,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C383" t="s">
         <v>863</v>
@@ -7187,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C384" t="s">
         <v>863</v>
@@ -7198,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C385" t="s">
         <v>863</v>
@@ -7209,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C386" t="s">
         <v>863</v>
@@ -7220,7 +7238,7 @@
         <v>4</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C387" t="s">
         <v>863</v>
@@ -7231,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C388" t="s">
         <v>863</v>
@@ -7242,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C389" t="s">
         <v>863</v>
@@ -7253,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C390" t="s">
         <v>863</v>
@@ -7264,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C391" t="s">
         <v>863</v>
@@ -7275,7 +7293,7 @@
         <v>4</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C392" t="s">
         <v>863</v>
@@ -7286,7 +7304,7 @@
         <v>4</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C393" t="s">
         <v>863</v>
@@ -7297,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C394" t="s">
         <v>863</v>
@@ -7308,7 +7326,7 @@
         <v>4</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C395" t="s">
         <v>863</v>
@@ -7319,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="C396" t="s">
         <v>863</v>
@@ -7330,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C397" t="s">
         <v>863</v>
@@ -7341,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C398" t="s">
         <v>863</v>
@@ -7352,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C399" t="s">
         <v>863</v>
@@ -7363,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C400" t="s">
         <v>863</v>
@@ -7374,7 +7392,7 @@
         <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>404</v>
+        <v>3</v>
       </c>
       <c r="C401" t="s">
         <v>863</v>
@@ -7385,7 +7403,7 @@
         <v>4</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C402" t="s">
         <v>863</v>
@@ -7396,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C403" t="s">
         <v>863</v>
@@ -7407,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C404" t="s">
         <v>863</v>
@@ -7418,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C405" t="s">
         <v>863</v>
@@ -7429,7 +7447,7 @@
         <v>4</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C406" t="s">
         <v>863</v>
@@ -7440,7 +7458,7 @@
         <v>4</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C407" t="s">
         <v>863</v>
@@ -7451,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C408" t="s">
         <v>863</v>
@@ -7462,7 +7480,7 @@
         <v>4</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C409" t="s">
         <v>863</v>
@@ -7473,7 +7491,7 @@
         <v>4</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C410" t="s">
         <v>863</v>
@@ -7484,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C411" t="s">
         <v>863</v>
@@ -7495,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C412" t="s">
         <v>863</v>
@@ -7506,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C413" t="s">
         <v>863</v>
@@ -7517,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C414" t="s">
         <v>863</v>
@@ -7528,7 +7546,7 @@
         <v>4</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C415" t="s">
         <v>863</v>
@@ -7539,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C416" t="s">
         <v>863</v>
@@ -7550,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C417" t="s">
         <v>863</v>
@@ -7561,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C418" t="s">
         <v>863</v>
@@ -7572,7 +7590,7 @@
         <v>4</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C419" t="s">
         <v>863</v>
@@ -7583,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C420" t="s">
         <v>863</v>
@@ -7594,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C421" t="s">
         <v>863</v>
@@ -7605,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C422" t="s">
         <v>863</v>
@@ -7616,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C423" t="s">
         <v>863</v>
@@ -7627,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C424" t="s">
         <v>863</v>
@@ -7638,7 +7656,7 @@
         <v>4</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C425" t="s">
         <v>863</v>
@@ -7649,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C426" t="s">
         <v>863</v>
@@ -7660,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C427" t="s">
         <v>863</v>
@@ -7671,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C428" t="s">
         <v>863</v>
@@ -7682,7 +7700,7 @@
         <v>4</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C429" t="s">
         <v>863</v>
@@ -7693,7 +7711,7 @@
         <v>4</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C430" t="s">
         <v>863</v>
@@ -7704,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C431" t="s">
         <v>863</v>
@@ -7715,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C432" t="s">
         <v>863</v>
@@ -7726,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C433" t="s">
         <v>863</v>
@@ -7737,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C434" t="s">
         <v>863</v>
@@ -7748,7 +7766,7 @@
         <v>4</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C435" t="s">
         <v>863</v>
@@ -7759,7 +7777,7 @@
         <v>4</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C436" t="s">
         <v>863</v>
@@ -7770,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="C437" t="s">
         <v>863</v>
@@ -7781,7 +7799,7 @@
         <v>4</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C438" t="s">
         <v>863</v>
@@ -7792,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C439" t="s">
         <v>863</v>
@@ -7803,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C440" t="s">
         <v>863</v>
@@ -7814,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C441" t="s">
         <v>863</v>
@@ -7825,7 +7843,7 @@
         <v>4</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C442" t="s">
         <v>863</v>
@@ -7836,7 +7854,7 @@
         <v>4</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C443" t="s">
         <v>863</v>
@@ -7847,7 +7865,7 @@
         <v>4</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C444" t="s">
         <v>863</v>
@@ -7858,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C445" t="s">
         <v>863</v>
@@ -7869,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C446" t="s">
         <v>863</v>
@@ -7880,7 +7898,7 @@
         <v>4</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C447" t="s">
         <v>863</v>
@@ -7891,7 +7909,7 @@
         <v>4</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C448" t="s">
         <v>863</v>
@@ -7902,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C449" t="s">
         <v>863</v>
@@ -7913,7 +7931,7 @@
         <v>4</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C450" t="s">
         <v>863</v>
@@ -7924,7 +7942,7 @@
         <v>4</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C451" t="s">
         <v>863</v>
@@ -7935,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C452" t="s">
         <v>863</v>
@@ -7946,7 +7964,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C453" t="s">
         <v>863</v>
@@ -7957,7 +7975,7 @@
         <v>4</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C454" t="s">
         <v>863</v>
@@ -7968,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C455" t="s">
         <v>863</v>
@@ -7979,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C456" t="s">
         <v>863</v>
@@ -7990,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C457" t="s">
         <v>863</v>
@@ -8001,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C458" t="s">
         <v>863</v>
@@ -8012,7 +8030,7 @@
         <v>4</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C459" t="s">
         <v>863</v>
@@ -8023,7 +8041,7 @@
         <v>4</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C460" t="s">
         <v>863</v>
@@ -8034,7 +8052,7 @@
         <v>4</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C461" t="s">
         <v>863</v>
@@ -8045,7 +8063,7 @@
         <v>4</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C462" t="s">
         <v>863</v>
@@ -8056,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C463" t="s">
         <v>863</v>
@@ -8067,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C464" t="s">
         <v>863</v>
@@ -8078,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C465" t="s">
         <v>863</v>
@@ -8089,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C466" t="s">
         <v>863</v>
@@ -8100,7 +8118,7 @@
         <v>4</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C467" t="s">
         <v>863</v>
@@ -8111,7 +8129,7 @@
         <v>4</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C468" t="s">
         <v>863</v>
@@ -8122,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C469" t="s">
         <v>863</v>
@@ -8133,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C470" t="s">
         <v>863</v>
@@ -8144,7 +8162,7 @@
         <v>4</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C471" t="s">
         <v>863</v>
@@ -8155,7 +8173,7 @@
         <v>4</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C472" t="s">
         <v>863</v>
@@ -8166,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C473" t="s">
         <v>863</v>
@@ -8177,7 +8195,7 @@
         <v>4</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="C474" t="s">
         <v>863</v>
@@ -8188,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C475" t="s">
         <v>863</v>
@@ -8199,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C476" t="s">
         <v>863</v>
@@ -8210,7 +8228,7 @@
         <v>4</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C477" t="s">
         <v>863</v>
@@ -8221,7 +8239,7 @@
         <v>4</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C478" t="s">
         <v>863</v>
@@ -8232,7 +8250,7 @@
         <v>4</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C479" t="s">
         <v>863</v>
@@ -8243,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C480" t="s">
         <v>863</v>
@@ -8254,7 +8272,7 @@
         <v>4</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C481" t="s">
         <v>863</v>
@@ -8265,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C482" t="s">
         <v>863</v>
@@ -8276,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C483" t="s">
         <v>863</v>
@@ -8287,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C484" t="s">
         <v>863</v>
@@ -8298,7 +8316,7 @@
         <v>4</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C485" t="s">
         <v>863</v>
@@ -8309,7 +8327,7 @@
         <v>4</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C486" t="s">
         <v>863</v>
@@ -8320,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C487" t="s">
         <v>863</v>
@@ -8331,7 +8349,7 @@
         <v>4</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C488" t="s">
         <v>863</v>
@@ -8342,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C489" t="s">
         <v>863</v>
@@ -8353,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C490" t="s">
         <v>863</v>
@@ -8364,7 +8382,7 @@
         <v>4</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C491" t="s">
         <v>863</v>
@@ -8375,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C492" t="s">
         <v>863</v>
@@ -8386,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C493" t="s">
         <v>863</v>
@@ -8397,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C494" t="s">
         <v>863</v>
@@ -8408,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C495" t="s">
         <v>863</v>
@@ -8419,7 +8437,7 @@
         <v>4</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C496" t="s">
         <v>863</v>
@@ -8430,7 +8448,7 @@
         <v>4</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C497" t="s">
         <v>863</v>
@@ -8441,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C498" t="s">
         <v>863</v>
@@ -8452,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C499" t="s">
         <v>863</v>
@@ -8463,7 +8481,7 @@
         <v>4</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C500" t="s">
         <v>863</v>
@@ -8474,7 +8492,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C501" t="s">
         <v>863</v>
@@ -8485,7 +8503,7 @@
         <v>4</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C502" t="s">
         <v>863</v>
@@ -8496,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C503" t="s">
         <v>863</v>
@@ -8507,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C504" t="s">
         <v>863</v>
@@ -8518,7 +8536,7 @@
         <v>4</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C505" t="s">
         <v>863</v>
@@ -8529,7 +8547,7 @@
         <v>4</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C506" t="s">
         <v>863</v>
@@ -8540,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C507" t="s">
         <v>863</v>
@@ -8551,7 +8569,7 @@
         <v>4</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C508" t="s">
         <v>863</v>
@@ -8562,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C509" t="s">
         <v>863</v>
@@ -8573,7 +8591,7 @@
         <v>4</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C510" t="s">
         <v>863</v>
@@ -8584,7 +8602,7 @@
         <v>4</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C511" t="s">
         <v>863</v>
@@ -8595,7 +8613,7 @@
         <v>4</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C512" t="s">
         <v>863</v>
@@ -8606,7 +8624,7 @@
         <v>4</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C513" t="s">
         <v>863</v>
@@ -8617,7 +8635,7 @@
         <v>4</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C514" t="s">
         <v>863</v>
@@ -8628,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C515" t="s">
         <v>863</v>
@@ -8639,7 +8657,7 @@
         <v>4</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C516" t="s">
         <v>863</v>
@@ -8650,7 +8668,7 @@
         <v>4</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C517" t="s">
         <v>863</v>
@@ -8661,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C518" t="s">
         <v>863</v>
@@ -8672,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C519" t="s">
         <v>863</v>
@@ -8683,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C520" t="s">
         <v>863</v>
@@ -8694,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C521" t="s">
         <v>863</v>
@@ -8705,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C522" t="s">
         <v>863</v>
@@ -8716,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C523" t="s">
         <v>863</v>
@@ -8727,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C524" t="s">
         <v>863</v>
@@ -8738,7 +8756,7 @@
         <v>4</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C525" t="s">
         <v>863</v>
@@ -8749,7 +8767,7 @@
         <v>4</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C526" t="s">
         <v>863</v>
@@ -8760,7 +8778,7 @@
         <v>4</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C527" t="s">
         <v>863</v>
@@ -8771,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C528" t="s">
         <v>863</v>
@@ -8782,7 +8800,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C529" t="s">
         <v>863</v>
@@ -8793,7 +8811,7 @@
         <v>4</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C530" t="s">
         <v>863</v>
@@ -8804,7 +8822,7 @@
         <v>4</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C531" t="s">
         <v>863</v>
@@ -8815,7 +8833,7 @@
         <v>4</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C532" t="s">
         <v>863</v>
@@ -8826,7 +8844,7 @@
         <v>4</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C533" t="s">
         <v>863</v>
@@ -8837,7 +8855,7 @@
         <v>4</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C534" t="s">
         <v>863</v>
@@ -8848,7 +8866,7 @@
         <v>4</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C535" t="s">
         <v>863</v>
@@ -8859,7 +8877,7 @@
         <v>4</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C536" t="s">
         <v>863</v>
@@ -8870,7 +8888,7 @@
         <v>4</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C537" t="s">
         <v>863</v>
@@ -8881,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C538" t="s">
         <v>863</v>
@@ -8892,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C539" t="s">
         <v>863</v>
@@ -8903,7 +8921,7 @@
         <v>4</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C540" t="s">
         <v>863</v>
@@ -8914,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C541" t="s">
         <v>863</v>
@@ -8925,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C542" t="s">
         <v>863</v>
@@ -8936,7 +8954,7 @@
         <v>4</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C543" t="s">
         <v>863</v>
@@ -8947,7 +8965,7 @@
         <v>4</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C544" t="s">
         <v>863</v>
@@ -8958,7 +8976,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C545" t="s">
         <v>863</v>
@@ -8969,7 +8987,7 @@
         <v>4</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C546" t="s">
         <v>863</v>
@@ -8980,7 +8998,7 @@
         <v>4</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C547" t="s">
         <v>863</v>
@@ -8991,7 +9009,7 @@
         <v>4</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C548" t="s">
         <v>863</v>
@@ -9002,7 +9020,7 @@
         <v>4</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C549" t="s">
         <v>863</v>
@@ -9013,7 +9031,7 @@
         <v>4</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C550" t="s">
         <v>863</v>
@@ -9024,7 +9042,7 @@
         <v>4</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C551" t="s">
         <v>863</v>
@@ -9035,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C552" t="s">
         <v>863</v>
@@ -9046,7 +9064,7 @@
         <v>4</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C553" t="s">
         <v>863</v>
@@ -9057,7 +9075,7 @@
         <v>4</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C554" t="s">
         <v>863</v>
@@ -9068,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C555" t="s">
         <v>863</v>
@@ -9079,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C556" t="s">
         <v>863</v>
@@ -9090,7 +9108,7 @@
         <v>4</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C557" t="s">
         <v>863</v>
@@ -9101,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C558" t="s">
         <v>863</v>
@@ -9112,7 +9130,7 @@
         <v>4</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C559" t="s">
         <v>863</v>
@@ -9123,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C560" t="s">
         <v>863</v>
@@ -9134,7 +9152,7 @@
         <v>4</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C561" t="s">
         <v>863</v>
@@ -9145,7 +9163,7 @@
         <v>4</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C562" t="s">
         <v>863</v>
@@ -9156,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C563" t="s">
         <v>863</v>
@@ -9167,7 +9185,7 @@
         <v>4</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C564" t="s">
         <v>863</v>
@@ -9178,7 +9196,7 @@
         <v>4</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C565" t="s">
         <v>863</v>
@@ -9189,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C566" t="s">
         <v>863</v>
@@ -9200,7 +9218,7 @@
         <v>4</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C567" t="s">
         <v>863</v>
@@ -9211,7 +9229,7 @@
         <v>4</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C568" t="s">
         <v>863</v>
@@ -9222,7 +9240,7 @@
         <v>4</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C569" t="s">
         <v>863</v>
@@ -9233,7 +9251,7 @@
         <v>4</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C570" t="s">
         <v>863</v>
@@ -9244,7 +9262,7 @@
         <v>4</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C571" t="s">
         <v>863</v>
@@ -9255,7 +9273,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C572" t="s">
         <v>863</v>
@@ -9266,7 +9284,7 @@
         <v>4</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C573" t="s">
         <v>863</v>
@@ -9277,7 +9295,7 @@
         <v>4</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C574" t="s">
         <v>863</v>
@@ -9288,7 +9306,7 @@
         <v>4</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C575" t="s">
         <v>863</v>
@@ -9299,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C576" t="s">
         <v>863</v>
@@ -9310,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C577" t="s">
         <v>863</v>
@@ -9321,7 +9339,7 @@
         <v>4</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C578" t="s">
         <v>863</v>
@@ -9332,7 +9350,7 @@
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C579" t="s">
         <v>863</v>
@@ -9343,7 +9361,7 @@
         <v>4</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C580" t="s">
         <v>863</v>
@@ -9354,7 +9372,7 @@
         <v>4</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C581" t="s">
         <v>863</v>
@@ -9365,7 +9383,7 @@
         <v>4</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C582" t="s">
         <v>863</v>
@@ -9376,7 +9394,7 @@
         <v>4</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="C583" t="s">
         <v>863</v>
@@ -9387,7 +9405,7 @@
         <v>4</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C584" t="s">
         <v>863</v>
@@ -9398,7 +9416,7 @@
         <v>4</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C585" t="s">
         <v>863</v>
@@ -9409,7 +9427,7 @@
         <v>4</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C586" t="s">
         <v>863</v>
@@ -9420,7 +9438,7 @@
         <v>4</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C587" t="s">
         <v>863</v>
@@ -9431,7 +9449,7 @@
         <v>4</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C588" t="s">
         <v>863</v>
@@ -9442,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C589" t="s">
         <v>863</v>
@@ -9453,7 +9471,7 @@
         <v>4</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C590" t="s">
         <v>863</v>
@@ -9464,7 +9482,7 @@
         <v>4</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C591" t="s">
         <v>863</v>
@@ -9475,7 +9493,7 @@
         <v>4</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C592" t="s">
         <v>863</v>
@@ -9486,7 +9504,7 @@
         <v>4</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C593" t="s">
         <v>863</v>
@@ -9497,7 +9515,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C594" t="s">
         <v>863</v>
@@ -9508,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C595" t="s">
         <v>863</v>
@@ -9519,7 +9537,7 @@
         <v>4</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C596" t="s">
         <v>863</v>
@@ -9530,7 +9548,7 @@
         <v>4</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C597" t="s">
         <v>863</v>
@@ -9541,7 +9559,7 @@
         <v>4</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C598" t="s">
         <v>863</v>
@@ -9552,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C599" t="s">
         <v>863</v>
@@ -9563,7 +9581,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C600" t="s">
         <v>863</v>
@@ -9574,7 +9592,7 @@
         <v>4</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C601" t="s">
         <v>863</v>
@@ -9585,7 +9603,7 @@
         <v>4</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C602" t="s">
         <v>863</v>
@@ -9596,7 +9614,7 @@
         <v>4</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C603" t="s">
         <v>863</v>
@@ -9607,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C604" t="s">
         <v>863</v>
@@ -9618,7 +9636,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C605" t="s">
         <v>863</v>
@@ -9629,7 +9647,7 @@
         <v>4</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C606" t="s">
         <v>863</v>
@@ -9640,7 +9658,7 @@
         <v>4</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C607" t="s">
         <v>863</v>
@@ -9651,7 +9669,7 @@
         <v>4</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C608" t="s">
         <v>863</v>
@@ -9662,7 +9680,7 @@
         <v>4</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C609" t="s">
         <v>863</v>
@@ -9673,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C610" t="s">
         <v>863</v>
@@ -9684,7 +9702,7 @@
         <v>4</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C611" t="s">
         <v>863</v>
@@ -9695,7 +9713,7 @@
         <v>4</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C612" t="s">
         <v>863</v>
@@ -9706,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C613" t="s">
         <v>863</v>
@@ -9717,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C614" t="s">
         <v>863</v>
@@ -9728,7 +9746,7 @@
         <v>4</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C615" t="s">
         <v>863</v>
@@ -9739,7 +9757,7 @@
         <v>4</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C616" t="s">
         <v>863</v>
@@ -9750,7 +9768,7 @@
         <v>4</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C617" t="s">
         <v>863</v>
@@ -9761,7 +9779,7 @@
         <v>4</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C618" t="s">
         <v>863</v>
@@ -9772,7 +9790,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C619" t="s">
         <v>863</v>
@@ -9783,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C620" t="s">
         <v>863</v>
@@ -9794,7 +9812,7 @@
         <v>4</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C621" t="s">
         <v>863</v>
@@ -9805,7 +9823,7 @@
         <v>4</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C622" t="s">
         <v>863</v>
@@ -9816,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C623" t="s">
         <v>863</v>
@@ -9827,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C624" t="s">
         <v>863</v>
@@ -9838,7 +9856,7 @@
         <v>4</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C625" t="s">
         <v>863</v>
@@ -9849,7 +9867,7 @@
         <v>4</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C626" t="s">
         <v>863</v>
@@ -9860,7 +9878,7 @@
         <v>4</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="C627" t="s">
         <v>863</v>
@@ -9871,7 +9889,7 @@
         <v>4</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="C628" t="s">
         <v>863</v>
@@ -9882,7 +9900,7 @@
         <v>4</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="C629" t="s">
         <v>863</v>
@@ -9893,7 +9911,7 @@
         <v>4</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="C630" t="s">
         <v>863</v>
@@ -9904,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="C631" t="s">
         <v>863</v>
@@ -9915,7 +9933,7 @@
         <v>4</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C632" t="s">
         <v>863</v>
@@ -9926,7 +9944,7 @@
         <v>4</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C633" t="s">
         <v>863</v>
@@ -9937,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C634" t="s">
         <v>863</v>
@@ -9948,7 +9966,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C635" t="s">
         <v>863</v>
@@ -9959,7 +9977,7 @@
         <v>4</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C636" t="s">
         <v>863</v>
@@ -9970,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C637" t="s">
         <v>863</v>
@@ -9981,7 +9999,7 @@
         <v>4</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C638" t="s">
         <v>863</v>
@@ -9992,7 +10010,7 @@
         <v>4</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C639" t="s">
         <v>863</v>
@@ -10003,7 +10021,7 @@
         <v>4</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C640" t="s">
         <v>863</v>
@@ -10014,7 +10032,7 @@
         <v>4</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C641" t="s">
         <v>863</v>
@@ -10025,7 +10043,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C642" t="s">
         <v>863</v>
@@ -10036,7 +10054,7 @@
         <v>4</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C643" t="s">
         <v>863</v>
@@ -10047,7 +10065,7 @@
         <v>4</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C644" t="s">
         <v>863</v>
@@ -10058,7 +10076,7 @@
         <v>4</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C645" t="s">
         <v>863</v>
@@ -10069,7 +10087,7 @@
         <v>4</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="C646" t="s">
         <v>863</v>
@@ -10080,7 +10098,7 @@
         <v>4</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="C647" t="s">
         <v>863</v>
@@ -10091,7 +10109,7 @@
         <v>4</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="C648" t="s">
         <v>863</v>
@@ -10102,7 +10120,7 @@
         <v>4</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="C649" t="s">
         <v>863</v>
@@ -10113,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="C650" t="s">
         <v>863</v>
@@ -10124,7 +10142,7 @@
         <v>4</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C651" t="s">
         <v>863</v>
@@ -10135,7 +10153,7 @@
         <v>4</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C652" t="s">
         <v>863</v>
@@ -10146,7 +10164,7 @@
         <v>4</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C653" t="s">
         <v>863</v>
@@ -10157,7 +10175,7 @@
         <v>4</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C654" t="s">
         <v>863</v>
@@ -10168,7 +10186,7 @@
         <v>4</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C655" t="s">
         <v>863</v>
@@ -10179,7 +10197,7 @@
         <v>4</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C656" t="s">
         <v>863</v>
@@ -10190,7 +10208,7 @@
         <v>4</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C657" t="s">
         <v>863</v>
@@ -10201,7 +10219,7 @@
         <v>4</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C658" t="s">
         <v>863</v>
@@ -10212,7 +10230,7 @@
         <v>4</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C659" t="s">
         <v>863</v>
@@ -10223,7 +10241,7 @@
         <v>4</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C660" t="s">
         <v>863</v>
@@ -10234,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C661" t="s">
         <v>863</v>
@@ -10245,7 +10263,7 @@
         <v>4</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C662" t="s">
         <v>863</v>
@@ -10256,7 +10274,7 @@
         <v>4</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C663" t="s">
         <v>863</v>
@@ -10267,7 +10285,7 @@
         <v>4</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C664" t="s">
         <v>863</v>
@@ -10278,7 +10296,7 @@
         <v>4</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C665" t="s">
         <v>863</v>
@@ -10289,7 +10307,7 @@
         <v>4</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C666" t="s">
         <v>863</v>
@@ -10300,7 +10318,7 @@
         <v>4</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C667" t="s">
         <v>863</v>
@@ -10311,7 +10329,7 @@
         <v>4</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C668" t="s">
         <v>863</v>
@@ -10322,7 +10340,7 @@
         <v>4</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C669" t="s">
         <v>863</v>
@@ -10333,7 +10351,7 @@
         <v>4</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C670" t="s">
         <v>863</v>
@@ -10344,7 +10362,7 @@
         <v>4</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C671" t="s">
         <v>863</v>
@@ -10355,7 +10373,7 @@
         <v>4</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="C672" t="s">
         <v>863</v>
@@ -10366,7 +10384,7 @@
         <v>4</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="C673" t="s">
         <v>863</v>
@@ -10377,7 +10395,7 @@
         <v>4</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="C674" t="s">
         <v>863</v>
@@ -10388,7 +10406,7 @@
         <v>4</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="C675" t="s">
         <v>863</v>
@@ -10399,7 +10417,7 @@
         <v>4</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="C676" t="s">
         <v>863</v>
@@ -10410,7 +10428,7 @@
         <v>4</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C677" t="s">
         <v>863</v>
@@ -10421,7 +10439,7 @@
         <v>4</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C678" t="s">
         <v>863</v>
@@ -10432,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C679" t="s">
         <v>863</v>
@@ -10443,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C680" t="s">
         <v>863</v>
@@ -10454,7 +10472,7 @@
         <v>4</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C681" t="s">
         <v>863</v>
@@ -10465,7 +10483,7 @@
         <v>4</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C682" t="s">
         <v>863</v>
@@ -10476,7 +10494,7 @@
         <v>4</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C683" t="s">
         <v>863</v>
@@ -10487,7 +10505,7 @@
         <v>4</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C684" t="s">
         <v>863</v>
@@ -10498,7 +10516,7 @@
         <v>4</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C685" t="s">
         <v>863</v>
@@ -10509,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C686" t="s">
         <v>863</v>
@@ -10520,7 +10538,7 @@
         <v>4</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C687" t="s">
         <v>863</v>
@@ -10531,7 +10549,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C688" t="s">
         <v>863</v>
@@ -10542,7 +10560,7 @@
         <v>4</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C689" t="s">
         <v>863</v>
@@ -10553,7 +10571,7 @@
         <v>4</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C690" t="s">
         <v>863</v>
@@ -10564,7 +10582,7 @@
         <v>4</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C691" t="s">
         <v>863</v>
@@ -10575,7 +10593,7 @@
         <v>4</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C692" t="s">
         <v>863</v>
@@ -10586,7 +10604,7 @@
         <v>4</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C693" t="s">
         <v>863</v>
@@ -10597,7 +10615,7 @@
         <v>4</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C694" t="s">
         <v>863</v>
@@ -10608,7 +10626,7 @@
         <v>4</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C695" t="s">
         <v>863</v>
@@ -10619,7 +10637,7 @@
         <v>4</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C696" t="s">
         <v>863</v>
@@ -10630,7 +10648,7 @@
         <v>4</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C697" t="s">
         <v>863</v>
@@ -10641,7 +10659,7 @@
         <v>4</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C698" t="s">
         <v>863</v>
@@ -10652,7 +10670,7 @@
         <v>4</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C699" t="s">
         <v>863</v>
@@ -10663,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C700" t="s">
         <v>863</v>
@@ -10674,7 +10692,7 @@
         <v>4</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C701" t="s">
         <v>863</v>
@@ -10685,7 +10703,7 @@
         <v>4</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C702" t="s">
         <v>863</v>
@@ -10696,7 +10714,7 @@
         <v>4</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C703" t="s">
         <v>863</v>
@@ -10707,7 +10725,7 @@
         <v>4</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C704" t="s">
         <v>863</v>
@@ -10718,7 +10736,7 @@
         <v>4</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C705" t="s">
         <v>863</v>
@@ -10729,7 +10747,7 @@
         <v>4</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C706" t="s">
         <v>863</v>
@@ -10740,7 +10758,7 @@
         <v>4</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C707" t="s">
         <v>863</v>
@@ -10751,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C708" t="s">
         <v>863</v>
@@ -10762,7 +10780,7 @@
         <v>4</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C709" t="s">
         <v>863</v>
@@ -10773,7 +10791,7 @@
         <v>4</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C710" t="s">
         <v>863</v>
@@ -10784,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C711" t="s">
         <v>863</v>
@@ -10795,7 +10813,7 @@
         <v>4</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C712" t="s">
         <v>863</v>
@@ -10806,7 +10824,7 @@
         <v>4</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C713" t="s">
         <v>863</v>
@@ -10817,7 +10835,7 @@
         <v>4</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C714" t="s">
         <v>863</v>
@@ -10828,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C715" t="s">
         <v>863</v>
@@ -10839,7 +10857,7 @@
         <v>4</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C716" t="s">
         <v>863</v>
@@ -10850,7 +10868,7 @@
         <v>4</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C717" t="s">
         <v>863</v>
@@ -10861,7 +10879,7 @@
         <v>4</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C718" t="s">
         <v>863</v>
@@ -10872,7 +10890,7 @@
         <v>4</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C719" t="s">
         <v>863</v>
@@ -10883,7 +10901,7 @@
         <v>4</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C720" t="s">
         <v>863</v>
@@ -10894,7 +10912,7 @@
         <v>4</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C721" t="s">
         <v>863</v>
@@ -10905,7 +10923,7 @@
         <v>4</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C722" t="s">
         <v>863</v>
@@ -10916,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C723" t="s">
         <v>863</v>
@@ -10927,7 +10945,7 @@
         <v>4</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C724" t="s">
         <v>863</v>
@@ -10938,7 +10956,7 @@
         <v>4</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C725" t="s">
         <v>863</v>
@@ -10949,7 +10967,7 @@
         <v>4</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C726" t="s">
         <v>863</v>
@@ -10960,7 +10978,7 @@
         <v>4</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C727" t="s">
         <v>863</v>
@@ -10971,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C728" t="s">
         <v>863</v>
@@ -10982,7 +11000,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C729" t="s">
         <v>863</v>
@@ -10993,7 +11011,7 @@
         <v>4</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C730" t="s">
         <v>863</v>
@@ -11004,7 +11022,7 @@
         <v>4</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C731" t="s">
         <v>863</v>
@@ -11015,7 +11033,7 @@
         <v>4</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C732" t="s">
         <v>863</v>
@@ -11026,7 +11044,7 @@
         <v>4</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C733" t="s">
         <v>863</v>
@@ -11037,7 +11055,7 @@
         <v>4</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C734" t="s">
         <v>863</v>
@@ -11048,7 +11066,7 @@
         <v>4</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C735" t="s">
         <v>863</v>
@@ -11059,7 +11077,7 @@
         <v>4</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C736" t="s">
         <v>863</v>
@@ -11070,7 +11088,7 @@
         <v>4</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C737" t="s">
         <v>863</v>
@@ -11081,7 +11099,7 @@
         <v>4</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C738" t="s">
         <v>863</v>
@@ -11092,7 +11110,7 @@
         <v>4</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C739" t="s">
         <v>863</v>
@@ -11103,7 +11121,7 @@
         <v>4</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C740" t="s">
         <v>863</v>
@@ -11114,7 +11132,7 @@
         <v>4</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C741" t="s">
         <v>863</v>
@@ -11125,7 +11143,7 @@
         <v>4</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C742" t="s">
         <v>863</v>
@@ -11136,7 +11154,7 @@
         <v>4</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C743" t="s">
         <v>863</v>
@@ -11147,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C744" t="s">
         <v>863</v>
@@ -11158,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C745" t="s">
         <v>863</v>
@@ -11169,7 +11187,7 @@
         <v>4</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C746" t="s">
         <v>863</v>
@@ -11180,7 +11198,7 @@
         <v>4</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C747" t="s">
         <v>863</v>
@@ -11191,7 +11209,7 @@
         <v>4</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C748" t="s">
         <v>863</v>
@@ -11202,7 +11220,7 @@
         <v>4</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C749" t="s">
         <v>863</v>
@@ -11213,7 +11231,7 @@
         <v>4</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C750" t="s">
         <v>863</v>
@@ -11224,7 +11242,7 @@
         <v>4</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C751" t="s">
         <v>863</v>
@@ -11235,7 +11253,7 @@
         <v>4</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C752" t="s">
         <v>863</v>
@@ -11246,7 +11264,7 @@
         <v>4</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C753" t="s">
         <v>863</v>
@@ -11257,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C754" t="s">
         <v>863</v>
@@ -11268,7 +11286,7 @@
         <v>4</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C755" t="s">
         <v>863</v>
@@ -11279,7 +11297,7 @@
         <v>4</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C756" t="s">
         <v>863</v>
@@ -11290,7 +11308,7 @@
         <v>4</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C757" t="s">
         <v>863</v>
@@ -11301,7 +11319,7 @@
         <v>4</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C758" t="s">
         <v>863</v>
@@ -11312,7 +11330,7 @@
         <v>4</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C759" t="s">
         <v>863</v>
@@ -11323,7 +11341,7 @@
         <v>4</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C760" t="s">
         <v>863</v>
@@ -11334,7 +11352,7 @@
         <v>4</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C761" t="s">
         <v>863</v>
@@ -11345,7 +11363,7 @@
         <v>4</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C762" t="s">
         <v>863</v>
@@ -11356,7 +11374,7 @@
         <v>4</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C763" t="s">
         <v>863</v>
@@ -11367,7 +11385,7 @@
         <v>4</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C764" t="s">
         <v>863</v>
@@ -11378,7 +11396,7 @@
         <v>4</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C765" t="s">
         <v>863</v>
@@ -11389,7 +11407,7 @@
         <v>4</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C766" t="s">
         <v>863</v>
@@ -11400,7 +11418,7 @@
         <v>4</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C767" t="s">
         <v>863</v>
@@ -11411,7 +11429,7 @@
         <v>4</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C768" t="s">
         <v>863</v>
@@ -11422,7 +11440,7 @@
         <v>4</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C769" t="s">
         <v>863</v>
@@ -11433,7 +11451,7 @@
         <v>4</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C770" t="s">
         <v>863</v>
@@ -11444,7 +11462,7 @@
         <v>4</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C771" t="s">
         <v>863</v>
@@ -11455,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C772" t="s">
         <v>863</v>
@@ -11466,7 +11484,7 @@
         <v>4</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C773" t="s">
         <v>863</v>
@@ -11477,7 +11495,7 @@
         <v>4</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C774" t="s">
         <v>863</v>
@@ -11488,7 +11506,7 @@
         <v>4</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C775" t="s">
         <v>863</v>
@@ -11499,7 +11517,7 @@
         <v>4</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C776" t="s">
         <v>863</v>
@@ -11510,7 +11528,7 @@
         <v>4</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C777" t="s">
         <v>863</v>
@@ -11521,7 +11539,7 @@
         <v>4</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C778" t="s">
         <v>863</v>
@@ -11532,7 +11550,7 @@
         <v>4</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C779" t="s">
         <v>863</v>
@@ -11543,7 +11561,7 @@
         <v>4</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C780" t="s">
         <v>863</v>
@@ -11554,7 +11572,7 @@
         <v>4</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C781" t="s">
         <v>863</v>
@@ -11565,7 +11583,7 @@
         <v>4</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C782" t="s">
         <v>863</v>
@@ -11576,7 +11594,7 @@
         <v>4</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C783" t="s">
         <v>863</v>
@@ -11587,7 +11605,7 @@
         <v>4</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C784" t="s">
         <v>863</v>
@@ -11598,7 +11616,7 @@
         <v>4</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C785" t="s">
         <v>863</v>
@@ -11609,7 +11627,7 @@
         <v>4</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C786" t="s">
         <v>863</v>
@@ -11620,7 +11638,7 @@
         <v>4</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C787" t="s">
         <v>863</v>
@@ -11631,7 +11649,7 @@
         <v>4</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C788" t="s">
         <v>863</v>
@@ -11642,7 +11660,7 @@
         <v>4</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C789" t="s">
         <v>863</v>
@@ -11653,7 +11671,7 @@
         <v>4</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C790" t="s">
         <v>863</v>
@@ -11664,7 +11682,7 @@
         <v>4</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C791" t="s">
         <v>863</v>
@@ -11675,7 +11693,7 @@
         <v>4</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C792" t="s">
         <v>863</v>
@@ -11686,7 +11704,7 @@
         <v>4</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C793" t="s">
         <v>863</v>
@@ -11697,7 +11715,7 @@
         <v>4</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C794" t="s">
         <v>863</v>
@@ -11708,7 +11726,7 @@
         <v>4</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C795" t="s">
         <v>863</v>
@@ -11719,7 +11737,7 @@
         <v>4</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C796" t="s">
         <v>863</v>
@@ -11730,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C797" t="s">
         <v>863</v>
@@ -11741,7 +11759,7 @@
         <v>4</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C798" t="s">
         <v>863</v>
@@ -11752,7 +11770,7 @@
         <v>4</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C799" t="s">
         <v>863</v>
@@ -11763,7 +11781,7 @@
         <v>4</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C800" t="s">
         <v>863</v>
@@ -11774,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C801" t="s">
         <v>863</v>
@@ -11785,7 +11803,7 @@
         <v>4</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C802" t="s">
         <v>863</v>
@@ -11796,7 +11814,7 @@
         <v>4</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C803" t="s">
         <v>863</v>
@@ -11807,7 +11825,7 @@
         <v>4</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C804" t="s">
         <v>863</v>
@@ -11818,7 +11836,7 @@
         <v>4</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C805" t="s">
         <v>863</v>
@@ -11829,7 +11847,7 @@
         <v>4</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C806" t="s">
         <v>863</v>
@@ -11840,7 +11858,7 @@
         <v>4</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C807" t="s">
         <v>863</v>
@@ -11851,7 +11869,7 @@
         <v>4</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C808" t="s">
         <v>863</v>
@@ -11862,7 +11880,7 @@
         <v>4</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C809" t="s">
         <v>863</v>
@@ -11873,7 +11891,7 @@
         <v>4</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C810" t="s">
         <v>863</v>
@@ -11884,7 +11902,7 @@
         <v>4</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C811" t="s">
         <v>863</v>
@@ -11895,7 +11913,7 @@
         <v>4</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C812" t="s">
         <v>863</v>
@@ -11906,7 +11924,7 @@
         <v>4</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C813" t="s">
         <v>863</v>
@@ -11917,7 +11935,7 @@
         <v>4</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C814" t="s">
         <v>863</v>
@@ -11928,7 +11946,7 @@
         <v>4</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C815" t="s">
         <v>863</v>
@@ -11939,7 +11957,7 @@
         <v>4</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C816" t="s">
         <v>863</v>
@@ -11950,7 +11968,7 @@
         <v>4</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C817" t="s">
         <v>863</v>
@@ -11961,7 +11979,7 @@
         <v>4</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C818" t="s">
         <v>863</v>
@@ -11972,7 +11990,7 @@
         <v>4</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C819" t="s">
         <v>863</v>
@@ -11983,7 +12001,7 @@
         <v>4</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C820" t="s">
         <v>863</v>
@@ -11994,7 +12012,7 @@
         <v>4</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C821" t="s">
         <v>863</v>
@@ -12005,7 +12023,7 @@
         <v>4</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C822" t="s">
         <v>863</v>
@@ -12016,7 +12034,7 @@
         <v>4</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C823" t="s">
         <v>863</v>
@@ -12027,7 +12045,7 @@
         <v>4</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C824" t="s">
         <v>863</v>
@@ -12038,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C825" t="s">
         <v>863</v>
@@ -12049,7 +12067,7 @@
         <v>4</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C826" t="s">
         <v>863</v>
@@ -12060,7 +12078,7 @@
         <v>4</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C827" t="s">
         <v>863</v>
@@ -12071,7 +12089,7 @@
         <v>4</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C828" t="s">
         <v>863</v>
@@ -12082,7 +12100,7 @@
         <v>4</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C829" t="s">
         <v>863</v>
@@ -12093,7 +12111,7 @@
         <v>4</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C830" t="s">
         <v>863</v>
@@ -12104,7 +12122,7 @@
         <v>4</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C831" t="s">
         <v>863</v>
@@ -12115,7 +12133,7 @@
         <v>4</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C832" t="s">
         <v>863</v>
@@ -12126,7 +12144,7 @@
         <v>4</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C833" t="s">
         <v>863</v>
@@ -12137,7 +12155,7 @@
         <v>4</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C834" t="s">
         <v>863</v>
@@ -12148,7 +12166,7 @@
         <v>4</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C835" t="s">
         <v>863</v>
@@ -12159,7 +12177,7 @@
         <v>4</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C836" t="s">
         <v>863</v>
@@ -12170,7 +12188,7 @@
         <v>4</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C837" t="s">
         <v>863</v>
@@ -12181,7 +12199,7 @@
         <v>4</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C838" t="s">
         <v>863</v>
@@ -12192,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C839" t="s">
         <v>863</v>
@@ -12203,7 +12221,7 @@
         <v>4</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C840" t="s">
         <v>863</v>
@@ -12214,7 +12232,7 @@
         <v>4</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C841" t="s">
         <v>863</v>
@@ -12225,7 +12243,7 @@
         <v>4</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C842" t="s">
         <v>863</v>
@@ -12236,7 +12254,7 @@
         <v>4</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C843" t="s">
         <v>863</v>
@@ -12247,7 +12265,7 @@
         <v>4</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C844" t="s">
         <v>863</v>
@@ -12258,7 +12276,7 @@
         <v>4</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C845" t="s">
         <v>863</v>
@@ -12269,7 +12287,7 @@
         <v>4</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C846" t="s">
         <v>863</v>
@@ -12280,7 +12298,7 @@
         <v>4</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C847" t="s">
         <v>863</v>
@@ -12291,7 +12309,7 @@
         <v>4</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C848" t="s">
         <v>863</v>
@@ -12302,7 +12320,7 @@
         <v>4</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C849" t="s">
         <v>863</v>
@@ -12313,7 +12331,7 @@
         <v>4</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C850" t="s">
         <v>863</v>
@@ -12324,7 +12342,7 @@
         <v>4</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C851" t="s">
         <v>863</v>
@@ -12335,7 +12353,7 @@
         <v>4</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C852" t="s">
         <v>863</v>
@@ -12346,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C853" t="s">
         <v>863</v>
@@ -12357,7 +12375,7 @@
         <v>4</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C854" t="s">
         <v>863</v>
@@ -12368,7 +12386,7 @@
         <v>4</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C855" t="s">
         <v>863</v>
@@ -12379,7 +12397,7 @@
         <v>4</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C856" t="s">
         <v>863</v>
@@ -12390,7 +12408,7 @@
         <v>4</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C857" t="s">
         <v>863</v>
@@ -12401,7 +12419,7 @@
         <v>4</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C858" t="s">
         <v>863</v>
@@ -12412,7 +12430,7 @@
         <v>4</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C859" t="s">
         <v>863</v>
@@ -12423,7 +12441,7 @@
         <v>4</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C860" t="s">
         <v>863</v>
@@ -12434,7 +12452,7 @@
         <v>4</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C861" t="s">
         <v>863</v>
@@ -12445,13 +12463,74 @@
         <v>4</v>
       </c>
       <c r="B862" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C862" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C863" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C865" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C866" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B867" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C862" t="s">
+      <c r="C867" t="s">
         <v>863</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D867">
+    <sortState ref="A2:E867">
+      <sortCondition ref="A2:A867"/>
+      <sortCondition ref="B2:B867"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MANTENER TABLAS DATOS.xlsx
+++ b/MANTENER TABLAS DATOS.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ENMASCARARMANTTABLAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARMANTTABLAS!$A$1:$D$867</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENMASCARARMANTTABLAS!$A$1:$D$865</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="870">
   <si>
     <t>OWNER</t>
   </si>
@@ -2621,15 +2621,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>ENMASCARARDATOS</t>
-  </si>
-  <si>
-    <t>ENMASCARARMANTTABLAS</t>
-  </si>
-  <si>
-    <t>ENMASCARARLOG</t>
-  </si>
-  <si>
     <t>AGVIRTUAL</t>
   </si>
   <si>
@@ -2643,6 +2634,9 @@
   </si>
   <si>
     <t>PAC_USUARIO_MAE</t>
+  </si>
+  <si>
+    <t>PRESTAMOCUOTAFECHA</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +2967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D867"/>
+  <dimension ref="A1:D865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3000,10 +2994,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C2" t="s">
         <v>863</v>
@@ -3011,10 +3005,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C3" t="s">
         <v>863</v>
@@ -3022,10 +3016,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B4" t="s">
         <v>867</v>
-      </c>
-      <c r="B4" t="s">
-        <v>870</v>
       </c>
       <c r="C4" t="s">
         <v>863</v>
@@ -3033,10 +3027,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C5" t="s">
         <v>863</v>
@@ -5598,8 +5592,8 @@
       <c r="A238" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B238" t="s">
-        <v>864</v>
+      <c r="B238" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C238" t="s">
         <v>863</v>
@@ -5609,8 +5603,8 @@
       <c r="A239" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B239" t="s">
-        <v>866</v>
+      <c r="B239" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C239" t="s">
         <v>863</v>
@@ -5620,8 +5614,8 @@
       <c r="A240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B240" t="s">
-        <v>865</v>
+      <c r="B240" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>863</v>
@@ -5632,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C241" t="s">
         <v>863</v>
@@ -5643,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
         <v>863</v>
@@ -5654,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C243" t="s">
         <v>863</v>
@@ -5665,7 +5659,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C244" t="s">
         <v>863</v>
@@ -5676,7 +5670,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C245" t="s">
         <v>863</v>
@@ -5687,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C246" t="s">
         <v>863</v>
@@ -5698,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C247" t="s">
         <v>863</v>
@@ -5709,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
         <v>863</v>
@@ -5720,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C249" t="s">
         <v>863</v>
@@ -5731,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
         <v>863</v>
@@ -5742,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C251" t="s">
         <v>863</v>
@@ -5753,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
         <v>863</v>
@@ -5764,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C253" t="s">
         <v>863</v>
@@ -5775,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C254" t="s">
         <v>863</v>
@@ -5786,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
         <v>863</v>
@@ -5797,7 +5791,7 @@
         <v>4</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C256" t="s">
         <v>863</v>
@@ -5808,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C257" t="s">
         <v>863</v>
@@ -5819,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="C258" t="s">
         <v>863</v>
@@ -5830,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
         <v>863</v>
@@ -5841,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
         <v>863</v>
@@ -5852,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C261" t="s">
         <v>863</v>
@@ -5863,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C262" t="s">
         <v>863</v>
@@ -5874,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
         <v>863</v>
@@ -5885,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C264" t="s">
         <v>863</v>
@@ -5896,7 +5890,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C265" t="s">
         <v>863</v>
@@ -5907,7 +5901,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C266" t="s">
         <v>863</v>
@@ -5918,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C267" t="s">
         <v>863</v>
@@ -5929,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C268" t="s">
         <v>863</v>
@@ -5940,7 +5934,7 @@
         <v>4</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C269" t="s">
         <v>863</v>
@@ -5951,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C270" t="s">
         <v>863</v>
@@ -5962,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
         <v>863</v>
@@ -5973,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
         <v>863</v>
@@ -5984,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C273" t="s">
         <v>863</v>
@@ -5995,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C274" t="s">
         <v>863</v>
@@ -6006,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
         <v>863</v>
@@ -6017,7 +6011,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C276" t="s">
         <v>863</v>
@@ -6028,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C277" t="s">
         <v>863</v>
@@ -6039,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
         <v>863</v>
@@ -6050,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C279" t="s">
         <v>863</v>
@@ -6061,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C280" t="s">
         <v>863</v>
@@ -6072,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C281" t="s">
         <v>863</v>
@@ -6083,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C282" t="s">
         <v>863</v>
@@ -6094,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
         <v>863</v>
@@ -6105,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
         <v>863</v>
@@ -6116,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s">
         <v>863</v>
@@ -6127,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C286" t="s">
         <v>863</v>
@@ -6138,7 +6132,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C287" t="s">
         <v>863</v>
@@ -6149,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C288" t="s">
         <v>863</v>
@@ -6160,7 +6154,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C289" t="s">
         <v>863</v>
@@ -6171,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C290" t="s">
         <v>863</v>
@@ -6182,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C291" t="s">
         <v>863</v>
@@ -6193,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C292" t="s">
         <v>863</v>
@@ -6204,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
         <v>863</v>
@@ -6215,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C294" t="s">
         <v>863</v>
@@ -6226,7 +6220,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C295" t="s">
         <v>863</v>
@@ -6237,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C296" t="s">
         <v>863</v>
@@ -6248,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C297" t="s">
         <v>863</v>
@@ -6259,7 +6253,7 @@
         <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
         <v>863</v>
@@ -6270,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C299" t="s">
         <v>863</v>
@@ -6281,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C300" t="s">
         <v>863</v>
@@ -6292,7 +6286,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C301" t="s">
         <v>863</v>
@@ -6303,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C302" t="s">
         <v>863</v>
@@ -6314,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C303" t="s">
         <v>863</v>
@@ -6325,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C304" t="s">
         <v>863</v>
@@ -6336,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C305" t="s">
         <v>863</v>
@@ -6347,7 +6341,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
         <v>863</v>
@@ -6358,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
         <v>863</v>
@@ -6369,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C308" t="s">
         <v>863</v>
@@ -6380,7 +6374,7 @@
         <v>4</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C309" t="s">
         <v>863</v>
@@ -6391,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C310" t="s">
         <v>863</v>
@@ -6402,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C311" t="s">
         <v>863</v>
@@ -6413,7 +6407,7 @@
         <v>4</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C312" t="s">
         <v>863</v>
@@ -6424,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C313" t="s">
         <v>863</v>
@@ -6435,7 +6429,7 @@
         <v>4</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>863</v>
@@ -6446,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C315" t="s">
         <v>863</v>
@@ -6457,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C316" t="s">
         <v>863</v>
@@ -6468,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C317" t="s">
         <v>863</v>
@@ -6479,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C318" t="s">
         <v>863</v>
@@ -6490,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C319" t="s">
         <v>863</v>
@@ -6501,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C320" t="s">
         <v>863</v>
@@ -6512,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C321" t="s">
         <v>863</v>
@@ -6523,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C322" t="s">
         <v>863</v>
@@ -6534,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C323" t="s">
         <v>863</v>
@@ -6545,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C324" t="s">
         <v>863</v>
@@ -6556,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C325" t="s">
         <v>863</v>
@@ -6567,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
         <v>863</v>
@@ -6578,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C327" t="s">
         <v>863</v>
@@ -6589,7 +6583,7 @@
         <v>4</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C328" t="s">
         <v>863</v>
@@ -6600,7 +6594,7 @@
         <v>4</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C329" t="s">
         <v>863</v>
@@ -6611,7 +6605,7 @@
         <v>4</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C330" t="s">
         <v>863</v>
@@ -6622,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C331" t="s">
         <v>863</v>
@@ -6633,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C332" t="s">
         <v>863</v>
@@ -6644,7 +6638,7 @@
         <v>4</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C333" t="s">
         <v>863</v>
@@ -6655,7 +6649,7 @@
         <v>4</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C334" t="s">
         <v>863</v>
@@ -6666,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C335" t="s">
         <v>863</v>
@@ -6677,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C336" t="s">
         <v>863</v>
@@ -6688,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C337" t="s">
         <v>863</v>
@@ -6699,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C338" t="s">
         <v>863</v>
@@ -6710,7 +6704,7 @@
         <v>4</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C339" t="s">
         <v>863</v>
@@ -6721,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C340" t="s">
         <v>863</v>
@@ -6732,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C341" t="s">
         <v>863</v>
@@ -6743,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C342" t="s">
         <v>863</v>
@@ -6754,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C343" t="s">
         <v>863</v>
@@ -6765,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C344" t="s">
         <v>863</v>
@@ -6776,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C345" t="s">
         <v>863</v>
@@ -6787,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C346" t="s">
         <v>863</v>
@@ -6798,7 +6792,7 @@
         <v>4</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C347" t="s">
         <v>863</v>
@@ -6809,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C348" t="s">
         <v>863</v>
@@ -6820,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C349" t="s">
         <v>863</v>
@@ -6831,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C350" t="s">
         <v>863</v>
@@ -6842,7 +6836,7 @@
         <v>4</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C351" t="s">
         <v>863</v>
@@ -6853,7 +6847,7 @@
         <v>4</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C352" t="s">
         <v>863</v>
@@ -6864,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C353" t="s">
         <v>863</v>
@@ -6875,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C354" t="s">
         <v>863</v>
@@ -6886,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C355" t="s">
         <v>863</v>
@@ -6897,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C356" t="s">
         <v>863</v>
@@ -6908,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C357" t="s">
         <v>863</v>
@@ -6919,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C358" t="s">
         <v>863</v>
@@ -6930,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C359" t="s">
         <v>863</v>
@@ -6941,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C360" t="s">
         <v>863</v>
@@ -6952,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C361" t="s">
         <v>863</v>
@@ -6963,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C362" t="s">
         <v>863</v>
@@ -6974,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C363" t="s">
         <v>863</v>
@@ -6985,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C364" t="s">
         <v>863</v>
@@ -6996,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C365" t="s">
         <v>863</v>
@@ -7007,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C366" t="s">
         <v>863</v>
@@ -7018,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C367" t="s">
         <v>863</v>
@@ -7029,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C368" t="s">
         <v>863</v>
@@ -7040,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C369" t="s">
         <v>863</v>
@@ -7051,7 +7045,7 @@
         <v>4</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C370" t="s">
         <v>863</v>
@@ -7062,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C371" t="s">
         <v>863</v>
@@ -7073,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C372" t="s">
         <v>863</v>
@@ -7084,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C373" t="s">
         <v>863</v>
@@ -7095,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C374" t="s">
         <v>863</v>
@@ -7106,7 +7100,7 @@
         <v>4</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C375" t="s">
         <v>863</v>
@@ -7117,7 +7111,7 @@
         <v>4</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C376" t="s">
         <v>863</v>
@@ -7128,7 +7122,7 @@
         <v>4</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C377" t="s">
         <v>863</v>
@@ -7139,7 +7133,7 @@
         <v>4</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C378" t="s">
         <v>863</v>
@@ -7150,7 +7144,7 @@
         <v>4</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C379" t="s">
         <v>863</v>
@@ -7161,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C380" t="s">
         <v>863</v>
@@ -7172,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C381" t="s">
         <v>863</v>
@@ -7183,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C382" t="s">
         <v>863</v>
@@ -7194,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C383" t="s">
         <v>863</v>
@@ -7205,7 +7199,7 @@
         <v>4</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C384" t="s">
         <v>863</v>
@@ -7216,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C385" t="s">
         <v>863</v>
@@ -7227,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C386" t="s">
         <v>863</v>
@@ -7238,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C387" t="s">
         <v>863</v>
@@ -7249,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C388" t="s">
         <v>863</v>
@@ -7260,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C389" t="s">
         <v>863</v>
@@ -7271,7 +7265,7 @@
         <v>4</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C390" t="s">
         <v>863</v>
@@ -7282,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C391" t="s">
         <v>863</v>
@@ -7293,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C392" t="s">
         <v>863</v>
@@ -7304,7 +7298,7 @@
         <v>4</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C393" t="s">
         <v>863</v>
@@ -7315,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C394" t="s">
         <v>863</v>
@@ -7326,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C395" t="s">
         <v>863</v>
@@ -7337,7 +7331,7 @@
         <v>4</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C396" t="s">
         <v>863</v>
@@ -7348,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C397" t="s">
         <v>863</v>
@@ -7359,7 +7353,7 @@
         <v>4</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="C398" t="s">
         <v>863</v>
@@ -7370,7 +7364,7 @@
         <v>4</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C399" t="s">
         <v>863</v>
@@ -7381,7 +7375,7 @@
         <v>4</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C400" t="s">
         <v>863</v>
@@ -7392,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>3</v>
+        <v>399</v>
       </c>
       <c r="C401" t="s">
         <v>863</v>
@@ -7403,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C402" t="s">
         <v>863</v>
@@ -7414,7 +7408,7 @@
         <v>4</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C403" t="s">
         <v>863</v>
@@ -7425,7 +7419,7 @@
         <v>4</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C404" t="s">
         <v>863</v>
@@ -7436,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C405" t="s">
         <v>863</v>
@@ -7447,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C406" t="s">
         <v>863</v>
@@ -7458,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C407" t="s">
         <v>863</v>
@@ -7469,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C408" t="s">
         <v>863</v>
@@ -7480,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C409" t="s">
         <v>863</v>
@@ -7491,7 +7485,7 @@
         <v>4</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C410" t="s">
         <v>863</v>
@@ -7502,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C411" t="s">
         <v>863</v>
@@ -7513,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C412" t="s">
         <v>863</v>
@@ -7524,7 +7518,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C413" t="s">
         <v>863</v>
@@ -7535,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C414" t="s">
         <v>863</v>
@@ -7546,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C415" t="s">
         <v>863</v>
@@ -7557,7 +7551,7 @@
         <v>4</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C416" t="s">
         <v>863</v>
@@ -7568,7 +7562,7 @@
         <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C417" t="s">
         <v>863</v>
@@ -7579,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C418" t="s">
         <v>863</v>
@@ -7590,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C419" t="s">
         <v>863</v>
@@ -7601,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C420" t="s">
         <v>863</v>
@@ -7612,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C421" t="s">
         <v>863</v>
@@ -7623,7 +7617,7 @@
         <v>4</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C422" t="s">
         <v>863</v>
@@ -7634,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C423" t="s">
         <v>863</v>
@@ -7645,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C424" t="s">
         <v>863</v>
@@ -7656,7 +7650,7 @@
         <v>4</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C425" t="s">
         <v>863</v>
@@ -7667,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C426" t="s">
         <v>863</v>
@@ -7678,7 +7672,7 @@
         <v>4</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C427" t="s">
         <v>863</v>
@@ -7689,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C428" t="s">
         <v>863</v>
@@ -7700,7 +7694,7 @@
         <v>4</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C429" t="s">
         <v>863</v>
@@ -7711,7 +7705,7 @@
         <v>4</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C430" t="s">
         <v>863</v>
@@ -7722,7 +7716,7 @@
         <v>4</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C431" t="s">
         <v>863</v>
@@ -7733,7 +7727,7 @@
         <v>4</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C432" t="s">
         <v>863</v>
@@ -7744,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C433" t="s">
         <v>863</v>
@@ -7755,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C434" t="s">
         <v>863</v>
@@ -7766,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C435" t="s">
         <v>863</v>
@@ -7777,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C436" t="s">
         <v>863</v>
@@ -7788,7 +7782,7 @@
         <v>4</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="C437" t="s">
         <v>863</v>
@@ -7799,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C438" t="s">
         <v>863</v>
@@ -7810,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C439" t="s">
         <v>863</v>
@@ -7821,7 +7815,7 @@
         <v>4</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C440" t="s">
         <v>863</v>
@@ -7832,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C441" t="s">
         <v>863</v>
@@ -7843,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C442" t="s">
         <v>863</v>
@@ -7854,7 +7848,7 @@
         <v>4</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C443" t="s">
         <v>863</v>
@@ -7865,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C444" t="s">
         <v>863</v>
@@ -7876,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C445" t="s">
         <v>863</v>
@@ -7887,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C446" t="s">
         <v>863</v>
@@ -7898,7 +7892,7 @@
         <v>4</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C447" t="s">
         <v>863</v>
@@ -7909,7 +7903,7 @@
         <v>4</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C448" t="s">
         <v>863</v>
@@ -7920,7 +7914,7 @@
         <v>4</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C449" t="s">
         <v>863</v>
@@ -7931,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C450" t="s">
         <v>863</v>
@@ -7942,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C451" t="s">
         <v>863</v>
@@ -7953,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C452" t="s">
         <v>863</v>
@@ -7964,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C453" t="s">
         <v>863</v>
@@ -7975,7 +7969,7 @@
         <v>4</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C454" t="s">
         <v>863</v>
@@ -7986,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C455" t="s">
         <v>863</v>
@@ -7997,7 +7991,7 @@
         <v>4</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C456" t="s">
         <v>863</v>
@@ -8008,7 +8002,7 @@
         <v>4</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C457" t="s">
         <v>863</v>
@@ -8019,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C458" t="s">
         <v>863</v>
@@ -8030,7 +8024,7 @@
         <v>4</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C459" t="s">
         <v>863</v>
@@ -8041,7 +8035,7 @@
         <v>4</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C460" t="s">
         <v>863</v>
@@ -8052,7 +8046,7 @@
         <v>4</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C461" t="s">
         <v>863</v>
@@ -8063,7 +8057,7 @@
         <v>4</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C462" t="s">
         <v>863</v>
@@ -8074,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C463" t="s">
         <v>863</v>
@@ -8085,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C464" t="s">
         <v>863</v>
@@ -8096,7 +8090,7 @@
         <v>4</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C465" t="s">
         <v>863</v>
@@ -8107,7 +8101,7 @@
         <v>4</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C466" t="s">
         <v>863</v>
@@ -8118,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C467" t="s">
         <v>863</v>
@@ -8129,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C468" t="s">
         <v>863</v>
@@ -8140,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C469" t="s">
         <v>863</v>
@@ -8151,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C470" t="s">
         <v>863</v>
@@ -8162,7 +8156,7 @@
         <v>4</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C471" t="s">
         <v>863</v>
@@ -8173,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C472" t="s">
         <v>863</v>
@@ -8184,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C473" t="s">
         <v>863</v>
@@ -8195,7 +8189,7 @@
         <v>4</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C474" t="s">
         <v>863</v>
@@ -8206,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C475" t="s">
         <v>863</v>
@@ -8217,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C476" t="s">
         <v>863</v>
@@ -8228,7 +8222,7 @@
         <v>4</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C477" t="s">
         <v>863</v>
@@ -8239,7 +8233,7 @@
         <v>4</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C478" t="s">
         <v>863</v>
@@ -8250,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C479" t="s">
         <v>863</v>
@@ -8261,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C480" t="s">
         <v>863</v>
@@ -8272,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C481" t="s">
         <v>863</v>
@@ -8283,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C482" t="s">
         <v>863</v>
@@ -8294,7 +8288,7 @@
         <v>4</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C483" t="s">
         <v>863</v>
@@ -8305,7 +8299,7 @@
         <v>4</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C484" t="s">
         <v>863</v>
@@ -8316,7 +8310,7 @@
         <v>4</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C485" t="s">
         <v>863</v>
@@ -8327,7 +8321,7 @@
         <v>4</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C486" t="s">
         <v>863</v>
@@ -8338,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C487" t="s">
         <v>863</v>
@@ -8349,7 +8343,7 @@
         <v>4</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C488" t="s">
         <v>863</v>
@@ -8360,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C489" t="s">
         <v>863</v>
@@ -8371,7 +8365,7 @@
         <v>4</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C490" t="s">
         <v>863</v>
@@ -8382,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C491" t="s">
         <v>863</v>
@@ -8393,7 +8387,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C492" t="s">
         <v>863</v>
@@ -8404,7 +8398,7 @@
         <v>4</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C493" t="s">
         <v>863</v>
@@ -8415,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C494" t="s">
         <v>863</v>
@@ -8426,7 +8420,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C495" t="s">
         <v>863</v>
@@ -8437,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C496" t="s">
         <v>863</v>
@@ -8448,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C497" t="s">
         <v>863</v>
@@ -8459,7 +8453,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C498" t="s">
         <v>863</v>
@@ -8470,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C499" t="s">
         <v>863</v>
@@ -8481,7 +8475,7 @@
         <v>4</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C500" t="s">
         <v>863</v>
@@ -8492,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C501" t="s">
         <v>863</v>
@@ -8503,7 +8497,7 @@
         <v>4</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C502" t="s">
         <v>863</v>
@@ -8514,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C503" t="s">
         <v>863</v>
@@ -8525,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C504" t="s">
         <v>863</v>
@@ -8536,7 +8530,7 @@
         <v>4</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C505" t="s">
         <v>863</v>
@@ -8547,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C506" t="s">
         <v>863</v>
@@ -8558,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C507" t="s">
         <v>863</v>
@@ -8569,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C508" t="s">
         <v>863</v>
@@ -8580,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C509" t="s">
         <v>863</v>
@@ -8591,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C510" t="s">
         <v>863</v>
@@ -8602,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C511" t="s">
         <v>863</v>
@@ -8613,7 +8607,7 @@
         <v>4</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C512" t="s">
         <v>863</v>
@@ -8624,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C513" t="s">
         <v>863</v>
@@ -8635,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C514" t="s">
         <v>863</v>
@@ -8646,7 +8640,7 @@
         <v>4</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C515" t="s">
         <v>863</v>
@@ -8657,7 +8651,7 @@
         <v>4</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C516" t="s">
         <v>863</v>
@@ -8668,7 +8662,7 @@
         <v>4</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C517" t="s">
         <v>863</v>
@@ -8679,7 +8673,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C518" t="s">
         <v>863</v>
@@ -8690,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C519" t="s">
         <v>863</v>
@@ -8701,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C520" t="s">
         <v>863</v>
@@ -8712,7 +8706,7 @@
         <v>4</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C521" t="s">
         <v>863</v>
@@ -8723,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C522" t="s">
         <v>863</v>
@@ -8734,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C523" t="s">
         <v>863</v>
@@ -8745,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C524" t="s">
         <v>863</v>
@@ -8756,7 +8750,7 @@
         <v>4</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C525" t="s">
         <v>863</v>
@@ -8767,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C526" t="s">
         <v>863</v>
@@ -8778,7 +8772,7 @@
         <v>4</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C527" t="s">
         <v>863</v>
@@ -8789,7 +8783,7 @@
         <v>4</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C528" t="s">
         <v>863</v>
@@ -8800,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C529" t="s">
         <v>863</v>
@@ -8811,7 +8805,7 @@
         <v>4</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C530" t="s">
         <v>863</v>
@@ -8822,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C531" t="s">
         <v>863</v>
@@ -8833,7 +8827,7 @@
         <v>4</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C532" t="s">
         <v>863</v>
@@ -8844,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C533" t="s">
         <v>863</v>
@@ -8855,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C534" t="s">
         <v>863</v>
@@ -8866,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C535" t="s">
         <v>863</v>
@@ -8877,7 +8871,7 @@
         <v>4</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C536" t="s">
         <v>863</v>
@@ -8888,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C537" t="s">
         <v>863</v>
@@ -8899,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C538" t="s">
         <v>863</v>
@@ -8910,7 +8904,7 @@
         <v>4</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C539" t="s">
         <v>863</v>
@@ -8921,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C540" t="s">
         <v>863</v>
@@ -8932,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C541" t="s">
         <v>863</v>
@@ -8943,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C542" t="s">
         <v>863</v>
@@ -8954,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C543" t="s">
         <v>863</v>
@@ -8965,7 +8959,7 @@
         <v>4</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C544" t="s">
         <v>863</v>
@@ -8976,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C545" t="s">
         <v>863</v>
@@ -8987,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C546" t="s">
         <v>863</v>
@@ -8998,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C547" t="s">
         <v>863</v>
@@ -9009,7 +9003,7 @@
         <v>4</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C548" t="s">
         <v>863</v>
@@ -9020,7 +9014,7 @@
         <v>4</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C549" t="s">
         <v>863</v>
@@ -9031,7 +9025,7 @@
         <v>4</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C550" t="s">
         <v>863</v>
@@ -9042,7 +9036,7 @@
         <v>4</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C551" t="s">
         <v>863</v>
@@ -9053,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C552" t="s">
         <v>863</v>
@@ -9064,7 +9058,7 @@
         <v>4</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C553" t="s">
         <v>863</v>
@@ -9075,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C554" t="s">
         <v>863</v>
@@ -9086,7 +9080,7 @@
         <v>4</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C555" t="s">
         <v>863</v>
@@ -9097,7 +9091,7 @@
         <v>4</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C556" t="s">
         <v>863</v>
@@ -9108,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C557" t="s">
         <v>863</v>
@@ -9119,7 +9113,7 @@
         <v>4</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C558" t="s">
         <v>863</v>
@@ -9130,7 +9124,7 @@
         <v>4</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C559" t="s">
         <v>863</v>
@@ -9141,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C560" t="s">
         <v>863</v>
@@ -9152,7 +9146,7 @@
         <v>4</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C561" t="s">
         <v>863</v>
@@ -9163,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C562" t="s">
         <v>863</v>
@@ -9174,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C563" t="s">
         <v>863</v>
@@ -9185,7 +9179,7 @@
         <v>4</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C564" t="s">
         <v>863</v>
@@ -9196,7 +9190,7 @@
         <v>4</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C565" t="s">
         <v>863</v>
@@ -9207,7 +9201,7 @@
         <v>4</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C566" t="s">
         <v>863</v>
@@ -9218,7 +9212,7 @@
         <v>4</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C567" t="s">
         <v>863</v>
@@ -9229,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C568" t="s">
         <v>863</v>
@@ -9240,7 +9234,7 @@
         <v>4</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C569" t="s">
         <v>863</v>
@@ -9251,7 +9245,7 @@
         <v>4</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C570" t="s">
         <v>863</v>
@@ -9262,7 +9256,7 @@
         <v>4</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C571" t="s">
         <v>863</v>
@@ -9273,7 +9267,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C572" t="s">
         <v>863</v>
@@ -9284,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C573" t="s">
         <v>863</v>
@@ -9295,7 +9289,7 @@
         <v>4</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C574" t="s">
         <v>863</v>
@@ -9306,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C575" t="s">
         <v>863</v>
@@ -9317,7 +9311,7 @@
         <v>4</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C576" t="s">
         <v>863</v>
@@ -9328,7 +9322,7 @@
         <v>4</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C577" t="s">
         <v>863</v>
@@ -9339,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C578" t="s">
         <v>863</v>
@@ -9350,7 +9344,7 @@
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C579" t="s">
         <v>863</v>
@@ -9361,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C580" t="s">
         <v>863</v>
@@ -9372,7 +9366,7 @@
         <v>4</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C581" t="s">
         <v>863</v>
@@ -9383,7 +9377,7 @@
         <v>4</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C582" t="s">
         <v>863</v>
@@ -9394,7 +9388,7 @@
         <v>4</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C583" t="s">
         <v>863</v>
@@ -9405,7 +9399,7 @@
         <v>4</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C584" t="s">
         <v>863</v>
@@ -9416,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="C585" t="s">
         <v>863</v>
@@ -9427,7 +9421,7 @@
         <v>4</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C586" t="s">
         <v>863</v>
@@ -9438,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C587" t="s">
         <v>863</v>
@@ -9449,7 +9443,7 @@
         <v>4</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C588" t="s">
         <v>863</v>
@@ -9460,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C589" t="s">
         <v>863</v>
@@ -9471,7 +9465,7 @@
         <v>4</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C590" t="s">
         <v>863</v>
@@ -9482,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C591" t="s">
         <v>863</v>
@@ -9493,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C592" t="s">
         <v>863</v>
@@ -9504,7 +9498,7 @@
         <v>4</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C593" t="s">
         <v>863</v>
@@ -9515,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C594" t="s">
         <v>863</v>
@@ -9526,7 +9520,7 @@
         <v>4</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C595" t="s">
         <v>863</v>
@@ -9537,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C596" t="s">
         <v>863</v>
@@ -9548,7 +9542,7 @@
         <v>4</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C597" t="s">
         <v>863</v>
@@ -9559,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C598" t="s">
         <v>863</v>
@@ -9570,7 +9564,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C599" t="s">
         <v>863</v>
@@ -9581,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C600" t="s">
         <v>863</v>
@@ -9592,7 +9586,7 @@
         <v>4</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C601" t="s">
         <v>863</v>
@@ -9603,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C602" t="s">
         <v>863</v>
@@ -9614,7 +9608,7 @@
         <v>4</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C603" t="s">
         <v>863</v>
@@ -9625,7 +9619,7 @@
         <v>4</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C604" t="s">
         <v>863</v>
@@ -9636,7 +9630,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C605" t="s">
         <v>863</v>
@@ -9647,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C606" t="s">
         <v>863</v>
@@ -9658,7 +9652,7 @@
         <v>4</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C607" t="s">
         <v>863</v>
@@ -9669,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C608" t="s">
         <v>863</v>
@@ -9680,7 +9674,7 @@
         <v>4</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C609" t="s">
         <v>863</v>
@@ -9691,7 +9685,7 @@
         <v>4</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C610" t="s">
         <v>863</v>
@@ -9702,7 +9696,7 @@
         <v>4</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C611" t="s">
         <v>863</v>
@@ -9713,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C612" t="s">
         <v>863</v>
@@ -9724,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C613" t="s">
         <v>863</v>
@@ -9735,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C614" t="s">
         <v>863</v>
@@ -9746,7 +9740,7 @@
         <v>4</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C615" t="s">
         <v>863</v>
@@ -9757,7 +9751,7 @@
         <v>4</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C616" t="s">
         <v>863</v>
@@ -9768,7 +9762,7 @@
         <v>4</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C617" t="s">
         <v>863</v>
@@ -9779,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C618" t="s">
         <v>863</v>
@@ -9790,7 +9784,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C619" t="s">
         <v>863</v>
@@ -9801,7 +9795,7 @@
         <v>4</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C620" t="s">
         <v>863</v>
@@ -9812,7 +9806,7 @@
         <v>4</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C621" t="s">
         <v>863</v>
@@ -9823,7 +9817,7 @@
         <v>4</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C622" t="s">
         <v>863</v>
@@ -9834,7 +9828,7 @@
         <v>4</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C623" t="s">
         <v>863</v>
@@ -9845,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C624" t="s">
         <v>863</v>
@@ -9856,7 +9850,7 @@
         <v>4</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C625" t="s">
         <v>863</v>
@@ -9867,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C626" t="s">
         <v>863</v>
@@ -9878,7 +9872,7 @@
         <v>4</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C627" t="s">
         <v>863</v>
@@ -9889,7 +9883,7 @@
         <v>4</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C628" t="s">
         <v>863</v>
@@ -9900,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="C629" t="s">
         <v>863</v>
@@ -9911,7 +9905,7 @@
         <v>4</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="C630" t="s">
         <v>863</v>
@@ -9922,7 +9916,7 @@
         <v>4</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C631" t="s">
         <v>863</v>
@@ -9933,7 +9927,7 @@
         <v>4</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C632" t="s">
         <v>863</v>
@@ -9944,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C633" t="s">
         <v>863</v>
@@ -9955,7 +9949,7 @@
         <v>4</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C634" t="s">
         <v>863</v>
@@ -9966,7 +9960,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C635" t="s">
         <v>863</v>
@@ -9977,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C636" t="s">
         <v>863</v>
@@ -9988,7 +9982,7 @@
         <v>4</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C637" t="s">
         <v>863</v>
@@ -9999,7 +9993,7 @@
         <v>4</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C638" t="s">
         <v>863</v>
@@ -10010,7 +10004,7 @@
         <v>4</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C639" t="s">
         <v>863</v>
@@ -10021,7 +10015,7 @@
         <v>4</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C640" t="s">
         <v>863</v>
@@ -10032,7 +10026,7 @@
         <v>4</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C641" t="s">
         <v>863</v>
@@ -10043,7 +10037,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C642" t="s">
         <v>863</v>
@@ -10054,7 +10048,7 @@
         <v>4</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C643" t="s">
         <v>863</v>
@@ -10065,7 +10059,7 @@
         <v>4</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C644" t="s">
         <v>863</v>
@@ -10076,7 +10070,7 @@
         <v>4</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C645" t="s">
         <v>863</v>
@@ -10087,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C646" t="s">
         <v>863</v>
@@ -10098,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C647" t="s">
         <v>863</v>
@@ -10109,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="C648" t="s">
         <v>863</v>
@@ -10120,7 +10114,7 @@
         <v>4</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="C649" t="s">
         <v>863</v>
@@ -10131,7 +10125,7 @@
         <v>4</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="C650" t="s">
         <v>863</v>
@@ -10142,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C651" t="s">
         <v>863</v>
@@ -10153,7 +10147,7 @@
         <v>4</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C652" t="s">
         <v>863</v>
@@ -10164,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C653" t="s">
         <v>863</v>
@@ -10175,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C654" t="s">
         <v>863</v>
@@ -10186,7 +10180,7 @@
         <v>4</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C655" t="s">
         <v>863</v>
@@ -10197,7 +10191,7 @@
         <v>4</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C656" t="s">
         <v>863</v>
@@ -10208,7 +10202,7 @@
         <v>4</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C657" t="s">
         <v>863</v>
@@ -10219,7 +10213,7 @@
         <v>4</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C658" t="s">
         <v>863</v>
@@ -10230,7 +10224,7 @@
         <v>4</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C659" t="s">
         <v>863</v>
@@ -10241,7 +10235,7 @@
         <v>4</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C660" t="s">
         <v>863</v>
@@ -10252,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C661" t="s">
         <v>863</v>
@@ -10263,7 +10257,7 @@
         <v>4</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C662" t="s">
         <v>863</v>
@@ -10274,7 +10268,7 @@
         <v>4</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C663" t="s">
         <v>863</v>
@@ -10285,7 +10279,7 @@
         <v>4</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C664" t="s">
         <v>863</v>
@@ -10296,7 +10290,7 @@
         <v>4</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C665" t="s">
         <v>863</v>
@@ -10307,7 +10301,7 @@
         <v>4</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C666" t="s">
         <v>863</v>
@@ -10318,7 +10312,7 @@
         <v>4</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C667" t="s">
         <v>863</v>
@@ -10329,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C668" t="s">
         <v>863</v>
@@ -10340,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C669" t="s">
         <v>863</v>
@@ -10351,7 +10345,7 @@
         <v>4</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C670" t="s">
         <v>863</v>
@@ -10362,7 +10356,7 @@
         <v>4</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C671" t="s">
         <v>863</v>
@@ -10373,7 +10367,7 @@
         <v>4</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C672" t="s">
         <v>863</v>
@@ -10384,7 +10378,7 @@
         <v>4</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C673" t="s">
         <v>863</v>
@@ -10395,7 +10389,7 @@
         <v>4</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="C674" t="s">
         <v>863</v>
@@ -10406,7 +10400,7 @@
         <v>4</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="C675" t="s">
         <v>863</v>
@@ -10417,7 +10411,7 @@
         <v>4</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="C676" t="s">
         <v>863</v>
@@ -10428,7 +10422,7 @@
         <v>4</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C677" t="s">
         <v>863</v>
@@ -10439,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C678" t="s">
         <v>863</v>
@@ -10450,7 +10444,7 @@
         <v>4</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C679" t="s">
         <v>863</v>
@@ -10461,7 +10455,7 @@
         <v>4</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C680" t="s">
         <v>863</v>
@@ -10472,7 +10466,7 @@
         <v>4</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C681" t="s">
         <v>863</v>
@@ -10483,7 +10477,7 @@
         <v>4</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C682" t="s">
         <v>863</v>
@@ -10494,7 +10488,7 @@
         <v>4</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C683" t="s">
         <v>863</v>
@@ -10505,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C684" t="s">
         <v>863</v>
@@ -10516,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C685" t="s">
         <v>863</v>
@@ -10527,7 +10521,7 @@
         <v>4</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C686" t="s">
         <v>863</v>
@@ -10538,7 +10532,7 @@
         <v>4</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C687" t="s">
         <v>863</v>
@@ -10549,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C688" t="s">
         <v>863</v>
@@ -10560,7 +10554,7 @@
         <v>4</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C689" t="s">
         <v>863</v>
@@ -10571,7 +10565,7 @@
         <v>4</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C690" t="s">
         <v>863</v>
@@ -10582,7 +10576,7 @@
         <v>4</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C691" t="s">
         <v>863</v>
@@ -10593,7 +10587,7 @@
         <v>4</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C692" t="s">
         <v>863</v>
@@ -10604,7 +10598,7 @@
         <v>4</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C693" t="s">
         <v>863</v>
@@ -10615,7 +10609,7 @@
         <v>4</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C694" t="s">
         <v>863</v>
@@ -10626,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C695" t="s">
         <v>863</v>
@@ -10637,7 +10631,7 @@
         <v>4</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C696" t="s">
         <v>863</v>
@@ -10648,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C697" t="s">
         <v>863</v>
@@ -10659,7 +10653,7 @@
         <v>4</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C698" t="s">
         <v>863</v>
@@ -10670,7 +10664,7 @@
         <v>4</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C699" t="s">
         <v>863</v>
@@ -10681,7 +10675,7 @@
         <v>4</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C700" t="s">
         <v>863</v>
@@ -10692,7 +10686,7 @@
         <v>4</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C701" t="s">
         <v>863</v>
@@ -10703,7 +10697,7 @@
         <v>4</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C702" t="s">
         <v>863</v>
@@ -10714,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C703" t="s">
         <v>863</v>
@@ -10725,7 +10719,7 @@
         <v>4</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C704" t="s">
         <v>863</v>
@@ -10736,7 +10730,7 @@
         <v>4</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C705" t="s">
         <v>863</v>
@@ -10747,7 +10741,7 @@
         <v>4</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C706" t="s">
         <v>863</v>
@@ -10758,7 +10752,7 @@
         <v>4</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C707" t="s">
         <v>863</v>
@@ -10769,7 +10763,7 @@
         <v>4</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C708" t="s">
         <v>863</v>
@@ -10780,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C709" t="s">
         <v>863</v>
@@ -10791,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C710" t="s">
         <v>863</v>
@@ -10802,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C711" t="s">
         <v>863</v>
@@ -10813,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C712" t="s">
         <v>863</v>
@@ -10824,7 +10818,7 @@
         <v>4</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C713" t="s">
         <v>863</v>
@@ -10835,7 +10829,7 @@
         <v>4</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C714" t="s">
         <v>863</v>
@@ -10846,7 +10840,7 @@
         <v>4</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C715" t="s">
         <v>863</v>
@@ -10857,7 +10851,7 @@
         <v>4</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C716" t="s">
         <v>863</v>
@@ -10868,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C717" t="s">
         <v>863</v>
@@ -10879,7 +10873,7 @@
         <v>4</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C718" t="s">
         <v>863</v>
@@ -10890,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C719" t="s">
         <v>863</v>
@@ -10901,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C720" t="s">
         <v>863</v>
@@ -10912,7 +10906,7 @@
         <v>4</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C721" t="s">
         <v>863</v>
@@ -10923,7 +10917,7 @@
         <v>4</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C722" t="s">
         <v>863</v>
@@ -10934,7 +10928,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C723" t="s">
         <v>863</v>
@@ -10945,7 +10939,7 @@
         <v>4</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C724" t="s">
         <v>863</v>
@@ -10956,7 +10950,7 @@
         <v>4</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C725" t="s">
         <v>863</v>
@@ -10967,7 +10961,7 @@
         <v>4</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C726" t="s">
         <v>863</v>
@@ -10978,7 +10972,7 @@
         <v>4</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C727" t="s">
         <v>863</v>
@@ -10989,7 +10983,7 @@
         <v>4</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C728" t="s">
         <v>863</v>
@@ -11000,7 +10994,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C729" t="s">
         <v>863</v>
@@ -11011,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C730" t="s">
         <v>863</v>
@@ -11022,7 +11016,7 @@
         <v>4</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C731" t="s">
         <v>863</v>
@@ -11033,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C732" t="s">
         <v>863</v>
@@ -11044,7 +11038,7 @@
         <v>4</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C733" t="s">
         <v>863</v>
@@ -11055,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C734" t="s">
         <v>863</v>
@@ -11066,7 +11060,7 @@
         <v>4</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C735" t="s">
         <v>863</v>
@@ -11077,7 +11071,7 @@
         <v>4</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C736" t="s">
         <v>863</v>
@@ -11088,7 +11082,7 @@
         <v>4</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C737" t="s">
         <v>863</v>
@@ -11099,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C738" t="s">
         <v>863</v>
@@ -11110,7 +11104,7 @@
         <v>4</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C739" t="s">
         <v>863</v>
@@ -11121,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C740" t="s">
         <v>863</v>
@@ -11132,7 +11126,7 @@
         <v>4</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C741" t="s">
         <v>863</v>
@@ -11143,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C742" t="s">
         <v>863</v>
@@ -11154,7 +11148,7 @@
         <v>4</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C743" t="s">
         <v>863</v>
@@ -11165,7 +11159,7 @@
         <v>4</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C744" t="s">
         <v>863</v>
@@ -11176,7 +11170,7 @@
         <v>4</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C745" t="s">
         <v>863</v>
@@ -11187,7 +11181,7 @@
         <v>4</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C746" t="s">
         <v>863</v>
@@ -11198,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C747" t="s">
         <v>863</v>
@@ -11209,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C748" t="s">
         <v>863</v>
@@ -11220,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C749" t="s">
         <v>863</v>
@@ -11231,7 +11225,7 @@
         <v>4</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C750" t="s">
         <v>863</v>
@@ -11242,7 +11236,7 @@
         <v>4</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C751" t="s">
         <v>863</v>
@@ -11253,7 +11247,7 @@
         <v>4</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C752" t="s">
         <v>863</v>
@@ -11264,7 +11258,7 @@
         <v>4</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C753" t="s">
         <v>863</v>
@@ -11275,7 +11269,7 @@
         <v>4</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C754" t="s">
         <v>863</v>
@@ -11286,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C755" t="s">
         <v>863</v>
@@ -11297,7 +11291,7 @@
         <v>4</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C756" t="s">
         <v>863</v>
@@ -11308,7 +11302,7 @@
         <v>4</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C757" t="s">
         <v>863</v>
@@ -11319,7 +11313,7 @@
         <v>4</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C758" t="s">
         <v>863</v>
@@ -11330,7 +11324,7 @@
         <v>4</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C759" t="s">
         <v>863</v>
@@ -11341,7 +11335,7 @@
         <v>4</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C760" t="s">
         <v>863</v>
@@ -11352,7 +11346,7 @@
         <v>4</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C761" t="s">
         <v>863</v>
@@ -11363,7 +11357,7 @@
         <v>4</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C762" t="s">
         <v>863</v>
@@ -11374,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C763" t="s">
         <v>863</v>
@@ -11385,7 +11379,7 @@
         <v>4</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C764" t="s">
         <v>863</v>
@@ -11396,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C765" t="s">
         <v>863</v>
@@ -11407,7 +11401,7 @@
         <v>4</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C766" t="s">
         <v>863</v>
@@ -11418,7 +11412,7 @@
         <v>4</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C767" t="s">
         <v>863</v>
@@ -11429,7 +11423,7 @@
         <v>4</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C768" t="s">
         <v>863</v>
@@ -11440,7 +11434,7 @@
         <v>4</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C769" t="s">
         <v>863</v>
@@ -11451,7 +11445,7 @@
         <v>4</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C770" t="s">
         <v>863</v>
@@ -11462,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C771" t="s">
         <v>863</v>
@@ -11473,7 +11467,7 @@
         <v>4</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C772" t="s">
         <v>863</v>
@@ -11484,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C773" t="s">
         <v>863</v>
@@ -11495,7 +11489,7 @@
         <v>4</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C774" t="s">
         <v>863</v>
@@ -11506,7 +11500,7 @@
         <v>4</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C775" t="s">
         <v>863</v>
@@ -11517,7 +11511,7 @@
         <v>4</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C776" t="s">
         <v>863</v>
@@ -11528,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C777" t="s">
         <v>863</v>
@@ -11539,7 +11533,7 @@
         <v>4</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C778" t="s">
         <v>863</v>
@@ -11550,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C779" t="s">
         <v>863</v>
@@ -11561,7 +11555,7 @@
         <v>4</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C780" t="s">
         <v>863</v>
@@ -11572,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C781" t="s">
         <v>863</v>
@@ -11583,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C782" t="s">
         <v>863</v>
@@ -11594,7 +11588,7 @@
         <v>4</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C783" t="s">
         <v>863</v>
@@ -11605,7 +11599,7 @@
         <v>4</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C784" t="s">
         <v>863</v>
@@ -11616,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C785" t="s">
         <v>863</v>
@@ -11627,7 +11621,7 @@
         <v>4</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C786" t="s">
         <v>863</v>
@@ -11638,7 +11632,7 @@
         <v>4</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C787" t="s">
         <v>863</v>
@@ -11649,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C788" t="s">
         <v>863</v>
@@ -11660,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C789" t="s">
         <v>863</v>
@@ -11671,7 +11665,7 @@
         <v>4</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="C790" t="s">
         <v>863</v>
@@ -11682,7 +11676,7 @@
         <v>4</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="C791" t="s">
         <v>863</v>
@@ -11693,7 +11687,7 @@
         <v>4</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C792" t="s">
         <v>863</v>
@@ -11704,7 +11698,7 @@
         <v>4</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C793" t="s">
         <v>863</v>
@@ -11715,7 +11709,7 @@
         <v>4</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C794" t="s">
         <v>863</v>
@@ -11726,7 +11720,7 @@
         <v>4</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C795" t="s">
         <v>863</v>
@@ -11737,7 +11731,7 @@
         <v>4</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C796" t="s">
         <v>863</v>
@@ -11748,7 +11742,7 @@
         <v>4</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C797" t="s">
         <v>863</v>
@@ -11759,7 +11753,7 @@
         <v>4</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C798" t="s">
         <v>863</v>
@@ -11770,7 +11764,7 @@
         <v>4</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C799" t="s">
         <v>863</v>
@@ -11781,7 +11775,7 @@
         <v>4</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C800" t="s">
         <v>863</v>
@@ -11792,7 +11786,7 @@
         <v>4</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C801" t="s">
         <v>863</v>
@@ -11803,7 +11797,7 @@
         <v>4</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C802" t="s">
         <v>863</v>
@@ -11814,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C803" t="s">
         <v>863</v>
@@ -11825,7 +11819,7 @@
         <v>4</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C804" t="s">
         <v>863</v>
@@ -11836,7 +11830,7 @@
         <v>4</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C805" t="s">
         <v>863</v>
@@ -11847,7 +11841,7 @@
         <v>4</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C806" t="s">
         <v>863</v>
@@ -11858,7 +11852,7 @@
         <v>4</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C807" t="s">
         <v>863</v>
@@ -11869,7 +11863,7 @@
         <v>4</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C808" t="s">
         <v>863</v>
@@ -11880,7 +11874,7 @@
         <v>4</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C809" t="s">
         <v>863</v>
@@ -11891,7 +11885,7 @@
         <v>4</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C810" t="s">
         <v>863</v>
@@ -11902,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C811" t="s">
         <v>863</v>
@@ -11913,7 +11907,7 @@
         <v>4</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C812" t="s">
         <v>863</v>
@@ -11924,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C813" t="s">
         <v>863</v>
@@ -11935,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C814" t="s">
         <v>863</v>
@@ -11946,7 +11940,7 @@
         <v>4</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C815" t="s">
         <v>863</v>
@@ -11957,7 +11951,7 @@
         <v>4</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C816" t="s">
         <v>863</v>
@@ -11968,7 +11962,7 @@
         <v>4</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C817" t="s">
         <v>863</v>
@@ -11979,7 +11973,7 @@
         <v>4</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C818" t="s">
         <v>863</v>
@@ -11990,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C819" t="s">
         <v>863</v>
@@ -12001,7 +11995,7 @@
         <v>4</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C820" t="s">
         <v>863</v>
@@ -12012,7 +12006,7 @@
         <v>4</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C821" t="s">
         <v>863</v>
@@ -12023,7 +12017,7 @@
         <v>4</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C822" t="s">
         <v>863</v>
@@ -12034,7 +12028,7 @@
         <v>4</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C823" t="s">
         <v>863</v>
@@ -12045,7 +12039,7 @@
         <v>4</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C824" t="s">
         <v>863</v>
@@ -12056,7 +12050,7 @@
         <v>4</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C825" t="s">
         <v>863</v>
@@ -12067,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C826" t="s">
         <v>863</v>
@@ -12078,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C827" t="s">
         <v>863</v>
@@ -12089,7 +12083,7 @@
         <v>4</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C828" t="s">
         <v>863</v>
@@ -12100,7 +12094,7 @@
         <v>4</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C829" t="s">
         <v>863</v>
@@ -12111,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C830" t="s">
         <v>863</v>
@@ -12122,7 +12116,7 @@
         <v>4</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C831" t="s">
         <v>863</v>
@@ -12133,7 +12127,7 @@
         <v>4</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C832" t="s">
         <v>863</v>
@@ -12144,7 +12138,7 @@
         <v>4</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C833" t="s">
         <v>863</v>
@@ -12155,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C834" t="s">
         <v>863</v>
@@ -12166,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C835" t="s">
         <v>863</v>
@@ -12177,7 +12171,7 @@
         <v>4</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C836" t="s">
         <v>863</v>
@@ -12188,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C837" t="s">
         <v>863</v>
@@ -12199,7 +12193,7 @@
         <v>4</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C838" t="s">
         <v>863</v>
@@ -12210,7 +12204,7 @@
         <v>4</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C839" t="s">
         <v>863</v>
@@ -12221,7 +12215,7 @@
         <v>4</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C840" t="s">
         <v>863</v>
@@ -12232,7 +12226,7 @@
         <v>4</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C841" t="s">
         <v>863</v>
@@ -12243,7 +12237,7 @@
         <v>4</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C842" t="s">
         <v>863</v>
@@ -12254,7 +12248,7 @@
         <v>4</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C843" t="s">
         <v>863</v>
@@ -12265,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C844" t="s">
         <v>863</v>
@@ -12276,7 +12270,7 @@
         <v>4</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C845" t="s">
         <v>863</v>
@@ -12287,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C846" t="s">
         <v>863</v>
@@ -12298,7 +12292,7 @@
         <v>4</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C847" t="s">
         <v>863</v>
@@ -12309,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C848" t="s">
         <v>863</v>
@@ -12320,7 +12314,7 @@
         <v>4</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C849" t="s">
         <v>863</v>
@@ -12331,7 +12325,7 @@
         <v>4</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C850" t="s">
         <v>863</v>
@@ -12342,7 +12336,7 @@
         <v>4</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C851" t="s">
         <v>863</v>
@@ -12353,7 +12347,7 @@
         <v>4</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C852" t="s">
         <v>863</v>
@@ -12364,7 +12358,7 @@
         <v>4</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C853" t="s">
         <v>863</v>
@@ -12375,7 +12369,7 @@
         <v>4</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C854" t="s">
         <v>863</v>
@@ -12386,7 +12380,7 @@
         <v>4</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C855" t="s">
         <v>863</v>
@@ -12397,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C856" t="s">
         <v>863</v>
@@ -12408,7 +12402,7 @@
         <v>4</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C857" t="s">
         <v>863</v>
@@ -12419,7 +12413,7 @@
         <v>4</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C858" t="s">
         <v>863</v>
@@ -12430,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C859" t="s">
         <v>863</v>
@@ -12441,7 +12435,7 @@
         <v>4</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C860" t="s">
         <v>863</v>
@@ -12452,7 +12446,7 @@
         <v>4</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C861" t="s">
         <v>863</v>
@@ -12463,7 +12457,7 @@
         <v>4</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C862" t="s">
         <v>863</v>
@@ -12474,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C863" t="s">
         <v>863</v>
@@ -12485,7 +12479,7 @@
         <v>4</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C864" t="s">
         <v>863</v>
@@ -12496,36 +12490,14 @@
         <v>4</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C865" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A866" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B866" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C866" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A867" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B867" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C867" t="s">
-        <v>863</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D867">
+  <autoFilter ref="A1:D865">
     <sortState ref="A2:E867">
       <sortCondition ref="A2:A867"/>
       <sortCondition ref="B2:B867"/>

--- a/MANTENER TABLAS DATOS.xlsx
+++ b/MANTENER TABLAS DATOS.xlsx
@@ -2636,7 +2636,7 @@
     <t>PAC_USUARIO_MAE</t>
   </si>
   <si>
-    <t>PRESTAMOCUOTAFECHA</t>
+    <t>PRESTAMOCUOTASFECHA</t>
   </si>
 </sst>
 </file>
@@ -8321,7 +8321,7 @@
         <v>4</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>483</v>
+        <v>869</v>
       </c>
       <c r="C486" t="s">
         <v>863</v>
@@ -8332,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C487" t="s">
         <v>863</v>
@@ -8343,7 +8343,7 @@
         <v>4</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C488" t="s">
         <v>863</v>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C489" t="s">
         <v>863</v>
@@ -8365,7 +8365,7 @@
         <v>4</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C490" t="s">
         <v>863</v>
@@ -8376,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C491" t="s">
         <v>863</v>
@@ -8387,7 +8387,7 @@
         <v>4</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C492" t="s">
         <v>863</v>
@@ -8398,7 +8398,7 @@
         <v>4</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C493" t="s">
         <v>863</v>
@@ -8409,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C494" t="s">
         <v>863</v>
@@ -8420,7 +8420,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C495" t="s">
         <v>863</v>
@@ -8431,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C496" t="s">
         <v>863</v>
@@ -8442,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C497" t="s">
         <v>863</v>
@@ -8453,7 +8453,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C498" t="s">
         <v>863</v>
@@ -8464,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C499" t="s">
         <v>863</v>
@@ -8475,7 +8475,7 @@
         <v>4</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C500" t="s">
         <v>863</v>
@@ -8486,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C501" t="s">
         <v>863</v>
@@ -8497,7 +8497,7 @@
         <v>4</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C502" t="s">
         <v>863</v>
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C503" t="s">
         <v>863</v>
@@ -8519,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C504" t="s">
         <v>863</v>
@@ -8530,7 +8530,7 @@
         <v>4</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C505" t="s">
         <v>863</v>
@@ -8541,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C506" t="s">
         <v>863</v>
@@ -8552,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C507" t="s">
         <v>863</v>
@@ -8563,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C508" t="s">
         <v>863</v>
@@ -8574,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C509" t="s">
         <v>863</v>
@@ -8585,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C510" t="s">
         <v>863</v>
@@ -8596,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C511" t="s">
         <v>863</v>
@@ -8607,7 +8607,7 @@
         <v>4</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C512" t="s">
         <v>863</v>
@@ -8618,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C513" t="s">
         <v>863</v>
@@ -8629,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C514" t="s">
         <v>863</v>
@@ -8640,7 +8640,7 @@
         <v>4</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C515" t="s">
         <v>863</v>
@@ -8651,7 +8651,7 @@
         <v>4</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C516" t="s">
         <v>863</v>
@@ -8662,7 +8662,7 @@
         <v>4</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C517" t="s">
         <v>863</v>
@@ -8673,7 +8673,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C518" t="s">
         <v>863</v>
@@ -8684,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C519" t="s">
         <v>863</v>
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C520" t="s">
         <v>863</v>
@@ -8706,7 +8706,7 @@
         <v>4</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C521" t="s">
         <v>863</v>
@@ -8717,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C522" t="s">
         <v>863</v>
@@ -8728,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C523" t="s">
         <v>863</v>
@@ -8739,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C524" t="s">
         <v>863</v>
@@ -8750,7 +8750,7 @@
         <v>4</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C525" t="s">
         <v>863</v>
@@ -8761,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C526" t="s">
         <v>863</v>
@@ -8772,7 +8772,7 @@
         <v>4</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C527" t="s">
         <v>863</v>
@@ -8783,7 +8783,7 @@
         <v>4</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C528" t="s">
         <v>863</v>
@@ -8794,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C529" t="s">
         <v>863</v>
@@ -8805,7 +8805,7 @@
         <v>4</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C530" t="s">
         <v>863</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C531" t="s">
         <v>863</v>
@@ -8827,7 +8827,7 @@
         <v>4</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C532" t="s">
         <v>863</v>
@@ -8838,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C533" t="s">
         <v>863</v>
@@ -8849,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C534" t="s">
         <v>863</v>
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C535" t="s">
         <v>863</v>
@@ -8871,7 +8871,7 @@
         <v>4</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C536" t="s">
         <v>863</v>
@@ -8882,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C537" t="s">
         <v>863</v>
@@ -8893,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C538" t="s">
         <v>863</v>
@@ -8904,7 +8904,7 @@
         <v>4</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C539" t="s">
         <v>863</v>
@@ -8915,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C540" t="s">
         <v>863</v>
@@ -8926,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C541" t="s">
         <v>863</v>
@@ -8937,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C542" t="s">
         <v>863</v>
@@ -8948,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C543" t="s">
         <v>863</v>
@@ -8959,7 +8959,7 @@
         <v>4</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C544" t="s">
         <v>863</v>
@@ -8970,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C545" t="s">
         <v>863</v>
@@ -8981,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C546" t="s">
         <v>863</v>
@@ -8992,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C547" t="s">
         <v>863</v>
@@ -9003,7 +9003,7 @@
         <v>4</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C548" t="s">
         <v>863</v>
@@ -9014,7 +9014,7 @@
         <v>4</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C549" t="s">
         <v>863</v>
@@ -9025,7 +9025,7 @@
         <v>4</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C550" t="s">
         <v>863</v>
@@ -9036,7 +9036,7 @@
         <v>4</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C551" t="s">
         <v>863</v>
@@ -9047,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C552" t="s">
         <v>863</v>
@@ -9058,7 +9058,7 @@
         <v>4</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C553" t="s">
         <v>863</v>
@@ -9069,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C554" t="s">
         <v>863</v>
@@ -9080,7 +9080,7 @@
         <v>4</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C555" t="s">
         <v>863</v>
@@ -9091,7 +9091,7 @@
         <v>4</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C556" t="s">
         <v>863</v>
@@ -9102,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C557" t="s">
         <v>863</v>
@@ -9113,7 +9113,7 @@
         <v>4</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C558" t="s">
         <v>863</v>
@@ -9124,7 +9124,7 @@
         <v>4</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C559" t="s">
         <v>863</v>
@@ -9135,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C560" t="s">
         <v>863</v>
@@ -9146,7 +9146,7 @@
         <v>4</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C561" t="s">
         <v>863</v>
@@ -9157,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C562" t="s">
         <v>863</v>
@@ -9168,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C563" t="s">
         <v>863</v>
@@ -9179,7 +9179,7 @@
         <v>4</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C564" t="s">
         <v>863</v>
@@ -9190,7 +9190,7 @@
         <v>4</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C565" t="s">
         <v>863</v>
@@ -9201,7 +9201,7 @@
         <v>4</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C566" t="s">
         <v>863</v>
@@ -9212,7 +9212,7 @@
         <v>4</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C567" t="s">
         <v>863</v>
@@ -9223,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C568" t="s">
         <v>863</v>
@@ -9234,7 +9234,7 @@
         <v>4</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C569" t="s">
         <v>863</v>
@@ -9245,7 +9245,7 @@
         <v>4</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C570" t="s">
         <v>863</v>
@@ -9256,7 +9256,7 @@
         <v>4</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C571" t="s">
         <v>863</v>
@@ -9267,7 +9267,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C572" t="s">
         <v>863</v>
@@ -9278,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C573" t="s">
         <v>863</v>
@@ -9289,7 +9289,7 @@
         <v>4</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C574" t="s">
         <v>863</v>
@@ -9300,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C575" t="s">
         <v>863</v>
@@ -9311,7 +9311,7 @@
         <v>4</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C576" t="s">
         <v>863</v>
@@ -9322,7 +9322,7 @@
         <v>4</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C577" t="s">
         <v>863</v>
@@ -9333,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C578" t="s">
         <v>863</v>
@@ -9344,7 +9344,7 @@
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C579" t="s">
         <v>863</v>
@@ -9355,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C580" t="s">
         <v>863</v>
@@ -9366,7 +9366,7 @@
         <v>4</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C581" t="s">
         <v>863</v>
@@ -9377,7 +9377,7 @@
         <v>4</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C582" t="s">
         <v>863</v>
@@ -9388,7 +9388,7 @@
         <v>4</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C583" t="s">
         <v>863</v>
@@ -9399,7 +9399,7 @@
         <v>4</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C584" t="s">
         <v>863</v>
@@ -9410,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="C585" t="s">
         <v>863</v>
@@ -9421,7 +9421,7 @@
         <v>4</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="C586" t="s">
         <v>863</v>
@@ -9432,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C587" t="s">
         <v>863</v>
@@ -9443,7 +9443,7 @@
         <v>4</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C588" t="s">
         <v>863</v>
@@ -9454,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C589" t="s">
         <v>863</v>
@@ -9465,7 +9465,7 @@
         <v>4</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C590" t="s">
         <v>863</v>
@@ -9476,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C591" t="s">
         <v>863</v>
@@ -9487,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="C592" t="s">
         <v>863</v>
@@ -9498,7 +9498,7 @@
         <v>4</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C593" t="s">
         <v>863</v>
@@ -9509,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C594" t="s">
         <v>863</v>
@@ -9520,7 +9520,7 @@
         <v>4</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C595" t="s">
         <v>863</v>
@@ -9531,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C596" t="s">
         <v>863</v>
@@ -9542,7 +9542,7 @@
         <v>4</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C597" t="s">
         <v>863</v>
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C598" t="s">
         <v>863</v>
@@ -9564,7 +9564,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C599" t="s">
         <v>863</v>
@@ -9575,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C600" t="s">
         <v>863</v>
@@ -9586,7 +9586,7 @@
         <v>4</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C601" t="s">
         <v>863</v>
@@ -9597,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C602" t="s">
         <v>863</v>
@@ -9608,7 +9608,7 @@
         <v>4</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C603" t="s">
         <v>863</v>
@@ -9619,7 +9619,7 @@
         <v>4</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C604" t="s">
         <v>863</v>
@@ -9630,7 +9630,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C605" t="s">
         <v>863</v>
@@ -9641,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C606" t="s">
         <v>863</v>
@@ -9652,7 +9652,7 @@
         <v>4</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C607" t="s">
         <v>863</v>
@@ -9663,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C608" t="s">
         <v>863</v>
@@ -9674,7 +9674,7 @@
         <v>4</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C609" t="s">
         <v>863</v>
@@ -9685,7 +9685,7 @@
         <v>4</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C610" t="s">
         <v>863</v>
@@ -9696,7 +9696,7 @@
         <v>4</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C611" t="s">
         <v>863</v>
@@ -9707,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C612" t="s">
         <v>863</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C613" t="s">
         <v>863</v>
@@ -9729,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C614" t="s">
         <v>863</v>
@@ -9740,7 +9740,7 @@
         <v>4</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C615" t="s">
         <v>863</v>
@@ -9751,7 +9751,7 @@
         <v>4</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C616" t="s">
         <v>863</v>
@@ -9762,7 +9762,7 @@
         <v>4</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C617" t="s">
         <v>863</v>
@@ -9773,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C618" t="s">
         <v>863</v>
@@ -9784,7 +9784,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C619" t="s">
         <v>863</v>
@@ -9795,7 +9795,7 @@
         <v>4</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C620" t="s">
         <v>863</v>
@@ -9806,7 +9806,7 @@
         <v>4</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C621" t="s">
         <v>863</v>
@@ -9817,7 +9817,7 @@
         <v>4</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C622" t="s">
         <v>863</v>
@@ -9828,7 +9828,7 @@
         <v>4</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C623" t="s">
         <v>863</v>
@@ -9839,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C624" t="s">
         <v>863</v>
@@ -9850,7 +9850,7 @@
         <v>4</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C625" t="s">
         <v>863</v>
@@ -9861,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C626" t="s">
         <v>863</v>
@@ -9872,7 +9872,7 @@
         <v>4</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C627" t="s">
         <v>863</v>
@@ -9883,7 +9883,7 @@
         <v>4</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C628" t="s">
         <v>863</v>
@@ -9894,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C629" t="s">
         <v>863</v>
@@ -9905,7 +9905,7 @@
         <v>4</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C630" t="s">
         <v>863</v>
@@ -9916,7 +9916,7 @@
         <v>4</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C631" t="s">
         <v>863</v>
@@ -9927,7 +9927,7 @@
         <v>4</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C632" t="s">
         <v>863</v>
@@ -9938,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C633" t="s">
         <v>863</v>
@@ -9949,7 +9949,7 @@
         <v>4</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C634" t="s">
         <v>863</v>
@@ -9960,7 +9960,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C635" t="s">
         <v>863</v>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C636" t="s">
         <v>863</v>
@@ -9982,7 +9982,7 @@
         <v>4</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C637" t="s">
         <v>863</v>
@@ -9993,7 +9993,7 @@
         <v>4</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C638" t="s">
         <v>863</v>
@@ -10004,7 +10004,7 @@
         <v>4</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C639" t="s">
         <v>863</v>
@@ -10015,7 +10015,7 @@
         <v>4</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C640" t="s">
         <v>863</v>
@@ -10026,7 +10026,7 @@
         <v>4</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C641" t="s">
         <v>863</v>
@@ -10037,7 +10037,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C642" t="s">
         <v>863</v>
@@ -10048,7 +10048,7 @@
         <v>4</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C643" t="s">
         <v>863</v>
@@ -10059,7 +10059,7 @@
         <v>4</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C644" t="s">
         <v>863</v>
@@ -10070,7 +10070,7 @@
         <v>4</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C645" t="s">
         <v>863</v>
@@ -10081,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C646" t="s">
         <v>863</v>
@@ -10092,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C647" t="s">
         <v>863</v>
@@ -10103,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="C648" t="s">
         <v>863</v>
@@ -10114,7 +10114,7 @@
         <v>4</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C649" t="s">
         <v>863</v>
@@ -10125,7 +10125,7 @@
         <v>4</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C650" t="s">
         <v>863</v>
@@ -10136,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C651" t="s">
         <v>863</v>
@@ -10147,7 +10147,7 @@
         <v>4</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C652" t="s">
         <v>863</v>
@@ -10158,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C653" t="s">
         <v>863</v>
@@ -10169,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C654" t="s">
         <v>863</v>
@@ -10180,7 +10180,7 @@
         <v>4</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C655" t="s">
         <v>863</v>
@@ -10191,7 +10191,7 @@
         <v>4</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C656" t="s">
         <v>863</v>
@@ -10202,7 +10202,7 @@
         <v>4</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C657" t="s">
         <v>863</v>
@@ -10213,7 +10213,7 @@
         <v>4</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C658" t="s">
         <v>863</v>
@@ -10224,7 +10224,7 @@
         <v>4</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C659" t="s">
         <v>863</v>
@@ -10235,7 +10235,7 @@
         <v>4</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C660" t="s">
         <v>863</v>
@@ -10246,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C661" t="s">
         <v>863</v>
@@ -10257,7 +10257,7 @@
         <v>4</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C662" t="s">
         <v>863</v>
@@ -10268,7 +10268,7 @@
         <v>4</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C663" t="s">
         <v>863</v>
@@ -10279,7 +10279,7 @@
         <v>4</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C664" t="s">
         <v>863</v>
@@ -10290,7 +10290,7 @@
         <v>4</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C665" t="s">
         <v>863</v>
@@ -10301,7 +10301,7 @@
         <v>4</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C666" t="s">
         <v>863</v>
@@ -10312,7 +10312,7 @@
         <v>4</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C667" t="s">
         <v>863</v>
@@ -10323,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C668" t="s">
         <v>863</v>
@@ -10334,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C669" t="s">
         <v>863</v>
@@ -10345,7 +10345,7 @@
         <v>4</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C670" t="s">
         <v>863</v>
@@ -10356,7 +10356,7 @@
         <v>4</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C671" t="s">
         <v>863</v>
@@ -10367,7 +10367,7 @@
         <v>4</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C672" t="s">
         <v>863</v>
@@ -10378,7 +10378,7 @@
         <v>4</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C673" t="s">
         <v>863</v>
@@ -10389,7 +10389,7 @@
         <v>4</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="C674" t="s">
         <v>863</v>
@@ -10400,7 +10400,7 @@
         <v>4</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C675" t="s">
         <v>863</v>
@@ -10411,7 +10411,7 @@
         <v>4</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C676" t="s">
         <v>863</v>
@@ -10422,7 +10422,7 @@
         <v>4</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C677" t="s">
         <v>863</v>
@@ -10433,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C678" t="s">
         <v>863</v>
@@ -10444,7 +10444,7 @@
         <v>4</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C679" t="s">
         <v>863</v>
@@ -10455,7 +10455,7 @@
         <v>4</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C680" t="s">
         <v>863</v>
@@ -10466,7 +10466,7 @@
         <v>4</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C681" t="s">
         <v>863</v>
@@ -10477,7 +10477,7 @@
         <v>4</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C682" t="s">
         <v>863</v>
@@ -10488,7 +10488,7 @@
         <v>4</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C683" t="s">
         <v>863</v>
@@ -10499,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C684" t="s">
         <v>863</v>
@@ -10510,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C685" t="s">
         <v>863</v>
@@ -10521,7 +10521,7 @@
         <v>4</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C686" t="s">
         <v>863</v>
@@ -10532,7 +10532,7 @@
         <v>4</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C687" t="s">
         <v>863</v>
@@ -10543,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C688" t="s">
         <v>863</v>
@@ -10554,7 +10554,7 @@
         <v>4</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C689" t="s">
         <v>863</v>
@@ -10565,7 +10565,7 @@
         <v>4</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C690" t="s">
         <v>863</v>
@@ -10576,7 +10576,7 @@
         <v>4</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C691" t="s">
         <v>863</v>
@@ -10587,7 +10587,7 @@
         <v>4</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C692" t="s">
         <v>863</v>
@@ -10598,7 +10598,7 @@
         <v>4</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C693" t="s">
         <v>863</v>
@@ -10609,7 +10609,7 @@
         <v>4</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C694" t="s">
         <v>863</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C695" t="s">
         <v>863</v>
@@ -10631,7 +10631,7 @@
         <v>4</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C696" t="s">
         <v>863</v>
@@ -10642,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C697" t="s">
         <v>863</v>
@@ -10653,7 +10653,7 @@
         <v>4</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C698" t="s">
         <v>863</v>
@@ -10664,7 +10664,7 @@
         <v>4</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C699" t="s">
         <v>863</v>
@@ -10675,7 +10675,7 @@
         <v>4</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C700" t="s">
         <v>863</v>
@@ -10686,7 +10686,7 @@
         <v>4</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C701" t="s">
         <v>863</v>
@@ -10697,7 +10697,7 @@
         <v>4</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C702" t="s">
         <v>863</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C703" t="s">
         <v>863</v>
@@ -10719,7 +10719,7 @@
         <v>4</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C704" t="s">
         <v>863</v>
@@ -10730,7 +10730,7 @@
         <v>4</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C705" t="s">
         <v>863</v>
@@ -10741,7 +10741,7 @@
         <v>4</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C706" t="s">
         <v>863</v>
@@ -10752,7 +10752,7 @@
         <v>4</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C707" t="s">
         <v>863</v>
@@ -10763,7 +10763,7 @@
         <v>4</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C708" t="s">
         <v>863</v>
@@ -10774,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C709" t="s">
         <v>863</v>
@@ -10785,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C710" t="s">
         <v>863</v>
@@ -10796,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C711" t="s">
         <v>863</v>
@@ -10807,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C712" t="s">
         <v>863</v>
@@ -10818,7 +10818,7 @@
         <v>4</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C713" t="s">
         <v>863</v>
@@ -10829,7 +10829,7 @@
         <v>4</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C714" t="s">
         <v>863</v>
@@ -10840,7 +10840,7 @@
         <v>4</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C715" t="s">
         <v>863</v>
@@ -10851,7 +10851,7 @@
         <v>4</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C716" t="s">
         <v>863</v>
@@ -10862,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C717" t="s">
         <v>863</v>
@@ -10873,7 +10873,7 @@
         <v>4</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C718" t="s">
         <v>863</v>
@@ -10884,7 +10884,7 @@
         <v>4</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C719" t="s">
         <v>863</v>
@@ -10895,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C720" t="s">
         <v>863</v>
@@ -10906,7 +10906,7 @@
         <v>4</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C721" t="s">
         <v>863</v>
@@ -10917,7 +10917,7 @@
         <v>4</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C722" t="s">
         <v>863</v>
@@ -10928,7 +10928,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C723" t="s">
         <v>863</v>
@@ -10939,7 +10939,7 @@
         <v>4</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C724" t="s">
         <v>863</v>
@@ -10950,7 +10950,7 @@
         <v>4</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C725" t="s">
         <v>863</v>
@@ -10961,7 +10961,7 @@
         <v>4</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C726" t="s">
         <v>863</v>
@@ -10972,7 +10972,7 @@
         <v>4</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C727" t="s">
         <v>863</v>
@@ -10983,7 +10983,7 @@
         <v>4</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C728" t="s">
         <v>863</v>
@@ -10994,7 +10994,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C729" t="s">
         <v>863</v>
@@ -11005,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C730" t="s">
         <v>863</v>
@@ -11016,7 +11016,7 @@
         <v>4</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C731" t="s">
         <v>863</v>
@@ -11027,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C732" t="s">
         <v>863</v>
@@ -11038,7 +11038,7 @@
         <v>4</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C733" t="s">
         <v>863</v>
@@ -11049,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C734" t="s">
         <v>863</v>
@@ -11060,7 +11060,7 @@
         <v>4</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C735" t="s">
         <v>863</v>
@@ -11071,7 +11071,7 @@
         <v>4</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C736" t="s">
         <v>863</v>
@@ -11082,7 +11082,7 @@
         <v>4</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C737" t="s">
         <v>863</v>
@@ -11093,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C738" t="s">
         <v>863</v>
@@ -11104,7 +11104,7 @@
         <v>4</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C739" t="s">
         <v>863</v>
@@ -11115,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C740" t="s">
         <v>863</v>
@@ -11126,7 +11126,7 @@
         <v>4</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C741" t="s">
         <v>863</v>
@@ -11137,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C742" t="s">
         <v>863</v>
@@ -11148,7 +11148,7 @@
         <v>4</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C743" t="s">
         <v>863</v>
@@ -11159,7 +11159,7 @@
         <v>4</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C744" t="s">
         <v>863</v>
@@ -11170,7 +11170,7 @@
         <v>4</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C745" t="s">
         <v>863</v>
@@ -11181,7 +11181,7 @@
         <v>4</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C746" t="s">
         <v>863</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C747" t="s">
         <v>863</v>
@@ -11203,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C748" t="s">
         <v>863</v>
@@ -11214,7 +11214,7 @@
         <v>4</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C749" t="s">
         <v>863</v>
@@ -11225,7 +11225,7 @@
         <v>4</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C750" t="s">
         <v>863</v>
@@ -11236,7 +11236,7 @@
         <v>4</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C751" t="s">
         <v>863</v>
@@ -11247,7 +11247,7 @@
         <v>4</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C752" t="s">
         <v>863</v>
@@ -11258,7 +11258,7 @@
         <v>4</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C753" t="s">
         <v>863</v>
@@ -11269,7 +11269,7 @@
         <v>4</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C754" t="s">
         <v>863</v>
@@ -11280,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C755" t="s">
         <v>863</v>
@@ -11291,7 +11291,7 @@
         <v>4</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C756" t="s">
         <v>863</v>
@@ -11302,7 +11302,7 @@
         <v>4</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C757" t="s">
         <v>863</v>
@@ -11313,7 +11313,7 @@
         <v>4</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C758" t="s">
         <v>863</v>
@@ -11324,7 +11324,7 @@
         <v>4</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C759" t="s">
         <v>863</v>
@@ -11335,7 +11335,7 @@
         <v>4</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C760" t="s">
         <v>863</v>
@@ -11346,7 +11346,7 @@
         <v>4</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C761" t="s">
         <v>863</v>
@@ -11357,7 +11357,7 @@
         <v>4</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C762" t="s">
         <v>863</v>
@@ -11368,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C763" t="s">
         <v>863</v>
@@ -11379,7 +11379,7 @@
         <v>4</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C764" t="s">
         <v>863</v>
@@ -11390,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C765" t="s">
         <v>863</v>
@@ -11401,7 +11401,7 @@
         <v>4</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C766" t="s">
         <v>863</v>
@@ -11412,7 +11412,7 @@
         <v>4</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C767" t="s">
         <v>863</v>
@@ -11423,7 +11423,7 @@
         <v>4</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C768" t="s">
         <v>863</v>
@@ -11434,7 +11434,7 @@
         <v>4</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C769" t="s">
         <v>863</v>
@@ -11445,7 +11445,7 @@
         <v>4</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C770" t="s">
         <v>863</v>
@@ -11456,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C771" t="s">
         <v>863</v>
@@ -11467,7 +11467,7 @@
         <v>4</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C772" t="s">
         <v>863</v>
@@ -11478,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C773" t="s">
         <v>863</v>
@@ -11489,7 +11489,7 @@
         <v>4</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C774" t="s">
         <v>863</v>
@@ -11500,7 +11500,7 @@
         <v>4</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C775" t="s">
         <v>863</v>
@@ -11511,7 +11511,7 @@
         <v>4</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C776" t="s">
         <v>863</v>
@@ -11522,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C777" t="s">
         <v>863</v>
@@ -11533,7 +11533,7 @@
         <v>4</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C778" t="s">
         <v>863</v>
@@ -11544,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C779" t="s">
         <v>863</v>
@@ -11555,7 +11555,7 @@
         <v>4</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C780" t="s">
         <v>863</v>
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C781" t="s">
         <v>863</v>
@@ -11577,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C782" t="s">
         <v>863</v>
@@ -11588,7 +11588,7 @@
         <v>4</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C783" t="s">
         <v>863</v>
@@ -11599,7 +11599,7 @@
         <v>4</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C784" t="s">
         <v>863</v>
@@ -11610,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C785" t="s">
         <v>863</v>
@@ -11621,7 +11621,7 @@
         <v>4</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C786" t="s">
         <v>863</v>
@@ -11632,7 +11632,7 @@
         <v>4</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C787" t="s">
         <v>863</v>
@@ -11643,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C788" t="s">
         <v>863</v>
@@ -11654,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C789" t="s">
         <v>863</v>
@@ -11665,7 +11665,7 @@
         <v>4</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C790" t="s">
         <v>863</v>
@@ -11676,7 +11676,7 @@
         <v>4</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C791" t="s">
         <v>863</v>
@@ -11687,7 +11687,7 @@
         <v>4</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C792" t="s">
         <v>863</v>
@@ -11698,7 +11698,7 @@
         <v>4</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C793" t="s">
         <v>863</v>
@@ -11709,7 +11709,7 @@
         <v>4</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C794" t="s">
         <v>863</v>
@@ -11720,7 +11720,7 @@
         <v>4</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C795" t="s">
         <v>863</v>
@@ -11731,7 +11731,7 @@
         <v>4</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C796" t="s">
         <v>863</v>
@@ -11742,7 +11742,7 @@
         <v>4</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C797" t="s">
         <v>863</v>
@@ -11753,7 +11753,7 @@
         <v>4</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C798" t="s">
         <v>863</v>
@@ -11764,7 +11764,7 @@
         <v>4</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C799" t="s">
         <v>863</v>
@@ -11775,7 +11775,7 @@
         <v>4</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C800" t="s">
         <v>863</v>
@@ -11786,7 +11786,7 @@
         <v>4</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C801" t="s">
         <v>863</v>
@@ -11797,7 +11797,7 @@
         <v>4</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C802" t="s">
         <v>863</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C803" t="s">
         <v>863</v>
@@ -11819,7 +11819,7 @@
         <v>4</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C804" t="s">
         <v>863</v>
@@ -11830,7 +11830,7 @@
         <v>4</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C805" t="s">
         <v>863</v>
@@ -11841,7 +11841,7 @@
         <v>4</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C806" t="s">
         <v>863</v>
@@ -11852,7 +11852,7 @@
         <v>4</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C807" t="s">
         <v>863</v>
@@ -11863,7 +11863,7 @@
         <v>4</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C808" t="s">
         <v>863</v>
@@ -11874,7 +11874,7 @@
         <v>4</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C809" t="s">
         <v>863</v>
@@ -11885,7 +11885,7 @@
         <v>4</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C810" t="s">
         <v>863</v>
@@ -11896,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C811" t="s">
         <v>863</v>
@@ -11907,7 +11907,7 @@
         <v>4</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C812" t="s">
         <v>863</v>
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C813" t="s">
         <v>863</v>
@@ -11929,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C814" t="s">
         <v>863</v>
@@ -11940,7 +11940,7 @@
         <v>4</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C815" t="s">
         <v>863</v>
@@ -11951,7 +11951,7 @@
         <v>4</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C816" t="s">
         <v>863</v>
@@ -11962,7 +11962,7 @@
         <v>4</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C817" t="s">
         <v>863</v>
@@ -11973,7 +11973,7 @@
         <v>4</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C818" t="s">
         <v>863</v>
@@ -11984,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C819" t="s">
         <v>863</v>
@@ -11995,7 +11995,7 @@
         <v>4</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C820" t="s">
         <v>863</v>
@@ -12006,7 +12006,7 @@
         <v>4</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C821" t="s">
         <v>863</v>
@@ -12017,7 +12017,7 @@
         <v>4</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C822" t="s">
         <v>863</v>
@@ -12028,7 +12028,7 @@
         <v>4</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C823" t="s">
         <v>863</v>
@@ -12039,7 +12039,7 @@
         <v>4</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C824" t="s">
         <v>863</v>
@@ -12050,7 +12050,7 @@
         <v>4</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C825" t="s">
         <v>863</v>
@@ -12061,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C826" t="s">
         <v>863</v>
@@ -12072,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C827" t="s">
         <v>863</v>
@@ -12083,7 +12083,7 @@
         <v>4</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C828" t="s">
         <v>863</v>
@@ -12094,7 +12094,7 @@
         <v>4</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C829" t="s">
         <v>863</v>
@@ -12105,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C830" t="s">
         <v>863</v>
@@ -12116,7 +12116,7 @@
         <v>4</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C831" t="s">
         <v>863</v>
@@ -12127,7 +12127,7 @@
         <v>4</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C832" t="s">
         <v>863</v>
@@ -12138,7 +12138,7 @@
         <v>4</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C833" t="s">
         <v>863</v>
@@ -12149,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C834" t="s">
         <v>863</v>
@@ -12160,7 +12160,7 @@
         <v>4</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C835" t="s">
         <v>863</v>
@@ -12171,7 +12171,7 @@
         <v>4</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C836" t="s">
         <v>863</v>
@@ -12182,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C837" t="s">
         <v>863</v>
@@ -12193,7 +12193,7 @@
         <v>4</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C838" t="s">
         <v>863</v>
@@ -12204,7 +12204,7 @@
         <v>4</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C839" t="s">
         <v>863</v>
@@ -12215,7 +12215,7 @@
         <v>4</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C840" t="s">
         <v>863</v>
@@ -12226,7 +12226,7 @@
         <v>4</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C841" t="s">
         <v>863</v>
@@ -12237,7 +12237,7 @@
         <v>4</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C842" t="s">
         <v>863</v>
@@ -12248,7 +12248,7 @@
         <v>4</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C843" t="s">
         <v>863</v>
@@ -12259,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C844" t="s">
         <v>863</v>
@@ -12270,7 +12270,7 @@
         <v>4</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C845" t="s">
         <v>863</v>
@@ -12281,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C846" t="s">
         <v>863</v>
@@ -12292,7 +12292,7 @@
         <v>4</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C847" t="s">
         <v>863</v>
@@ -12303,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C848" t="s">
         <v>863</v>
@@ -12314,7 +12314,7 @@
         <v>4</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C849" t="s">
         <v>863</v>
@@ -12325,7 +12325,7 @@
         <v>4</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C850" t="s">
         <v>863</v>
@@ -12336,7 +12336,7 @@
         <v>4</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C851" t="s">
         <v>863</v>
@@ -12347,7 +12347,7 @@
         <v>4</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C852" t="s">
         <v>863</v>
@@ -12358,7 +12358,7 @@
         <v>4</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C853" t="s">
         <v>863</v>
@@ -12369,7 +12369,7 @@
         <v>4</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C854" t="s">
         <v>863</v>
@@ -12380,7 +12380,7 @@
         <v>4</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C855" t="s">
         <v>863</v>
@@ -12391,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C856" t="s">
         <v>863</v>
@@ -12402,7 +12402,7 @@
         <v>4</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C857" t="s">
         <v>863</v>
@@ -12413,7 +12413,7 @@
         <v>4</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C858" t="s">
         <v>863</v>
@@ -12424,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C859" t="s">
         <v>863</v>
@@ -12435,7 +12435,7 @@
         <v>4</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C860" t="s">
         <v>863</v>
@@ -12446,7 +12446,7 @@
         <v>4</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C861" t="s">
         <v>863</v>
@@ -12457,7 +12457,7 @@
         <v>4</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C862" t="s">
         <v>863</v>
@@ -12468,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C863" t="s">
         <v>863</v>
@@ -12479,7 +12479,7 @@
         <v>4</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C864" t="s">
         <v>863</v>
@@ -12490,7 +12490,7 @@
         <v>4</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C865" t="s">
         <v>863</v>
@@ -12498,9 +12498,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D865">
-    <sortState ref="A2:E867">
-      <sortCondition ref="A2:A867"/>
-      <sortCondition ref="B2:B867"/>
+    <sortState ref="A2:D865">
+      <sortCondition ref="A2:A865"/>
+      <sortCondition ref="B2:B865"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
